--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,11 @@
           <t>Protected_90_100_Pct</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EDT_reach_rank</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -440,10 +445,8 @@
       <c r="H2">
         <v>283.2272671257763</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="I2">
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -452,7 +455,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -466,64 +469,60 @@
         </is>
       </c>
       <c r="D3">
-        <v>95.81184510461004</v>
+        <v>86.46684217526705</v>
       </c>
       <c r="E3">
-        <v>57.77777777777777</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="F3">
-        <v>12.584763</v>
+        <v>8.483549</v>
       </c>
       <c r="G3">
-        <v>76.46233700000001</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>242.6367228823878</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>270.5059467308226</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D4">
-        <v>86.46684217526705</v>
+        <v>17.25110079134537</v>
       </c>
       <c r="E4">
-        <v>75.55555555555556</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F4">
-        <v>8.483549</v>
+        <v>0.07753</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
-        <v>270.5059467308226</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>181.7730752357898</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -532,38 +531,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D5">
-        <v>59.40114855246741</v>
+        <v>84.29416294333068</v>
       </c>
       <c r="E5">
-        <v>66.66666666666666</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>3.364744</v>
+        <v>5.690506</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>229.4325592191341</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>269.9846689433307</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -572,38 +569,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D6">
-        <v>17.25110079134537</v>
+        <v>63.71807967313585</v>
       </c>
       <c r="E6">
-        <v>64.44444444444444</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="F6">
-        <v>0.07753</v>
+        <v>22.84511</v>
       </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6">
-        <v>181.7730752357898</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>264.3409674509136</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -612,7 +607,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -626,24 +621,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>84.29416294333068</v>
+        <v>57.79778914955362</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="F7">
-        <v>5.690506</v>
+        <v>4.685922</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>269.9846689433307</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>251.3726000384425</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -652,7 +645,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,24 +659,16 @@
         </is>
       </c>
       <c r="D8">
-        <v>63.71807967313585</v>
+        <v>11.67507174164155</v>
       </c>
       <c r="E8">
         <v>77.77777777777779</v>
       </c>
-      <c r="F8">
-        <v>22.84511</v>
-      </c>
       <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8">
-        <v>264.3409674509136</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="I8">
+        <v>3</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -692,7 +677,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -706,24 +691,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>67.13441483580915</v>
+        <v>97.21324179051436</v>
       </c>
       <c r="E9">
-        <v>66.66666666666666</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="F9">
-        <v>8.119336000000001</v>
+        <v>3.197647</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>241.9204175024758</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>278.1886665682922</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -732,7 +715,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Potato 01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -742,37 +725,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D10">
-        <v>57.79778914955362</v>
-      </c>
-      <c r="E10">
-        <v>88.88888888888889</v>
+        <v>86.60374759766457</v>
       </c>
       <c r="F10">
-        <v>4.685922</v>
+        <v>80.393236</v>
       </c>
       <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>251.3726000384425</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>9.95196</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Potato 03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -782,31 +754,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D11">
-        <v>11.67507174164155</v>
-      </c>
-      <c r="E11">
-        <v>77.77777777777779</v>
+        <v>48.49105559993951</v>
+      </c>
+      <c r="F11">
+        <v>23.362439</v>
       </c>
       <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>36.226047</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -816,28 +783,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D12">
-        <v>97.21324179051436</v>
+        <v>98.91220961766038</v>
       </c>
       <c r="E12">
         <v>77.77777777777779</v>
       </c>
       <c r="F12">
-        <v>3.197647</v>
+        <v>7.873494</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
-        <v>278.1886665682922</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>284.5634813954382</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -846,7 +811,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -860,18 +825,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>86.60374759766457</v>
+        <v>98.41864483952135</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>80.393236</v>
+        <v>5.336962</v>
       </c>
       <c r="G13">
-        <v>9.95196</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>67.172203</v>
+      </c>
+      <c r="H13">
+        <v>250.9278098395213</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -880,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Potato 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -894,18 +863,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>48.49105559993951</v>
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>68.88888888888889</v>
       </c>
       <c r="F14">
-        <v>23.362439</v>
+        <v>1.143825</v>
       </c>
       <c r="G14">
-        <v>36.226047</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>170.0327138888889</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -914,7 +887,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -924,28 +897,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D15">
-        <v>98.91220961766038</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>77.77777777777779</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F15">
-        <v>7.873494</v>
+        <v>5.546068</v>
       </c>
       <c r="G15">
         <v>100</v>
       </c>
       <c r="H15">
-        <v>284.5634813954382</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>278.8794013333333</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -954,7 +925,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -964,37 +935,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D16">
-        <v>98.41864483952135</v>
+        <v>97.31787937555582</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F16">
-        <v>5.336962</v>
+        <v>10.638707</v>
       </c>
       <c r="G16">
-        <v>67.172203</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>250.9278098395213</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>272.4010308200002</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1004,37 +973,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>83.44649421443781</v>
       </c>
       <c r="E17">
-        <v>68.88888888888889</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F17">
-        <v>1.143825</v>
+        <v>6.149398</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>94.057289</v>
       </c>
       <c r="H17">
-        <v>170.0327138888889</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>248.0976256588822</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1044,28 +1011,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>97.24629936242772</v>
       </c>
       <c r="E18">
-        <v>73.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>5.546068</v>
+        <v>14.705793</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>278.8794013333333</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>291.9520923624277</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1074,38 +1039,36 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D19">
-        <v>97.31787937555582</v>
+        <v>90.28226492698596</v>
       </c>
       <c r="E19">
-        <v>64.44444444444444</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F19">
-        <v>10.638707</v>
+        <v>0.566024</v>
       </c>
       <c r="G19">
         <v>100</v>
       </c>
       <c r="H19">
-        <v>272.4010308200002</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>264.1816222603193</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1114,78 +1077,74 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D20">
-        <v>83.44649421443781</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>64.44444444444444</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F20">
-        <v>6.149398</v>
+        <v>19.637273</v>
       </c>
       <c r="G20">
-        <v>94.057289</v>
+        <v>10.618684</v>
       </c>
       <c r="H20">
-        <v>248.0976256588822</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>201.3670681111111</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D21">
-        <v>97.24629936242772</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F21">
-        <v>14.705793</v>
+        <v>24.397088</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>291.9520923624277</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>277.8882845061493</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1194,38 +1153,30 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D22">
-        <v>85.90748330098225</v>
+        <v>29.27753101162979</v>
       </c>
       <c r="E22">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F22">
-        <v>1.165029</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G22">
-        <v>90.124816</v>
-      </c>
-      <c r="H22">
-        <v>232.7528838565378</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1234,38 +1185,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D23">
-        <v>90.28226492698596</v>
+        <v>28.99103782593232</v>
       </c>
       <c r="E23">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="F23">
-        <v>0.566024</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
-      <c r="H23">
-        <v>264.1816222603193</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="I23">
+        <v>3</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1274,47 +1217,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D24">
-        <v>89.03941451403804</v>
+        <v>98.76178856325181</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F24">
-        <v>0.072212</v>
+        <v>61.764445</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>59.238658</v>
       </c>
       <c r="H24">
-        <v>249.1116265140381</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>290.876002674363</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1324,28 +1265,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D25">
-        <v>65.61004661283214</v>
+        <v>85.49378663891662</v>
       </c>
       <c r="E25">
-        <v>55.55555555555556</v>
+        <v>80</v>
       </c>
       <c r="F25">
-        <v>0.64454</v>
+        <v>27.250675</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>221.8101421683877</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>292.7444616389166</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1354,38 +1293,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>71.11111111111111</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>19.637273</v>
+        <v>13.282347</v>
       </c>
       <c r="G26">
-        <v>10.618684</v>
+        <v>76.99460000000001</v>
       </c>
       <c r="H26">
-        <v>201.3670681111111</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>230.276947</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1394,106 +1331,112 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D27">
-        <v>82.38008539503814</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E27">
-        <v>71.11111111111111</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="F27">
-        <v>24.397088</v>
+        <v>25.213503</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>59.235681</v>
       </c>
       <c r="H27">
-        <v>277.8882845061493</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>244.3562562809219</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D28">
-        <v>29.27753101162979</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E28">
-        <v>77.77777777777779</v>
+        <v>48.88888888888889</v>
+      </c>
+      <c r="F28">
+        <v>30.067773</v>
       </c>
       <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>76.340859</v>
+      </c>
+      <c r="H28">
+        <v>225.8830781408622</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D29">
-        <v>28.99103782593232</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E29">
-        <v>86.66666666666667</v>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F29">
+        <v>30.387052</v>
       </c>
       <c r="G29">
         <v>100</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H29">
+        <v>222.9026923754514</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1502,78 +1445,74 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D30">
-        <v>72.5846543329274</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E30">
-        <v>60</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="F30">
-        <v>50.194522</v>
+        <v>13.463679</v>
       </c>
       <c r="G30">
-        <v>95.755133</v>
+        <v>0.796637</v>
       </c>
       <c r="H30">
-        <v>278.5343093329274</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>114.8517622239818</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D31">
-        <v>96.95976797190397</v>
+        <v>2.388434946574482</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F31">
-        <v>74.677015</v>
+        <v>52.49194</v>
       </c>
       <c r="G31">
-        <v>84.578238</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>316.215020971904</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>99.32481939101892</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1582,38 +1521,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D32">
-        <v>92.54450709719747</v>
+        <v>47.10807995455942</v>
       </c>
       <c r="E32">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F32">
-        <v>79.305661</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>93.41325999999999</v>
-      </c>
-      <c r="H32">
-        <v>320.818983652753</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1622,7 +1553,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1632,28 +1563,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>96.99902423868772</v>
       </c>
       <c r="E33">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="F33">
-        <v>86.91029399999999</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="G33">
-        <v>17.415983</v>
-      </c>
-      <c r="H33">
-        <v>270.9929436666666</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>65.464297</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1662,7 +1582,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1672,28 +1592,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D34">
-        <v>98.76178856325181</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E34">
-        <v>71.11111111111111</v>
-      </c>
-      <c r="F34">
-        <v>61.764445</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G34">
-        <v>59.238658</v>
-      </c>
-      <c r="H34">
-        <v>290.876002674363</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>66.23930300000001</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1702,38 +1611,30 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D35">
-        <v>85.49378663891662</v>
+        <v>86.53386002555166</v>
       </c>
       <c r="E35">
-        <v>80</v>
-      </c>
-      <c r="F35">
-        <v>27.250675</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
-      <c r="H35">
-        <v>292.7444616389166</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="I35">
+        <v>3</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1742,87 +1643,71 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D36">
-        <v>57.79718253160782</v>
+        <v>42.6890552310836</v>
       </c>
       <c r="E36">
-        <v>80</v>
-      </c>
-      <c r="F36">
-        <v>13.282347</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G36">
-        <v>76.99460000000001</v>
-      </c>
-      <c r="H36">
-        <v>228.0741295316078</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D37">
-        <v>84.3515167253664</v>
+        <v>37.48068068716065</v>
       </c>
       <c r="E37">
-        <v>75.55555555555556</v>
-      </c>
-      <c r="F37">
-        <v>25.213503</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G37">
-        <v>59.235681</v>
-      </c>
-      <c r="H37">
-        <v>244.3562562809219</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1832,197 +1717,175 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D38">
-        <v>70.58555725197336</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>48.88888888888889</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="F38">
-        <v>30.067773</v>
+        <v>8.12861</v>
       </c>
       <c r="G38">
-        <v>76.340859</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>225.8830781408622</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>283.6841655555556</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D39">
-        <v>41.40452926434025</v>
+        <v>87.69054724587362</v>
       </c>
       <c r="E39">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F39">
-        <v>30.387052</v>
+        <v>28.95034187185691</v>
       </c>
       <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>222.9026923754514</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>3.482165</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D40">
-        <v>49.48033511287066</v>
+        <v>13.97418724319793</v>
       </c>
       <c r="E40">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F40">
-        <v>13.463679</v>
+        <v>8.144317706667941</v>
       </c>
       <c r="G40">
-        <v>0.796637</v>
-      </c>
-      <c r="H40">
-        <v>114.8517622239818</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>70.39820400000001</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D41">
-        <v>2.388434946574482</v>
+        <v>92.80119616863257</v>
       </c>
       <c r="E41">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="F41">
-        <v>52.49194</v>
+        <v>9.475057900380907</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>99.32481939101892</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>2.370099081128805</v>
       </c>
       <c r="E42">
-        <v>40</v>
-      </c>
-      <c r="F42">
-        <v>60.547771</v>
+        <v>5.474758409735947</v>
       </c>
       <c r="G42">
-        <v>76.324637</v>
-      </c>
-      <c r="H42">
-        <v>276.872408</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2032,77 +1895,70 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D43">
+        <v>12.5825765710022</v>
+      </c>
+      <c r="E43">
+        <v>71.11111111111111</v>
+      </c>
+      <c r="F43">
+        <v>10.946621</v>
+      </c>
+      <c r="G43">
         <v>100</v>
       </c>
-      <c r="E43">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="F43">
-        <v>62.21281</v>
-      </c>
-      <c r="G43">
-        <v>70.95614500000001</v>
-      </c>
       <c r="H43">
-        <v>282.0578438888889</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>194.6403086821133</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>90.51805989634846</v>
       </c>
       <c r="E44">
-        <v>37.77777777777778</v>
-      </c>
-      <c r="F44">
-        <v>49.801103</v>
+        <v>38.62562604391875</v>
       </c>
       <c r="G44">
-        <v>100</v>
-      </c>
-      <c r="H44">
-        <v>287.5788807777778</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>11.332189</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Chumstick Creek 03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2112,28 +1968,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D45">
-        <v>89.03681707418826</v>
-      </c>
-      <c r="E45">
-        <v>37.77777777777778</v>
+        <v>81.37734745597506</v>
       </c>
       <c r="F45">
-        <v>55.355157</v>
+        <v>72.706008</v>
       </c>
       <c r="G45">
-        <v>86.68780700000001</v>
-      </c>
-      <c r="H45">
-        <v>268.857558851966</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2142,7 +1987,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Chumstick Creek 04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2152,37 +1997,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D46">
-        <v>30.59710789120315</v>
-      </c>
-      <c r="E46">
-        <v>33.33333333333333</v>
+        <v>91.05987490271606</v>
       </c>
       <c r="F46">
-        <v>52.366272</v>
+        <v>72.940851</v>
       </c>
       <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46">
-        <v>216.2967132245365</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Chumstick Creek 07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2192,90 +2026,93 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D47">
-        <v>47.10807995455942</v>
-      </c>
-      <c r="E47">
-        <v>60</v>
+        <v>76.16019194110301</v>
+      </c>
+      <c r="F47">
+        <v>95.402841</v>
       </c>
       <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D48">
-        <v>96.99902423868772</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E48">
-        <v>73.33333333333333</v>
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F48">
+        <v>89.82364200000001</v>
       </c>
       <c r="G48">
-        <v>65.464297</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>95.5181</v>
+      </c>
+      <c r="H48">
+        <v>340.2728912832711</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D49">
-        <v>94.14263946738888</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E49">
-        <v>77.77777777777779</v>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F49">
+        <v>92.176714</v>
       </c>
       <c r="G49">
-        <v>66.23930300000001</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>21.424788</v>
+      </c>
+      <c r="H49">
+        <v>245.359769332372</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2284,66 +2121,74 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D50">
-        <v>86.53386002555166</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E50">
-        <v>77.77777777777779</v>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F50">
+        <v>89.253914</v>
       </c>
       <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>49.387547</v>
+      </c>
+      <c r="H50">
+        <v>277.2609470548268</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>White River Lower 05</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D51">
-        <v>97.0216501754754</v>
+        <v>88.39597921741711</v>
+      </c>
+      <c r="E51">
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>4.219496</v>
+        <v>92.03318400000001</v>
       </c>
       <c r="G51">
-        <v>88.40754</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>89.43712100000001</v>
+      </c>
+      <c r="H51">
+        <v>329.8662842174171</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2352,38 +2197,36 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>86.02763875475596</v>
       </c>
       <c r="E52">
-        <v>75.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>8.12861</v>
+        <v>60.897278</v>
       </c>
       <c r="G52">
         <v>100</v>
       </c>
       <c r="H52">
-        <v>283.6841655555556</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>306.9249167547559</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2392,47 +2235,36 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Entiat River Mills 07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D53">
-        <v>12.5825765710022</v>
-      </c>
-      <c r="E53">
-        <v>71.11111111111111</v>
+        <v>61.64335931687801</v>
       </c>
       <c r="F53">
-        <v>10.946621</v>
+        <v>67.335865</v>
       </c>
       <c r="G53">
-        <v>100</v>
-      </c>
-      <c r="H53">
-        <v>194.6403086821133</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>41.023682</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Mills 08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2446,218 +2278,176 @@
         </is>
       </c>
       <c r="D54">
-        <v>99.37559372771551</v>
-      </c>
-      <c r="E54">
-        <v>64.44444444444444</v>
+        <v>72.59869581754276</v>
       </c>
       <c r="F54">
-        <v>89.82364200000001</v>
+        <v>69.347189</v>
       </c>
       <c r="G54">
-        <v>95.5181</v>
-      </c>
-      <c r="H54">
-        <v>349.16178017216</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>59.981647</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D55">
-        <v>80.64715622126087</v>
+        <v>100</v>
       </c>
       <c r="E55">
-        <v>60</v>
-      </c>
-      <c r="F55">
-        <v>92.176714</v>
+        <v>41.38216126098745</v>
       </c>
       <c r="G55">
-        <v>21.424788</v>
-      </c>
-      <c r="H55">
-        <v>254.2486582212609</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
       </c>
       <c r="J55">
         <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D56">
-        <v>87.50837494371574</v>
+        <v>81.75055372087164</v>
       </c>
       <c r="E56">
-        <v>60</v>
-      </c>
-      <c r="F56">
-        <v>89.253914</v>
+        <v>48.64045032829818</v>
       </c>
       <c r="G56">
-        <v>49.387547</v>
-      </c>
-      <c r="H56">
-        <v>286.1498359437157</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D57">
-        <v>88.39597921741711</v>
+        <v>42.15656814548602</v>
       </c>
       <c r="E57">
-        <v>68.88888888888889</v>
-      </c>
-      <c r="F57">
-        <v>92.03318400000001</v>
+        <v>40.18347013968203</v>
       </c>
       <c r="G57">
-        <v>89.43712100000001</v>
-      </c>
-      <c r="H57">
-        <v>338.755173106306</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
       </c>
       <c r="J57">
         <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D58">
-        <v>86.02763875475596</v>
+        <v>94.17482327351821</v>
       </c>
       <c r="E58">
-        <v>64.44444444444444</v>
-      </c>
-      <c r="F58">
-        <v>60.897278</v>
+        <v>13.14527406532584</v>
       </c>
       <c r="G58">
-        <v>100</v>
-      </c>
-      <c r="H58">
-        <v>311.3693611992004</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D59">
-        <v>61.64335931687801</v>
-      </c>
-      <c r="F59">
-        <v>67.335865</v>
+        <v>13.43201477698263</v>
+      </c>
+      <c r="E59">
+        <v>19.29557484494947</v>
       </c>
       <c r="G59">
-        <v>41.023682</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2666,32 +2456,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D60">
-        <v>72.59869581754276</v>
-      </c>
-      <c r="F60">
-        <v>69.347189</v>
+        <v>70.84015435609901</v>
+      </c>
+      <c r="E60">
+        <v>20.59092546677536</v>
       </c>
       <c r="G60">
-        <v>59.981647</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2700,47 +2485,42 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D61">
-        <v>94.4274257451607</v>
+        <v>16.37848668882959</v>
       </c>
       <c r="E61">
-        <v>42.22222222222222</v>
-      </c>
-      <c r="F61">
-        <v>49.876081</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1.922962</v>
-      </c>
-      <c r="H61">
-        <v>188.4486909673829</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
       </c>
       <c r="J61">
         <v>0</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2750,192 +2530,204 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D62">
-        <v>21.87768683751509</v>
+        <v>5.200579157604852</v>
       </c>
       <c r="E62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>30.63676</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
       </c>
       <c r="J62">
         <v>0</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D63">
-        <v>85.21578438901136</v>
+        <v>29.18204219003546</v>
       </c>
       <c r="E63">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>97.098246</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D64">
-        <v>75.96049349447488</v>
+        <v>57.39958642383489</v>
       </c>
       <c r="E64">
-        <v>37.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>52.662308</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D65">
-        <v>89.16036088849121</v>
+        <v>18.59366890069403</v>
       </c>
       <c r="E65">
-        <v>37.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>40.902428</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
       </c>
       <c r="J65">
         <v>0</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Peshastin Creek Lower 01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Peshastin Creek</t>
         </is>
       </c>
       <c r="D66">
-        <v>69.81772809280523</v>
+        <v>94.55172782107474</v>
       </c>
       <c r="E66">
-        <v>37.77777777777778</v>
+        <v>24.44444444444444</v>
+      </c>
+      <c r="F66">
+        <v>76.47182599999999</v>
       </c>
       <c r="G66">
-        <v>100</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>38.89995</v>
+      </c>
+      <c r="H66">
+        <v>234.3679482655192</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Peshastin Creek Lower 02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Peshastin Creek</t>
         </is>
       </c>
       <c r="D67">
-        <v>55.35278697152805</v>
+        <v>92.3232144359198</v>
       </c>
       <c r="E67">
-        <v>55.55555555555556</v>
+        <v>35.55555555555556</v>
+      </c>
+      <c r="F67">
+        <v>85.766785</v>
       </c>
       <c r="G67">
-        <v>28.134613</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>213.6455549914754</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2944,32 +2736,36 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Peshastin Creek Lower 03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Peshastin Creek</t>
         </is>
       </c>
       <c r="D68">
-        <v>39.88903924834695</v>
+        <v>76.72505787841821</v>
       </c>
       <c r="E68">
-        <v>51.11111111111111</v>
+        <v>35.55555555555556</v>
+      </c>
+      <c r="F68">
+        <v>76.61115100000001</v>
       </c>
       <c r="G68">
-        <v>25.462168</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
+        <v>5.599309</v>
+      </c>
+      <c r="H68">
+        <v>194.4910734339738</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2978,34 +2774,775 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Peshastin Creek Lower 04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Lower Peshastin Creek</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>90.46093785057214</v>
+      </c>
+      <c r="E69">
+        <v>35.55555555555556</v>
+      </c>
+      <c r="F69">
+        <v>61.137533</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>187.1540264061277</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Peshastin Creek Lower 05</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Lower Peshastin Creek</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>67.97280269352125</v>
+      </c>
+      <c r="E70">
+        <v>28.88888888888889</v>
+      </c>
+      <c r="F70">
+        <v>61.928506</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>158.7901975824101</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Peshastin Creek Lower 06</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Lower Peshastin Creek</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>21.31555272946574</v>
+      </c>
+      <c r="E71">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F71">
+        <v>35.566009</v>
+      </c>
+      <c r="G71">
+        <v>24.515415</v>
+      </c>
+      <c r="H71">
+        <v>125.8414211739102</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Peshastin Creek Lower 07</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lower Peshastin Creek</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>63.08559454601126</v>
+      </c>
+      <c r="E72">
+        <v>28.88888888888889</v>
+      </c>
+      <c r="F72">
+        <v>99.335876</v>
+      </c>
+      <c r="G72">
+        <v>15.977247</v>
+      </c>
+      <c r="H72">
+        <v>207.2876064349001</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Peshastin Creek Lower 08</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Lower Peshastin Creek</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>98.10417744653289</v>
+      </c>
+      <c r="E73">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F73">
+        <v>77.157106</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>208.5946167798662</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Salmon 16-11</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>39.11139432932308</v>
+      </c>
+      <c r="E74">
+        <v>87.2302720070069</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Salmon 16-3</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>42.29866038169604</v>
+      </c>
+      <c r="E75">
+        <v>4.599828796958745</v>
+      </c>
+      <c r="G75">
+        <v>10.229701</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Salmon 16-4</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>61.21972936706004</v>
+      </c>
+      <c r="E76">
+        <v>67.8840842271688</v>
+      </c>
+      <c r="G76">
+        <v>15.243609</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Salmon 16-6</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>86.71407722197918</v>
+      </c>
+      <c r="E77">
+        <v>78.30164640163568</v>
+      </c>
+      <c r="G77">
+        <v>19.773172</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Salmon 16-7</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>9.40098230509123</v>
+      </c>
+      <c r="E78">
+        <v>52.80329377860712</v>
+      </c>
+      <c r="G78">
+        <v>79.748205</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Salmon 16-8</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>17.98763439738011</v>
+      </c>
+      <c r="E79">
+        <v>69.88250208433527</v>
+      </c>
+      <c r="G79">
+        <v>61.476789</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Salmon 16-9</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>68.77662469825343</v>
+      </c>
+      <c r="E80">
+        <v>78.92917935080432</v>
+      </c>
+      <c r="G80">
+        <v>56.798439</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Similkameen 16-2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>39.22267177160267</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Similkameen 16-3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>93.12987408131754</v>
+      </c>
+      <c r="E82">
+        <v>51.2291200709168</v>
+      </c>
+      <c r="G82">
+        <v>5.784999</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sunitsch Canyon 01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Chumstick Creek</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>84.40754479495077</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tonasket 16-2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Tonasket Creek DS</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>21.87768683751509</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="G84">
+        <v>30.63676</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>85.21578438901136</v>
+      </c>
+      <c r="E85">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="G85">
+        <v>97.098246</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 03</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>75.96049349447488</v>
+      </c>
+      <c r="E86">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G86">
+        <v>52.662308</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 04</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>89.16036088849121</v>
+      </c>
+      <c r="E87">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G87">
+        <v>40.902428</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>69.81772809280523</v>
+      </c>
+      <c r="E88">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 07</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>55.35278697152805</v>
+      </c>
+      <c r="E89">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="G89">
+        <v>28.134613</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 08</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>39.88903924834695</v>
+      </c>
+      <c r="E90">
+        <v>51.11111111111111</v>
+      </c>
+      <c r="G90">
+        <v>25.462168</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>Twisp River Lower 10</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Methow</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
         </is>
       </c>
-      <c r="D69">
+      <c r="D91">
         <v>72.65933763461709</v>
       </c>
-      <c r="E69">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="G69">
+      <c r="E91">
+        <v>48.88888888888889</v>
+      </c>
+      <c r="G91">
         <v>73.984833</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Missing_Data</t>
-        </is>
-      </c>
-      <c r="J69">
+      <c r="J91">
         <v>0</v>
       </c>
     </row>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,7 +455,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -469,57 +469,57 @@
         </is>
       </c>
       <c r="D3">
-        <v>86.46684217526705</v>
+        <v>95.81184510461004</v>
       </c>
       <c r="E3">
-        <v>75.55555555555556</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F3">
-        <v>8.483549</v>
+        <v>12.584763</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>76.46233700000001</v>
       </c>
       <c r="H3">
-        <v>270.5059467308226</v>
+        <v>242.6367228823878</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D4">
-        <v>17.25110079134537</v>
+        <v>86.46684217526705</v>
       </c>
       <c r="E4">
-        <v>64.44444444444444</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="F4">
-        <v>0.07753</v>
+        <v>8.483549</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
-        <v>181.7730752357898</v>
+        <v>270.5059467308226</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -531,33 +531,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D5">
-        <v>84.29416294333068</v>
+        <v>17.25110079134537</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F5">
-        <v>5.690506</v>
+        <v>0.07753</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>269.9846689433307</v>
+        <v>181.7730752357898</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -569,7 +569,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>63.71807967313585</v>
+        <v>84.29416294333068</v>
       </c>
       <c r="E6">
-        <v>77.77777777777779</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>22.84511</v>
+        <v>5.690506</v>
       </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6">
-        <v>264.3409674509136</v>
+        <v>269.9846689433307</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -607,7 +607,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>57.79778914955362</v>
+        <v>63.71807967313585</v>
       </c>
       <c r="E7">
-        <v>88.88888888888889</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="F7">
-        <v>4.685922</v>
+        <v>22.84511</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>251.3726000384425</v>
+        <v>264.3409674509136</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -645,7 +645,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,13 +659,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>11.67507174164155</v>
+        <v>67.13441483580915</v>
       </c>
       <c r="E8">
-        <v>77.77777777777779</v>
+        <v>66.66666666666666</v>
+      </c>
+      <c r="F8">
+        <v>8.119336000000001</v>
       </c>
       <c r="G8">
         <v>100</v>
+      </c>
+      <c r="H8">
+        <v>241.9204175024758</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -677,7 +683,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,19 +697,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>97.21324179051436</v>
+        <v>57.79778914955362</v>
       </c>
       <c r="E9">
-        <v>77.77777777777779</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="F9">
-        <v>3.197647</v>
+        <v>4.685922</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>278.1886665682922</v>
+        <v>251.3726000384425</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -715,7 +721,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -725,26 +731,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D10">
-        <v>86.60374759766457</v>
-      </c>
-      <c r="F10">
-        <v>80.393236</v>
+        <v>11.67507174164155</v>
+      </c>
+      <c r="E10">
+        <v>77.77777777777779</v>
       </c>
       <c r="G10">
-        <v>9.95196</v>
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Potato 03</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -754,26 +763,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D11">
-        <v>48.49105559993951</v>
+        <v>97.21324179051436</v>
+      </c>
+      <c r="E11">
+        <v>77.77777777777779</v>
       </c>
       <c r="F11">
-        <v>23.362439</v>
+        <v>3.197647</v>
       </c>
       <c r="G11">
-        <v>36.226047</v>
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>278.1886665682922</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,31 +805,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>98.91220961766038</v>
-      </c>
-      <c r="E12">
-        <v>77.77777777777779</v>
+        <v>86.60374759766457</v>
       </c>
       <c r="F12">
-        <v>7.873494</v>
+        <v>80.393236</v>
       </c>
       <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>284.5634813954382</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
+        <v>9.95196</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Potato 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -825,22 +834,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>98.41864483952135</v>
-      </c>
-      <c r="E13">
-        <v>80</v>
+        <v>48.49105559993951</v>
       </c>
       <c r="F13">
-        <v>5.336962</v>
+        <v>23.362439</v>
       </c>
       <c r="G13">
-        <v>67.172203</v>
-      </c>
-      <c r="H13">
-        <v>250.9278098395213</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>36.226047</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -863,31 +863,31 @@
         </is>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>98.91220961766038</v>
       </c>
       <c r="E14">
-        <v>68.88888888888889</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="F14">
-        <v>1.143825</v>
+        <v>7.873494</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>170.0327138888889</v>
+        <v>284.5634813954382</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -897,35 +897,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>98.41864483952135</v>
       </c>
       <c r="E15">
-        <v>73.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>5.546068</v>
+        <v>5.336962</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>67.172203</v>
       </c>
       <c r="H15">
-        <v>278.8794013333333</v>
+        <v>250.9278098395213</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -935,35 +935,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D16">
-        <v>97.31787937555582</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>64.44444444444444</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="F16">
-        <v>10.638707</v>
+        <v>1.143825</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>272.4010308200002</v>
+        <v>170.0327138888889</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>83.44649421443781</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>64.44444444444444</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F17">
-        <v>6.149398</v>
+        <v>5.546068</v>
       </c>
       <c r="G17">
-        <v>94.057289</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>248.0976256588822</v>
+        <v>278.8794013333333</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,23 +1011,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D18">
-        <v>97.24629936242772</v>
+        <v>97.31787937555582</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F18">
-        <v>14.705793</v>
+        <v>10.638707</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>291.9520923624277</v>
+        <v>272.4010308200002</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1039,33 +1039,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D19">
-        <v>90.28226492698596</v>
+        <v>83.44649421443781</v>
       </c>
       <c r="E19">
-        <v>73.33333333333333</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F19">
-        <v>0.566024</v>
+        <v>6.149398</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>94.057289</v>
       </c>
       <c r="H19">
-        <v>264.1816222603193</v>
+        <v>248.0976256588822</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1077,71 +1077,71 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>97.24629936242772</v>
       </c>
       <c r="E20">
-        <v>71.11111111111111</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>19.637273</v>
+        <v>14.705793</v>
       </c>
       <c r="G20">
-        <v>10.618684</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>201.3670681111111</v>
+        <v>291.9520923624277</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D21">
-        <v>82.38008539503814</v>
+        <v>85.90748330098225</v>
       </c>
       <c r="E21">
-        <v>71.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F21">
-        <v>24.397088</v>
+        <v>1.165029</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>90.124816</v>
       </c>
       <c r="H21">
-        <v>277.8882845061493</v>
+        <v>232.7528838565378</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1153,27 +1153,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D22">
-        <v>29.27753101162979</v>
+        <v>90.28226492698596</v>
       </c>
       <c r="E22">
-        <v>77.77777777777779</v>
+        <v>73.33333333333333</v>
+      </c>
+      <c r="F22">
+        <v>0.566024</v>
       </c>
       <c r="G22">
         <v>100</v>
+      </c>
+      <c r="H22">
+        <v>264.1816222603193</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -1185,27 +1191,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Little Wenatchee River Lower 04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D23">
-        <v>28.99103782593232</v>
+        <v>89.03941451403804</v>
       </c>
       <c r="E23">
-        <v>77.77777777777779</v>
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>0.072212</v>
       </c>
       <c r="G23">
         <v>100</v>
+      </c>
+      <c r="H23">
+        <v>249.1116265140381</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1217,223 +1229,211 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D24">
-        <v>98.76178856325181</v>
+        <v>65.61004661283214</v>
       </c>
       <c r="E24">
-        <v>71.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F24">
-        <v>61.764445</v>
+        <v>0.64454</v>
       </c>
       <c r="G24">
-        <v>59.238658</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>290.876002674363</v>
+        <v>221.8101421683877</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D25">
-        <v>85.49378663891662</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>80</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F25">
-        <v>27.250675</v>
+        <v>19.637273</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>10.618684</v>
       </c>
       <c r="H25">
-        <v>292.7444616389166</v>
+        <v>201.3670681111111</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F26">
-        <v>13.282347</v>
+        <v>24.397088</v>
       </c>
       <c r="G26">
-        <v>76.99460000000001</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>230.276947</v>
+        <v>277.8882845061493</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D27">
-        <v>84.3515167253664</v>
+        <v>29.27753101162979</v>
       </c>
       <c r="E27">
-        <v>75.55555555555556</v>
-      </c>
-      <c r="F27">
-        <v>25.213503</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G27">
-        <v>59.235681</v>
-      </c>
-      <c r="H27">
-        <v>244.3562562809219</v>
+        <v>100</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D28">
-        <v>70.58555725197336</v>
+        <v>28.99103782593232</v>
       </c>
       <c r="E28">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="F28">
-        <v>30.067773</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G28">
-        <v>76.340859</v>
-      </c>
-      <c r="H28">
-        <v>225.8830781408622</v>
+        <v>100</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D29">
-        <v>41.40452926434025</v>
+        <v>72.5846543329274</v>
       </c>
       <c r="E29">
-        <v>51.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="F29">
-        <v>30.387052</v>
+        <v>50.194522</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>95.755133</v>
       </c>
       <c r="H29">
-        <v>222.9026923754514</v>
+        <v>278.5343093329274</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1445,36 +1445,36 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D30">
-        <v>49.48033511287066</v>
+        <v>96.95976797190397</v>
       </c>
       <c r="E30">
-        <v>51.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="F30">
-        <v>13.463679</v>
+        <v>74.677015</v>
       </c>
       <c r="G30">
-        <v>0.796637</v>
+        <v>84.578238</v>
       </c>
       <c r="H30">
-        <v>114.8517622239818</v>
+        <v>316.215020971904</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1483,77 +1483,83 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D31">
-        <v>2.388434946574482</v>
+        <v>92.54450709719747</v>
       </c>
       <c r="E31">
-        <v>44.44444444444444</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F31">
-        <v>52.49194</v>
+        <v>79.305661</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>93.41325999999999</v>
       </c>
       <c r="H31">
-        <v>99.32481939101892</v>
+        <v>320.818983652753</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D32">
-        <v>47.10807995455942</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>66.66666666666666</v>
+      </c>
+      <c r="F32">
+        <v>86.91029399999999</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>17.415983</v>
+      </c>
+      <c r="H32">
+        <v>270.9929436666666</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1563,17 +1569,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D33">
-        <v>96.99902423868772</v>
+        <v>98.76178856325181</v>
       </c>
       <c r="E33">
-        <v>73.33333333333333</v>
+        <v>71.11111111111111</v>
+      </c>
+      <c r="F33">
+        <v>61.764445</v>
       </c>
       <c r="G33">
-        <v>65.464297</v>
+        <v>59.238658</v>
+      </c>
+      <c r="H33">
+        <v>290.876002674363</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1582,132 +1597,159 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D34">
-        <v>94.14263946738888</v>
+        <v>85.49378663891662</v>
       </c>
       <c r="E34">
-        <v>77.77777777777779</v>
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>27.250675</v>
       </c>
       <c r="G34">
-        <v>66.23930300000001</v>
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>292.7444616389166</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D35">
-        <v>86.53386002555166</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>77.77777777777779</v>
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>13.282347</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>76.99460000000001</v>
+      </c>
+      <c r="H35">
+        <v>230.276947</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D36">
-        <v>42.6890552310836</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E36">
-        <v>66.66666666666666</v>
+        <v>75.55555555555556</v>
+      </c>
+      <c r="F36">
+        <v>25.213503</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>59.235681</v>
+      </c>
+      <c r="H36">
+        <v>244.3562562809219</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D37">
-        <v>37.48068068716065</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E37">
-        <v>66.66666666666666</v>
+        <v>48.88888888888889</v>
+      </c>
+      <c r="F37">
+        <v>30.067773</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>76.340859</v>
+      </c>
+      <c r="H37">
+        <v>225.8830781408622</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1717,23 +1759,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E38">
-        <v>75.55555555555556</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="F38">
-        <v>8.12861</v>
+        <v>30.387052</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38">
-        <v>283.6841655555556</v>
+        <v>222.9026923754514</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -1745,147 +1787,159 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Antoine 16-1</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D39">
-        <v>87.69054724587362</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E39">
-        <v>28.95034187185691</v>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F39">
+        <v>13.463679</v>
       </c>
       <c r="G39">
-        <v>3.482165</v>
+        <v>0.796637</v>
+      </c>
+      <c r="H39">
+        <v>114.8517622239818</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
       <c r="J39">
         <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D40">
-        <v>13.97418724319793</v>
+        <v>2.388434946574482</v>
       </c>
       <c r="E40">
-        <v>8.144317706667941</v>
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F40">
+        <v>52.49194</v>
       </c>
       <c r="G40">
-        <v>70.39820400000001</v>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>99.32481939101892</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>0</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D41">
-        <v>92.80119616863257</v>
+        <v>100</v>
       </c>
       <c r="E41">
-        <v>9.475057900380907</v>
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>60.547771</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>76.324637</v>
+      </c>
+      <c r="H41">
+        <v>276.872408</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D42">
-        <v>2.370099081128805</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>5.474758409735947</v>
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F42">
+        <v>62.21281</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>70.95614500000001</v>
+      </c>
+      <c r="H42">
+        <v>277.6133994444444</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
-      </c>
-      <c r="K42">
-        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1895,23 +1949,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D43">
-        <v>12.5825765710022</v>
+        <v>100</v>
       </c>
       <c r="E43">
-        <v>71.11111111111111</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="F43">
-        <v>10.946621</v>
+        <v>49.801103</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43">
-        <v>194.6403086821133</v>
+        <v>287.5788807777778</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -1923,42 +1977,45 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bonaparte Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D44">
-        <v>90.51805989634846</v>
+        <v>89.03681707418826</v>
       </c>
       <c r="E44">
-        <v>38.62562604391875</v>
+        <v>37.77777777777778</v>
+      </c>
+      <c r="F44">
+        <v>55.355157</v>
       </c>
       <c r="G44">
-        <v>11.332189</v>
+        <v>86.68780700000001</v>
+      </c>
+      <c r="H44">
+        <v>268.857558851966</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chumstick Creek 03</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1968,26 +2025,35 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D45">
-        <v>81.37734745597506</v>
+        <v>30.59710789120315</v>
+      </c>
+      <c r="E45">
+        <v>33.33333333333333</v>
       </c>
       <c r="F45">
-        <v>72.706008</v>
+        <v>52.366272</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>216.2967132245365</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chumstick Creek 04</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1997,46 +2063,49 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D46">
-        <v>91.05987490271606</v>
-      </c>
-      <c r="F46">
-        <v>72.940851</v>
+        <v>47.10807995455942</v>
+      </c>
+      <c r="E46">
+        <v>60</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chumstick Creek 07</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D47">
-        <v>76.16019194110301</v>
-      </c>
-      <c r="F47">
-        <v>95.402841</v>
+        <v>96.99902423868772</v>
+      </c>
+      <c r="E47">
+        <v>73.33333333333333</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>65.464297</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2045,112 +2114,88 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D48">
-        <v>99.37559372771551</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E48">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F48">
-        <v>89.82364200000001</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G48">
-        <v>95.5181</v>
-      </c>
-      <c r="H48">
-        <v>340.2728912832711</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
+        <v>66.23930300000001</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D49">
-        <v>80.64715622126087</v>
+        <v>86.53386002555166</v>
       </c>
       <c r="E49">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F49">
-        <v>92.176714</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G49">
-        <v>21.424788</v>
-      </c>
-      <c r="H49">
-        <v>245.359769332372</v>
+        <v>100</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>White River Lower 05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D50">
-        <v>87.50837494371574</v>
-      </c>
-      <c r="E50">
-        <v>51.11111111111111</v>
+        <v>97.0216501754754</v>
       </c>
       <c r="F50">
-        <v>89.253914</v>
+        <v>4.219496</v>
       </c>
       <c r="G50">
-        <v>49.387547</v>
-      </c>
-      <c r="H50">
-        <v>277.2609470548268</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
+        <v>88.40754</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2159,141 +2204,150 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D51">
-        <v>88.39597921741711</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="F51">
-        <v>92.03318400000001</v>
+        <v>8.12861</v>
       </c>
       <c r="G51">
-        <v>89.43712100000001</v>
+        <v>100</v>
       </c>
       <c r="H51">
-        <v>329.8662842174171</v>
+        <v>283.6841655555556</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D52">
-        <v>86.02763875475596</v>
+        <v>87.69054724587362</v>
       </c>
       <c r="E52">
-        <v>60</v>
-      </c>
-      <c r="F52">
-        <v>60.897278</v>
+        <v>28.95034187185691</v>
       </c>
       <c r="G52">
-        <v>100</v>
-      </c>
-      <c r="H52">
-        <v>306.9249167547559</v>
+        <v>3.482165</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D53">
-        <v>61.64335931687801</v>
-      </c>
-      <c r="F53">
-        <v>67.335865</v>
+        <v>13.97418724319793</v>
+      </c>
+      <c r="E53">
+        <v>8.144317706667941</v>
       </c>
       <c r="G53">
-        <v>41.023682</v>
+        <v>70.39820400000001</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D54">
-        <v>72.59869581754276</v>
-      </c>
-      <c r="F54">
-        <v>69.347189</v>
+        <v>92.80119616863257</v>
+      </c>
+      <c r="E54">
+        <v>9.475057900380907</v>
       </c>
       <c r="G54">
-        <v>59.981647</v>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2303,67 +2357,70 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>2.370099081128805</v>
       </c>
       <c r="E55">
-        <v>41.38216126098745</v>
+        <v>5.474758409735947</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D56">
-        <v>81.75055372087164</v>
+        <v>12.5825765710022</v>
       </c>
       <c r="E56">
-        <v>48.64045032829818</v>
+        <v>71.11111111111111</v>
+      </c>
+      <c r="F56">
+        <v>10.946621</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>194.6403086821133</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2373,81 +2430,99 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="D57">
-        <v>42.15656814548602</v>
+        <v>90.51805989634846</v>
       </c>
       <c r="E57">
-        <v>40.18347013968203</v>
+        <v>38.62562604391875</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>11.332189</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D58">
-        <v>94.17482327351821</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E58">
-        <v>13.14527406532584</v>
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F58">
+        <v>89.82364200000001</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>95.5181</v>
+      </c>
+      <c r="H58">
+        <v>340.2728912832711</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D59">
-        <v>13.43201477698263</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E59">
-        <v>19.29557484494947</v>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F59">
+        <v>92.176714</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>21.424788</v>
+      </c>
+      <c r="H59">
+        <v>245.359769332372</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2456,27 +2531,36 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D60">
-        <v>70.84015435609901</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E60">
-        <v>20.59092546677536</v>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F60">
+        <v>89.253914</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>49.387547</v>
+      </c>
+      <c r="H60">
+        <v>277.2609470548268</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2485,147 +2569,141 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D61">
-        <v>16.37848668882959</v>
+        <v>88.39597921741711</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="F61">
+        <v>92.03318400000001</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>89.43712100000001</v>
+      </c>
+      <c r="H61">
+        <v>329.8662842174171</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D62">
-        <v>5.200579157604852</v>
+        <v>86.02763875475596</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>60.897278</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>306.9249167547559</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Entiat River Mills 07</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D63">
-        <v>29.18204219003546</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
+        <v>61.64335931687801</v>
+      </c>
+      <c r="F63">
+        <v>67.335865</v>
       </c>
       <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
+        <v>41.023682</v>
       </c>
       <c r="J63">
         <v>0</v>
-      </c>
-      <c r="K63">
-        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Entiat River Mills 08</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D64">
-        <v>57.39958642383489</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
+        <v>72.59869581754276</v>
+      </c>
+      <c r="F64">
+        <v>69.347189</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
+        <v>59.981647</v>
       </c>
       <c r="J64">
         <v>0</v>
-      </c>
-      <c r="K64">
-        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2635,108 +2713,102 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D65">
-        <v>18.59366890069403</v>
+        <v>100</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>41.38216126098745</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 01</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D66">
-        <v>94.55172782107474</v>
+        <v>81.75055372087164</v>
       </c>
       <c r="E66">
-        <v>24.44444444444444</v>
-      </c>
-      <c r="F66">
-        <v>76.47182599999999</v>
+        <v>48.64045032829818</v>
       </c>
       <c r="G66">
-        <v>38.89995</v>
-      </c>
-      <c r="H66">
-        <v>234.3679482655192</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 02</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D67">
-        <v>92.3232144359198</v>
+        <v>42.15656814548602</v>
       </c>
       <c r="E67">
-        <v>35.55555555555556</v>
-      </c>
-      <c r="F67">
-        <v>85.766785</v>
+        <v>40.18347013968203</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>213.6455549914754</v>
-      </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 03</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2746,26 +2818,26 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D68">
-        <v>76.72505787841821</v>
+        <v>94.4274257451607</v>
       </c>
       <c r="E68">
-        <v>35.55555555555556</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="F68">
-        <v>76.61115100000001</v>
+        <v>49.876081</v>
       </c>
       <c r="G68">
-        <v>5.599309</v>
+        <v>1.922962</v>
       </c>
       <c r="H68">
-        <v>194.4910734339738</v>
+        <v>188.4486909673829</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2774,36 +2846,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 04</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D69">
-        <v>90.46093785057214</v>
+        <v>94.17482327351821</v>
       </c>
       <c r="E69">
-        <v>35.55555555555556</v>
-      </c>
-      <c r="F69">
-        <v>61.137533</v>
+        <v>13.14527406532584</v>
       </c>
       <c r="G69">
         <v>0</v>
-      </c>
-      <c r="H69">
-        <v>187.1540264061277</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2812,36 +2875,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 05</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D70">
-        <v>67.97280269352125</v>
+        <v>13.43201477698263</v>
       </c>
       <c r="E70">
-        <v>28.88888888888889</v>
-      </c>
-      <c r="F70">
-        <v>61.928506</v>
+        <v>19.29557484494947</v>
       </c>
       <c r="G70">
         <v>0</v>
-      </c>
-      <c r="H70">
-        <v>158.7901975824101</v>
-      </c>
-      <c r="I70">
-        <v>3</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2850,36 +2904,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 06</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D71">
-        <v>21.31555272946574</v>
+        <v>70.84015435609901</v>
       </c>
       <c r="E71">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="F71">
-        <v>35.566009</v>
+        <v>20.59092546677536</v>
       </c>
       <c r="G71">
-        <v>24.515415</v>
-      </c>
-      <c r="H71">
-        <v>125.8414211739102</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -2888,83 +2933,77 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 07</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D72">
-        <v>63.08559454601126</v>
+        <v>16.37848668882959</v>
       </c>
       <c r="E72">
-        <v>28.88888888888889</v>
-      </c>
-      <c r="F72">
-        <v>99.335876</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>15.977247</v>
-      </c>
-      <c r="H72">
-        <v>207.2876064349001</v>
+        <v>0</v>
       </c>
       <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
         <v>2</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Peshastin Creek Lower 08</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lower Peshastin Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D73">
-        <v>98.10417744653289</v>
+        <v>5.200579157604852</v>
       </c>
       <c r="E73">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="F73">
-        <v>77.157106</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>208.5946167798662</v>
-      </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>0</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2974,32 +3013,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D74">
-        <v>39.11139432932308</v>
+        <v>29.18204219003546</v>
       </c>
       <c r="E74">
-        <v>87.2302720070069</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3009,17 +3048,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D75">
-        <v>42.29866038169604</v>
+        <v>57.39958642383489</v>
       </c>
       <c r="E75">
-        <v>4.599828796958745</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>10.229701</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3028,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3044,32 +3083,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D76">
-        <v>61.21972936706004</v>
+        <v>18.59366890069403</v>
       </c>
       <c r="E76">
-        <v>67.8840842271688</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>15.243609</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3083,28 +3122,28 @@
         </is>
       </c>
       <c r="D77">
-        <v>86.71407722197918</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E77">
-        <v>78.30164640163568</v>
+        <v>87.2302720070069</v>
       </c>
       <c r="G77">
-        <v>19.773172</v>
+        <v>100</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3118,13 +3157,13 @@
         </is>
       </c>
       <c r="D78">
-        <v>9.40098230509123</v>
+        <v>42.29866038169604</v>
       </c>
       <c r="E78">
-        <v>52.80329377860712</v>
+        <v>4.599828796958745</v>
       </c>
       <c r="G78">
-        <v>79.748205</v>
+        <v>10.229701</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3133,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3153,13 +3192,13 @@
         </is>
       </c>
       <c r="D79">
-        <v>17.98763439738011</v>
+        <v>61.21972936706004</v>
       </c>
       <c r="E79">
-        <v>69.88250208433527</v>
+        <v>67.8840842271688</v>
       </c>
       <c r="G79">
-        <v>61.476789</v>
+        <v>15.243609</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -3168,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3188,13 +3227,13 @@
         </is>
       </c>
       <c r="D80">
-        <v>68.77662469825343</v>
+        <v>86.71407722197918</v>
       </c>
       <c r="E80">
-        <v>78.92917935080432</v>
+        <v>78.30164640163568</v>
       </c>
       <c r="G80">
-        <v>56.798439</v>
+        <v>19.773172</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -3203,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3219,32 +3258,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E81">
-        <v>39.22267177160267</v>
+        <v>52.80329377860712</v>
       </c>
       <c r="G81">
-        <v>100</v>
+        <v>79.748205</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3254,58 +3293,67 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D82">
-        <v>93.12987408131754</v>
+        <v>17.98763439738011</v>
       </c>
       <c r="E82">
-        <v>51.2291200709168</v>
+        <v>69.88250208433527</v>
       </c>
       <c r="G82">
-        <v>5.784999</v>
+        <v>61.476789</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sunitsch Canyon 01</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D83">
-        <v>84.40754479495077</v>
+        <v>68.77662469825343</v>
+      </c>
+      <c r="E83">
+        <v>78.92917935080432</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>56.798439</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
       </c>
       <c r="J83">
         <v>0</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3315,93 +3363,102 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D84">
-        <v>21.87768683751509</v>
+        <v>100</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>39.22267177160267</v>
       </c>
       <c r="G84">
-        <v>30.63676</v>
+        <v>100</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D85">
-        <v>85.21578438901136</v>
+        <v>93.12987408131754</v>
       </c>
       <c r="E85">
-        <v>46.66666666666666</v>
+        <v>51.2291200709168</v>
       </c>
       <c r="G85">
-        <v>97.098246</v>
+        <v>5.784999</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D86">
-        <v>75.96049349447488</v>
+        <v>21.87768683751509</v>
       </c>
       <c r="E86">
-        <v>37.77777777777778</v>
+        <v>100</v>
       </c>
       <c r="G86">
-        <v>52.662308</v>
+        <v>30.63676</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3415,22 +3472,25 @@
         </is>
       </c>
       <c r="D87">
-        <v>89.16036088849121</v>
+        <v>85.21578438901136</v>
       </c>
       <c r="E87">
-        <v>37.77777777777778</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G87">
-        <v>40.902428</v>
+        <v>97.098246</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3444,25 +3504,22 @@
         </is>
       </c>
       <c r="D88">
-        <v>69.81772809280523</v>
+        <v>75.96049349447488</v>
       </c>
       <c r="E88">
         <v>37.77777777777778</v>
       </c>
       <c r="G88">
-        <v>100</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
+        <v>52.662308</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3476,13 +3533,13 @@
         </is>
       </c>
       <c r="D89">
-        <v>55.35278697152805</v>
+        <v>89.16036088849121</v>
       </c>
       <c r="E89">
-        <v>55.55555555555556</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="G89">
-        <v>28.134613</v>
+        <v>40.902428</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -3491,7 +3548,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3505,44 +3562,105 @@
         </is>
       </c>
       <c r="D90">
-        <v>39.88903924834695</v>
+        <v>69.81772809280523</v>
       </c>
       <c r="E90">
-        <v>51.11111111111111</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="G90">
-        <v>25.462168</v>
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Twisp River Lower 07</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>55.35278697152805</v>
+      </c>
+      <c r="E91">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="G91">
+        <v>28.134613</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 08</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>39.88903924834695</v>
+      </c>
+      <c r="E92">
+        <v>51.11111111111111</v>
+      </c>
+      <c r="G92">
+        <v>25.462168</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>Twisp River Lower 10</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Methow</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
         </is>
       </c>
-      <c r="D91">
+      <c r="D93">
         <v>72.65933763461709</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>48.88888888888889</v>
       </c>
-      <c r="G91">
+      <c r="G93">
         <v>73.984833</v>
       </c>
-      <c r="J91">
+      <c r="J93">
         <v>0</v>
       </c>
     </row>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Degraded_Area_Percent</t>
+          <t>Threats_Percent</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>45.20493031374554</v>
       </c>
       <c r="G4">
-        <v>38.490035</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>223.5149280458165</v>
+        <v>197.0248930458164</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -609,10 +609,10 @@
         <v>12.58476261205274</v>
       </c>
       <c r="G6">
-        <v>76.46233700000001</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>247.081166938885</v>
+        <v>201.618829938885</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -650,10 +650,10 @@
         <v>7.582333859155188</v>
       </c>
       <c r="G7">
-        <v>62.287047</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>222.3758037961078</v>
+        <v>182.0887567961078</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -732,19 +732,19 @@
         <v>18.38668565133067</v>
       </c>
       <c r="G9">
-        <v>54.083281</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>236.9144110957751</v>
+        <v>189.8311300957751</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -773,19 +773,19 @@
         <v>32.73246022160161</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>269.2780829190089</v>
+        <v>213.2780829190089</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +814,10 @@
         <v>8.48354860931903</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H11">
-        <v>270.5059463401416</v>
+        <v>264.5059463401416</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -855,19 +855,19 @@
         <v>9.805742711658178</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>171.0305772332931</v>
+        <v>151.0305772332931</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -896,10 +896,10 @@
         <v>2.915601301084163</v>
       </c>
       <c r="G13">
-        <v>18.907555</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>177.7861938476484</v>
+        <v>171.8786388476484</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -937,19 +937,19 @@
         <v>21.69905152328883</v>
       </c>
       <c r="G14">
-        <v>97.043353</v>
+        <v>77</v>
       </c>
       <c r="H14">
-        <v>270.3437200280513</v>
+        <v>250.3003670280513</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -978,10 +978,10 @@
         <v>15.08775462109912</v>
       </c>
       <c r="G15">
-        <v>58.046354</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>213.0476317953404</v>
+        <v>184.0012777953404</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -1019,10 +1019,10 @@
         <v>0.5508173424905437</v>
       </c>
       <c r="G16">
-        <v>88.74724000000001</v>
+        <v>85</v>
       </c>
       <c r="H16">
-        <v>179.2735555771215</v>
+        <v>175.5263155771215</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -1183,19 +1183,19 @@
         <v>5.690506474479204</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H20">
-        <v>269.9846694178099</v>
+        <v>244.9846694178099</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1470,19 +1470,19 @@
         <v>7.873493957221549</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>293.4523702415486</v>
+        <v>240.4523702415486</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1511,19 +1511,19 @@
         <v>5.336962261893179</v>
       </c>
       <c r="G28">
-        <v>67.172203</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>250.9278101014145</v>
+        <v>230.7556071014145</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1552,19 +1552,19 @@
         <v>13.32912214786877</v>
       </c>
       <c r="G29">
-        <v>90.91668799999999</v>
+        <v>57</v>
       </c>
       <c r="H29">
-        <v>275.3569212589799</v>
+        <v>241.4402332589799</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1599,13 +1599,13 @@
         <v>174.4771582599081</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1634,19 +1634,19 @@
         <v>5.546067577265227</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H31">
-        <v>278.8794009105986</v>
+        <v>234.8794009105986</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -1675,19 +1675,19 @@
         <v>10.63870711159244</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>276.8454753760371</v>
+        <v>221.8454753760371</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -1716,19 +1716,19 @@
         <v>6.149398330290484</v>
       </c>
       <c r="G33">
-        <v>94.057289</v>
+        <v>67</v>
       </c>
       <c r="H33">
-        <v>252.5420704336172</v>
+        <v>225.4847814336172</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -1757,19 +1757,19 @@
         <v>14.70579254329286</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>291.9520919057206</v>
+        <v>234.9520919057206</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -1798,19 +1798,19 @@
         <v>1.165029295243797</v>
       </c>
       <c r="G35">
-        <v>90.124816</v>
+        <v>62</v>
       </c>
       <c r="H35">
-        <v>232.7528841517816</v>
+        <v>204.6280681517816</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -1962,10 +1962,10 @@
         <v>19.63727276714606</v>
       </c>
       <c r="G39">
-        <v>10.618684</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>210.2559567671461</v>
+        <v>203.6372727671461</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -2003,19 +2003,19 @@
         <v>24.39708799192094</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H40">
-        <v>277.8882844980702</v>
+        <v>234.8882844980702</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -2120,19 +2120,19 @@
         <v>46.75852342372073</v>
       </c>
       <c r="G43">
-        <v>99.851175</v>
+        <v>27</v>
       </c>
       <c r="H43">
-        <v>304.3874762014985</v>
+        <v>231.5363012014985</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -2161,19 +2161,19 @@
         <v>59.51062208581162</v>
       </c>
       <c r="G44">
-        <v>83.875388</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>302.1838463869585</v>
+        <v>262.3084583869585</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -2202,19 +2202,19 @@
         <v>50.19452171975494</v>
       </c>
       <c r="G45">
-        <v>95.755133</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>280.7565312749046</v>
+        <v>223.0013982749046</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
@@ -2243,19 +2243,19 @@
         <v>78.84520926726687</v>
       </c>
       <c r="G46">
-        <v>54.661778</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>295.7292094894891</v>
+        <v>256.0674314894891</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -2284,19 +2284,19 @@
         <v>74.67701543385975</v>
       </c>
       <c r="G47">
-        <v>84.578238</v>
+        <v>28</v>
       </c>
       <c r="H47">
-        <v>318.4372436279859</v>
+        <v>261.8590056279859</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2325,19 +2325,19 @@
         <v>79.30566085797605</v>
       </c>
       <c r="G48">
-        <v>93.41325999999999</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>323.0412057329513</v>
+        <v>262.6279457329513</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2366,19 +2366,19 @@
         <v>86.9102939314629</v>
       </c>
       <c r="G49">
-        <v>17.415983</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>282.1040547092407</v>
+        <v>271.6880717092407</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2407,10 +2407,10 @@
         <v>61.76444491517135</v>
       </c>
       <c r="G50">
-        <v>59.238658</v>
+        <v>21</v>
       </c>
       <c r="H50">
-        <v>297.542669256201</v>
+        <v>259.304011256201</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2448,19 +2448,19 @@
         <v>74.54307817092519</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>338.7309881365636</v>
+        <v>281.7309881365636</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2489,10 +2489,10 @@
         <v>27.25067491631236</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H52">
-        <v>297.1889059996734</v>
+        <v>288.1889059996734</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2530,19 +2530,19 @@
         <v>13.28234674934646</v>
       </c>
       <c r="G53">
-        <v>76.99460000000001</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>239.1658356382354</v>
+        <v>195.1712356382353</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -2571,19 +2571,19 @@
         <v>25.21350326567888</v>
       </c>
       <c r="G54">
-        <v>59.235681</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>248.8007009910453</v>
+        <v>221.5650199910453</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -2612,19 +2612,19 @@
         <v>38.35381780479476</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H55">
-        <v>275.5518317392798</v>
+        <v>244.5518317392798</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -2653,19 +2653,19 @@
         <v>30.06777338013726</v>
       </c>
       <c r="G56">
-        <v>76.340859</v>
+        <v>70</v>
       </c>
       <c r="H56">
-        <v>232.5497451876662</v>
+        <v>226.2088861876662</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -2694,10 +2694,10 @@
         <v>30.38705152956334</v>
       </c>
       <c r="G57">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H57">
-        <v>227.3471363494591</v>
+        <v>218.3471363494591</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
@@ -2735,10 +2735,10 @@
         <v>13.46367942505994</v>
       </c>
       <c r="G58">
-        <v>0.796637</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>119.2962070934862</v>
+        <v>119.4995700934862</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -2773,7 +2773,7 @@
         <v>60</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -2808,7 +2808,7 @@
         <v>73.33333333333333</v>
       </c>
       <c r="G60">
-        <v>65.464297</v>
+        <v>32</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>77.77777777777779</v>
       </c>
       <c r="G61">
-        <v>66.23930300000001</v>
+        <v>32</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>8.128609896833083</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H63">
-        <v>283.6841654523886</v>
+        <v>279.6841654523886</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -2992,16 +2992,16 @@
         <v>89.82364225104938</v>
       </c>
       <c r="G65">
-        <v>95.5181</v>
+        <v>49</v>
       </c>
       <c r="H65">
-        <v>342.4951137565427</v>
+        <v>295.9770137565427</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         <v>92.17671363265187</v>
       </c>
       <c r="G66">
-        <v>21.424788</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>252.0264356316905</v>
+        <v>236.6016476316905</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -3074,10 +3074,10 @@
         <v>89.25391353772524</v>
       </c>
       <c r="G67">
-        <v>49.387547</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>283.9276132592187</v>
+        <v>239.5400662592188</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -3115,10 +3115,10 @@
         <v>92.03318408220582</v>
       </c>
       <c r="G68">
-        <v>89.43712100000001</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>332.0885065218452</v>
+        <v>246.6513855218452</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -3156,19 +3156,19 @@
         <v>60.8972780777365</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>309.1471390547147</v>
+        <v>242.1471390547147</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -3270,7 +3270,7 @@
         <v>67.8840842271688</v>
       </c>
       <c r="G72">
-        <v>15.243609</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -3346,7 +3346,7 @@
         <v>78.30164640163568</v>
       </c>
       <c r="G74">
-        <v>19.773172</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>52.80329377860712</v>
       </c>
       <c r="G75">
-        <v>79.748205</v>
+        <v>14</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>69.88250208433527</v>
       </c>
       <c r="G76">
-        <v>61.476789</v>
+        <v>33</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3460,7 +3460,7 @@
         <v>78.92917935080432</v>
       </c>
       <c r="G77">
-        <v>56.798439</v>
+        <v>34</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -3498,7 +3498,7 @@
         <v>51.2291200709168</v>
       </c>
       <c r="G78">
-        <v>5.784999</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -3574,7 +3574,7 @@
         <v>62.92740558041172</v>
       </c>
       <c r="G80">
-        <v>39.780438</v>
+        <v>37</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>100</v>
       </c>
       <c r="G81">
-        <v>30.63676</v>
+        <v>8</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>55.55555555555556</v>
       </c>
       <c r="G82">
-        <v>28.134613</v>
+        <v>16</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>51.11111111111111</v>
       </c>
       <c r="G83">
-        <v>25.462168</v>
+        <v>15</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>53.33333333333334</v>
       </c>
       <c r="G84">
-        <v>73.984833</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -3746,13 +3746,10 @@
         <v>51.11111111111111</v>
       </c>
       <c r="G85">
-        <v>99.661734</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>84</v>
@@ -3781,13 +3778,10 @@
         <v>62.22222222222222</v>
       </c>
       <c r="G86">
-        <v>95.38678299999999</v>
-      </c>
-      <c r="I86">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>85</v>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         <v>70.93107384318202</v>
       </c>
       <c r="E4">
-        <v>68.88888888888889</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F4">
         <v>45.20493031374554</v>
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>197.0248930458164</v>
+        <v>194.8026708235942</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>79.1672471919955</v>
       </c>
       <c r="E5">
-        <v>68.88888888888889</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F5">
         <v>20.86727404146533</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>168.9234101223497</v>
+        <v>166.7011879001275</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -931,7 +931,7 @@
         <v>93.82353772698473</v>
       </c>
       <c r="E14">
-        <v>57.77777777777777</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F14">
         <v>21.69905152328883</v>
@@ -940,7 +940,7 @@
         <v>77</v>
       </c>
       <c r="H14">
-        <v>250.3003670280513</v>
+        <v>248.0781448058291</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1218,7 +1218,7 @@
         <v>74.02921541005696</v>
       </c>
       <c r="E21">
-        <v>62.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>11.49343000490987</v>
@@ -1227,7 +1227,7 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>247.7448676371891</v>
+        <v>245.5226454149668</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         <v>63.71807967313585</v>
       </c>
       <c r="E22">
-        <v>91.11111111111111</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="F22">
         <v>22.84510983776991</v>
@@ -1268,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>277.6743006220169</v>
+        <v>273.2298561775725</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -1300,7 +1300,7 @@
         <v>67.13441483580915</v>
       </c>
       <c r="E23">
-        <v>73.33333333333333</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F23">
         <v>8.119335801906416</v>
@@ -1309,7 +1309,7 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>248.5870839710489</v>
+        <v>246.3648617488267</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1341,7 +1341,7 @@
         <v>57.79778914955362</v>
       </c>
       <c r="E24">
-        <v>91.11111111111111</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="F24">
         <v>4.68592151202821</v>
@@ -1350,7 +1350,7 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <v>253.5948217726929</v>
+        <v>251.3725995504707</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1546,31 +1546,31 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>71.11111111111111</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F29">
-        <v>13.32912214786877</v>
+        <v>1.14382492657479</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>174.4771582599081</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>57</v>
-      </c>
-      <c r="H29">
-        <v>241.4402332589799</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D30">
@@ -1590,28 +1590,28 @@
         <v>73.33333333333333</v>
       </c>
       <c r="F30">
-        <v>1.14382492657479</v>
+        <v>5.546067577265227</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H30">
-        <v>174.4771582599081</v>
+        <v>234.8794009105986</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1625,34 +1625,34 @@
         </is>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>97.31787937555582</v>
       </c>
       <c r="E31">
-        <v>73.33333333333333</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="F31">
-        <v>5.546067577265227</v>
+        <v>10.63870711159244</v>
       </c>
       <c r="G31">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>234.8794009105986</v>
+        <v>221.8454753760371</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1666,34 +1666,34 @@
         </is>
       </c>
       <c r="D32">
-        <v>97.31787937555582</v>
+        <v>83.44649421443781</v>
       </c>
       <c r="E32">
         <v>68.88888888888889</v>
       </c>
       <c r="F32">
-        <v>10.63870711159244</v>
+        <v>6.149398330290484</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H32">
-        <v>221.8454753760371</v>
+        <v>225.4847814336172</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1703,23 +1703,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D33">
-        <v>83.44649421443781</v>
+        <v>97.24629936242772</v>
       </c>
       <c r="E33">
-        <v>68.88888888888889</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>6.149398330290484</v>
+        <v>14.70579254329286</v>
       </c>
       <c r="G33">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>225.4847814336172</v>
+        <v>234.9520919057206</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1728,54 +1728,54 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D34">
-        <v>97.24629936242772</v>
+        <v>85.90748330098225</v>
       </c>
       <c r="E34">
-        <v>80</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F34">
-        <v>14.70579254329286</v>
+        <v>1.165029295243797</v>
       </c>
       <c r="G34">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H34">
-        <v>234.9520919057206</v>
+        <v>204.6280681517816</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1789,34 +1789,34 @@
         </is>
       </c>
       <c r="D35">
-        <v>85.90748330098225</v>
+        <v>90.28226492698596</v>
       </c>
       <c r="E35">
-        <v>55.55555555555556</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F35">
-        <v>1.165029295243797</v>
+        <v>0.5660235931038431</v>
       </c>
       <c r="G35">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H35">
-        <v>204.6280681517816</v>
+        <v>264.1816218534231</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Little Wenatchee River Lower 04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1830,19 +1830,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>90.28226492698596</v>
+        <v>89.03941451403804</v>
       </c>
       <c r="E36">
-        <v>73.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="F36">
-        <v>0.5660235931038431</v>
+        <v>0.07221228862418901</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
       <c r="H36">
-        <v>264.1816218534231</v>
+        <v>249.1116268026622</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>89.03941451403804</v>
+        <v>65.61004661283214</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F37">
-        <v>0.07221228862418901</v>
+        <v>0.6445402629324878</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37">
-        <v>249.1116268026622</v>
+        <v>221.8101424313202</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -1892,54 +1892,54 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D38">
-        <v>65.61004661283214</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>55.55555555555556</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>0.6445402629324878</v>
+        <v>19.63727276714606</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>221.8101424313202</v>
+        <v>203.6372727671461</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1949,23 +1949,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E39">
-        <v>80</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F39">
-        <v>19.63727276714606</v>
+        <v>24.39708799192094</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="H39">
-        <v>203.6372727671461</v>
+        <v>234.8882844980702</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1994,34 +1994,34 @@
         </is>
       </c>
       <c r="D40">
-        <v>82.38008539503814</v>
+        <v>29.27753101162979</v>
       </c>
       <c r="E40">
-        <v>71.11111111111111</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="F40">
-        <v>24.39708799192094</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="H40">
-        <v>234.8882844980702</v>
+        <v>211.499753233852</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2035,20 +2035,14 @@
         </is>
       </c>
       <c r="D41">
-        <v>29.27753101162979</v>
+        <v>28.99103782593232</v>
       </c>
       <c r="E41">
-        <v>84.44444444444444</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+        <v>91.11111111111111</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
-      <c r="H41">
-        <v>213.7219754560742</v>
-      </c>
       <c r="I41">
         <v>3</v>
       </c>
@@ -2056,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2072,32 +2066,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D42">
-        <v>28.99103782593232</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>91.11111111111111</v>
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F42">
+        <v>46.75852342372073</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="H42">
+        <v>229.3140789792763</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Thompson 01</t>
+          <t>Methow River Thompson 02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2111,34 +2111,34 @@
         </is>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>96.57561407892462</v>
       </c>
       <c r="E43">
-        <v>57.77777777777777</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>46.75852342372073</v>
+        <v>59.51062208581162</v>
       </c>
       <c r="G43">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>231.5363012014985</v>
+        <v>260.0862361647363</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Thompson 02</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="D44">
-        <v>96.57561407892462</v>
+        <v>72.5846543329274</v>
       </c>
       <c r="E44">
-        <v>62.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="F44">
-        <v>59.51062208581162</v>
+        <v>50.19452171975494</v>
       </c>
       <c r="G44">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>262.3084583869585</v>
+        <v>220.7791760526824</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Methow River Thompson 04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2193,34 +2193,34 @@
         </is>
       </c>
       <c r="D45">
-        <v>72.5846543329274</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>62.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="F45">
-        <v>50.19452171975494</v>
+        <v>78.84520926726687</v>
       </c>
       <c r="G45">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>223.0013982749046</v>
+        <v>253.8452092672669</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Thompson 04</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2234,34 +2234,34 @@
         </is>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>96.95976797190397</v>
       </c>
       <c r="E46">
-        <v>62.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="F46">
-        <v>78.84520926726687</v>
+        <v>74.67701543385975</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>256.0674314894891</v>
+        <v>259.6367834057637</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2275,34 +2275,34 @@
         </is>
       </c>
       <c r="D47">
-        <v>96.95976797190397</v>
+        <v>92.54450709719747</v>
       </c>
       <c r="E47">
-        <v>62.22222222222222</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F47">
-        <v>74.67701543385975</v>
+        <v>79.30566085797605</v>
       </c>
       <c r="G47">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>261.8590056279859</v>
+        <v>260.4057235107291</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2316,19 +2316,19 @@
         </is>
       </c>
       <c r="D48">
-        <v>92.54450709719747</v>
+        <v>100</v>
       </c>
       <c r="E48">
-        <v>57.77777777777777</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F48">
-        <v>79.30566085797605</v>
+        <v>86.9102939314629</v>
       </c>
       <c r="G48">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>262.6279457329513</v>
+        <v>265.021405042574</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2337,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2357,34 +2357,34 @@
         </is>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>98.76178856325181</v>
       </c>
       <c r="E49">
-        <v>77.77777777777779</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F49">
-        <v>86.9102939314629</v>
+        <v>61.76444491517135</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H49">
-        <v>271.6880717092407</v>
+        <v>252.6373445895343</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2398,75 +2398,75 @@
         </is>
       </c>
       <c r="D50">
-        <v>98.76178856325181</v>
+        <v>90.85457663230511</v>
       </c>
       <c r="E50">
-        <v>77.77777777777779</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F50">
-        <v>61.76444491517135</v>
+        <v>74.54307817092519</v>
       </c>
       <c r="G50">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>259.304011256201</v>
+        <v>275.064321469897</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Thompson 09</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D51">
-        <v>90.85457663230511</v>
+        <v>85.49378663891662</v>
       </c>
       <c r="E51">
-        <v>73.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>74.54307817092519</v>
+        <v>27.25067491631236</v>
       </c>
       <c r="G51">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H51">
-        <v>281.7309881365636</v>
+        <v>283.744461555229</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2480,34 +2480,34 @@
         </is>
       </c>
       <c r="D52">
-        <v>85.49378663891662</v>
+        <v>60</v>
       </c>
       <c r="E52">
-        <v>84.44444444444444</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="F52">
-        <v>27.25067491631236</v>
+        <v>13.28234674934646</v>
       </c>
       <c r="G52">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>288.1889059996734</v>
+        <v>195.1712356382353</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2521,19 +2521,19 @@
         </is>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E53">
-        <v>88.88888888888889</v>
+        <v>75.55555555555556</v>
       </c>
       <c r="F53">
-        <v>13.28234674934646</v>
+        <v>25.21350326567888</v>
       </c>
       <c r="G53">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>195.1712356382353</v>
+        <v>217.1205755466008</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -2542,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2562,34 +2562,34 @@
         </is>
       </c>
       <c r="D54">
-        <v>84.3515167253664</v>
+        <v>81.64245837892949</v>
       </c>
       <c r="E54">
-        <v>80</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F54">
-        <v>25.21350326567888</v>
+        <v>38.35381780479476</v>
       </c>
       <c r="G54">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H54">
-        <v>221.5650199910453</v>
+        <v>244.5518317392798</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2603,19 +2603,19 @@
         </is>
       </c>
       <c r="D55">
-        <v>81.64245837892949</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E55">
-        <v>55.55555555555556</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F55">
-        <v>38.35381780479476</v>
+        <v>30.06777338013726</v>
       </c>
       <c r="G55">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H55">
-        <v>244.5518317392798</v>
+        <v>223.9866639654439</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2624,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2644,34 +2644,34 @@
         </is>
       </c>
       <c r="D56">
-        <v>70.58555725197336</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E56">
         <v>55.55555555555556</v>
       </c>
       <c r="F56">
-        <v>30.06777338013726</v>
+        <v>30.38705152956334</v>
       </c>
       <c r="G56">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H56">
-        <v>226.2088861876662</v>
+        <v>218.3471363494591</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2685,34 +2685,34 @@
         </is>
       </c>
       <c r="D57">
-        <v>41.40452926434025</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E57">
         <v>55.55555555555556</v>
       </c>
       <c r="F57">
-        <v>30.38705152956334</v>
+        <v>13.46367942505994</v>
       </c>
       <c r="G57">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>218.3471363494591</v>
+        <v>119.4995700934862</v>
       </c>
       <c r="I57">
         <v>3</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2726,60 +2726,51 @@
         </is>
       </c>
       <c r="D58">
-        <v>49.48033511287066</v>
+        <v>47.10807995455942</v>
       </c>
       <c r="E58">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F58">
-        <v>13.46367942505994</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>119.4995700934862</v>
+        <v>92</v>
       </c>
       <c r="I58">
         <v>3</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D59">
-        <v>47.10807995455942</v>
+        <v>96.99902423868772</v>
       </c>
       <c r="E59">
-        <v>60</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="G59">
-        <v>92</v>
-      </c>
-      <c r="I59">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>65</v>
@@ -2788,7 +2779,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2802,10 +2793,10 @@
         </is>
       </c>
       <c r="D60">
-        <v>96.99902423868772</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E60">
-        <v>73.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="G60">
         <v>32</v>
@@ -2820,7 +2811,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2834,16 +2825,19 @@
         </is>
       </c>
       <c r="D61">
-        <v>94.14263946738888</v>
+        <v>86.53386002555166</v>
       </c>
       <c r="E61">
-        <v>77.77777777777779</v>
+        <v>82.22222222222221</v>
       </c>
       <c r="G61">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>67</v>
@@ -2852,27 +2846,33 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D62">
-        <v>86.53386002555166</v>
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>82.22222222222221</v>
+        <v>75.55555555555556</v>
+      </c>
+      <c r="F62">
+        <v>8.128609896833083</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="H62">
+        <v>279.6841654523886</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -2881,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2897,23 +2897,23 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D63">
+        <v>12.5825765710022</v>
+      </c>
+      <c r="E63">
+        <v>71.11111111111111</v>
+      </c>
+      <c r="F63">
+        <v>10.94662072144676</v>
+      </c>
+      <c r="G63">
         <v>100</v>
       </c>
-      <c r="E63">
-        <v>75.55555555555556</v>
-      </c>
-      <c r="F63">
-        <v>8.128609896833083</v>
-      </c>
-      <c r="G63">
-        <v>96</v>
-      </c>
       <c r="H63">
-        <v>279.6841654523886</v>
+        <v>194.6403084035601</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -2922,54 +2922,54 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D64">
-        <v>12.5825765710022</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E64">
-        <v>71.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F64">
-        <v>10.94662072144676</v>
+        <v>89.82364225104938</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="H64">
-        <v>194.6403084035601</v>
+        <v>293.7547915343205</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2983,34 +2983,34 @@
         </is>
       </c>
       <c r="D65">
-        <v>99.37559372771551</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E65">
-        <v>57.77777777777777</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F65">
-        <v>89.82364225104938</v>
+        <v>92.17671363265187</v>
       </c>
       <c r="G65">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>295.9770137565427</v>
+        <v>234.3794254094683</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3024,34 +3024,34 @@
         </is>
       </c>
       <c r="D66">
-        <v>80.64715622126087</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E66">
-        <v>57.77777777777777</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F66">
-        <v>92.17671363265187</v>
+        <v>89.25391353772524</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>236.6016476316905</v>
+        <v>237.3178440369965</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3065,34 +3065,34 @@
         </is>
       </c>
       <c r="D67">
-        <v>87.50837494371574</v>
+        <v>88.39597921741711</v>
       </c>
       <c r="E67">
-        <v>57.77777777777777</v>
+        <v>60</v>
       </c>
       <c r="F67">
-        <v>89.25391353772524</v>
+        <v>92.03318408220582</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>239.5400662592188</v>
+        <v>244.4291632996229</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3106,75 +3106,72 @@
         </is>
       </c>
       <c r="D68">
-        <v>88.39597921741711</v>
+        <v>86.02763875475596</v>
       </c>
       <c r="E68">
-        <v>62.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="F68">
-        <v>92.03318408220582</v>
+        <v>60.8972780777365</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>246.6513855218452</v>
+        <v>239.9249168324924</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D69">
-        <v>86.02763875475596</v>
+        <v>12.44070883508962</v>
       </c>
       <c r="E69">
-        <v>62.22222222222222</v>
-      </c>
-      <c r="F69">
-        <v>60.8972780777365</v>
+        <v>62.6617921420571</v>
       </c>
       <c r="G69">
-        <v>33</v>
-      </c>
-      <c r="H69">
-        <v>242.1471390547147</v>
+        <v>100</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>8</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3188,10 +3185,10 @@
         </is>
       </c>
       <c r="D70">
-        <v>12.44070883508962</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E70">
-        <v>62.6617921420571</v>
+        <v>87.2302720070069</v>
       </c>
       <c r="G70">
         <v>100</v>
@@ -3203,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L70">
         <v>69</v>
@@ -3212,7 +3209,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3226,22 +3223,22 @@
         </is>
       </c>
       <c r="D71">
-        <v>39.11139432932308</v>
+        <v>50.19589933065281</v>
       </c>
       <c r="E71">
-        <v>87.2302720070069</v>
+        <v>65.42803770568443</v>
       </c>
       <c r="G71">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -3960,6 +3957,76 @@
       </c>
       <c r="L91">
         <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Twisp River Upper 02</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Upper Twisp River</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>97.29535372792989</v>
+      </c>
+      <c r="E92">
+        <v>82.22222222222221</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Twisp River Upper 03</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Upper Twisp River</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>71.69696234224107</v>
+      </c>
+      <c r="E93">
+        <v>82.22222222222221</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +439,7 @@
         <v>95.54958801466525</v>
       </c>
       <c r="E2">
-        <v>71.11111111111111</v>
+        <v>71.11111</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>266.6606991257764</v>
+        <v>266.6606980146652</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>98.1370600401239</v>
       </c>
       <c r="E3">
-        <v>73.33333333333333</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>271.4703933734572</v>
+        <v>271.4703900401239</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -521,7 +521,7 @@
         <v>70.93107384318202</v>
       </c>
       <c r="E4">
-        <v>66.66666666666666</v>
+        <v>68.88889</v>
       </c>
       <c r="F4">
         <v>45.20493031374554</v>
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>194.8026708235942</v>
+        <v>197.0248941569276</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>79.1672471919955</v>
       </c>
       <c r="E5">
-        <v>66.66666666666666</v>
+        <v>68.88889</v>
       </c>
       <c r="F5">
         <v>20.86727404146533</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>166.7011879001275</v>
+        <v>168.9234112334608</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -603,7 +603,7 @@
         <v>95.81184510461004</v>
       </c>
       <c r="E6">
-        <v>62.22222222222222</v>
+        <v>62.22221999999999</v>
       </c>
       <c r="F6">
         <v>12.58476261205274</v>
@@ -612,7 +612,7 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>201.618829938885</v>
+        <v>201.6188277166628</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>90.28420071473042</v>
       </c>
       <c r="E7">
-        <v>62.22222222222222</v>
+        <v>62.22221999999999</v>
       </c>
       <c r="F7">
         <v>7.582333859155188</v>
@@ -653,7 +653,7 @@
         <v>22</v>
       </c>
       <c r="H7">
-        <v>182.0887567961078</v>
+        <v>182.0887545738856</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>64.44444444444444</v>
+        <v>64.44444</v>
       </c>
       <c r="F8">
         <v>1.397065047531585</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>165.841509491976</v>
+        <v>165.8415050475316</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>64.44444444444444</v>
+        <v>64.44444</v>
       </c>
       <c r="F9">
         <v>18.38668565133067</v>
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>189.8311300957751</v>
+        <v>189.8311256513307</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -767,7 +767,7 @@
         <v>80.99006714185175</v>
       </c>
       <c r="E10">
-        <v>55.55555555555556</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F10">
         <v>32.73246022160161</v>
@@ -776,7 +776,7 @@
         <v>44</v>
       </c>
       <c r="H10">
-        <v>213.2780829190089</v>
+        <v>213.2780873634534</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>86.46684217526705</v>
       </c>
       <c r="E11">
-        <v>75.55555555555556</v>
+        <v>75.55556</v>
       </c>
       <c r="F11">
         <v>8.48354860931903</v>
@@ -817,7 +817,7 @@
         <v>94</v>
       </c>
       <c r="H11">
-        <v>264.5059463401416</v>
+        <v>264.5059507845861</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -849,7 +849,7 @@
         <v>3.447056743857168</v>
       </c>
       <c r="E12">
-        <v>57.77777777777777</v>
+        <v>57.77778</v>
       </c>
       <c r="F12">
         <v>9.805742711658178</v>
@@ -858,7 +858,7 @@
         <v>80</v>
       </c>
       <c r="H12">
-        <v>151.0305772332931</v>
+        <v>151.0305794555154</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
         <v>98.18525976878647</v>
       </c>
       <c r="E13">
-        <v>57.77777777777777</v>
+        <v>57.77778</v>
       </c>
       <c r="F13">
         <v>2.915601301084163</v>
@@ -899,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="H13">
-        <v>171.8786388476484</v>
+        <v>171.8786410698706</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -931,7 +931,7 @@
         <v>93.82353772698473</v>
       </c>
       <c r="E14">
-        <v>55.55555555555556</v>
+        <v>57.77778</v>
       </c>
       <c r="F14">
         <v>21.69905152328883</v>
@@ -940,7 +940,7 @@
         <v>77</v>
       </c>
       <c r="H14">
-        <v>248.0781448058291</v>
+        <v>250.3003692502736</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>84.35796761868576</v>
       </c>
       <c r="E15">
-        <v>55.55555555555556</v>
+        <v>64.44444</v>
       </c>
       <c r="F15">
         <v>15.08775462109912</v>
@@ -981,7 +981,7 @@
         <v>29</v>
       </c>
       <c r="H15">
-        <v>184.0012777953404</v>
+        <v>192.8901622397849</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="D16">
-        <v>32.1977204568532</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>57.77777777777777</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F16">
-        <v>0.5508173424905437</v>
+        <v>37.12562754930836</v>
       </c>
       <c r="G16">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>175.5263155771215</v>
+        <v>153.6811875493084</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1051,34 +1051,34 @@
         </is>
       </c>
       <c r="D17">
-        <v>31.28770204495832</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E17">
-        <v>51.11111111111111</v>
+        <v>66.66667</v>
       </c>
       <c r="F17">
-        <v>1.115868659286246</v>
+        <v>0.5508173424905437</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H17">
-        <v>183.5146818153557</v>
+        <v>184.4152077993437</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1092,19 +1092,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>59.40114855246741</v>
+        <v>31.28770204495832</v>
       </c>
       <c r="E18">
-        <v>57.77777777777777</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>3.364744106188359</v>
+        <v>1.115868659286246</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>220.5436704364335</v>
+        <v>192.4035707042446</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1113,13 +1113,13 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1133,19 +1133,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>17.25110079134537</v>
+        <v>11.93596293888412</v>
       </c>
       <c r="E19">
-        <v>64.44444444444444</v>
+        <v>51.11111</v>
       </c>
       <c r="F19">
-        <v>0.07753013421156983</v>
+        <v>0.7050532708779511</v>
       </c>
       <c r="G19">
         <v>100</v>
       </c>
       <c r="H19">
-        <v>181.7730753700014</v>
+        <v>163.7521262097621</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1154,80 +1154,80 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D20">
-        <v>84.29416294333068</v>
+        <v>59.40114855246741</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>66.66667</v>
       </c>
       <c r="F20">
-        <v>5.690506474479204</v>
+        <v>3.364744106188359</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>244.9846694178099</v>
+        <v>229.4325626586558</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D21">
-        <v>74.02921541005696</v>
+        <v>17.25110079134537</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>64.44444</v>
       </c>
       <c r="F21">
-        <v>11.49343000490987</v>
+        <v>0.07753013421156983</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>245.5226454149668</v>
+        <v>181.7730709255569</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1256,34 +1256,34 @@
         </is>
       </c>
       <c r="D22">
-        <v>63.71807967313585</v>
+        <v>84.29416294333068</v>
       </c>
       <c r="E22">
-        <v>86.66666666666667</v>
+        <v>80</v>
       </c>
       <c r="F22">
-        <v>22.84510983776991</v>
+        <v>5.690506474479204</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>273.2298561775725</v>
+        <v>244.9846694178099</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1297,19 +1297,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>67.13441483580915</v>
+        <v>74.02921541005696</v>
       </c>
       <c r="E23">
-        <v>71.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>8.119335801906416</v>
+        <v>11.49343000490987</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
-        <v>246.3648617488267</v>
+        <v>245.5226454149668</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1318,13 +1318,13 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1338,19 +1338,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>57.79778914955362</v>
+        <v>63.71807967313585</v>
       </c>
       <c r="E24">
-        <v>88.88888888888889</v>
+        <v>88.88889</v>
       </c>
       <c r="F24">
-        <v>4.68592151202821</v>
+        <v>22.84510983776991</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24">
-        <v>251.3725995504707</v>
+        <v>275.4520795109058</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1359,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>11.67507174164155</v>
+        <v>67.13441483580915</v>
       </c>
       <c r="E25">
-        <v>82.22222222222221</v>
+        <v>71.11111</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>8.119335801906416</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>193.8972939638638</v>
+        <v>246.3648606377156</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1400,13 +1400,13 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>97.21324179051436</v>
+        <v>57.79778914955362</v>
       </c>
       <c r="E26">
-        <v>82.22222222222221</v>
+        <v>88.88889</v>
       </c>
       <c r="F26">
-        <v>3.197646810303625</v>
+        <v>4.68592151202821</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>282.6331108230402</v>
+        <v>251.3726006615818</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1441,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1457,38 +1457,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D27">
-        <v>98.91220961766038</v>
+        <v>11.67507174164155</v>
       </c>
       <c r="E27">
-        <v>86.66666666666667</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F27">
-        <v>7.873493957221549</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H27">
-        <v>240.4523702415486</v>
+        <v>193.8972917416415</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1498,38 +1498,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D28">
-        <v>98.41864483952135</v>
+        <v>97.21324179051436</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F28">
-        <v>5.336962261893179</v>
+        <v>3.197646810303625</v>
       </c>
       <c r="G28">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>230.7556071014145</v>
+        <v>282.633108600818</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1543,34 +1543,34 @@
         </is>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>98.91220961766038</v>
       </c>
       <c r="E29">
-        <v>73.33333333333333</v>
+        <v>86.66667</v>
       </c>
       <c r="F29">
-        <v>1.14382492657479</v>
+        <v>7.873493957221549</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H29">
-        <v>174.4771582599081</v>
+        <v>240.4523735748819</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1580,38 +1580,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>98.41864483952135</v>
       </c>
       <c r="E30">
-        <v>73.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>5.546067577265227</v>
+        <v>5.336962261893179</v>
       </c>
       <c r="G30">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H30">
-        <v>234.8794009105986</v>
+        <v>230.7556071014145</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1621,23 +1621,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D31">
-        <v>97.31787937555582</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>68.88888888888889</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F31">
-        <v>10.63870711159244</v>
+        <v>1.14382492657479</v>
       </c>
       <c r="G31">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>221.8454753760371</v>
+        <v>174.4771549265748</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1666,34 +1666,34 @@
         </is>
       </c>
       <c r="D32">
-        <v>83.44649421443781</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>68.88888888888889</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F32">
-        <v>6.149398330290484</v>
+        <v>5.546067577265227</v>
       </c>
       <c r="G32">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H32">
-        <v>225.4847814336172</v>
+        <v>234.8793975772652</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1703,120 +1703,120 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D33">
-        <v>97.24629936242772</v>
+        <v>97.31787937555582</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>68.88889</v>
       </c>
       <c r="F33">
-        <v>14.70579254329286</v>
+        <v>10.63870711159244</v>
       </c>
       <c r="G33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>234.9520919057206</v>
+        <v>221.8454764871483</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D34">
-        <v>85.90748330098225</v>
+        <v>83.44649421443781</v>
       </c>
       <c r="E34">
-        <v>55.55555555555556</v>
+        <v>68.88889</v>
       </c>
       <c r="F34">
-        <v>1.165029295243797</v>
+        <v>6.149398330290484</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H34">
-        <v>204.6280681517816</v>
+        <v>225.4847825447283</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D35">
-        <v>90.28226492698596</v>
+        <v>97.24629936242772</v>
       </c>
       <c r="E35">
-        <v>73.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F35">
-        <v>0.5660235931038431</v>
+        <v>14.70579254329286</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>264.1816218534231</v>
+        <v>234.9520919057206</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1830,34 +1830,34 @@
         </is>
       </c>
       <c r="D36">
-        <v>89.03941451403804</v>
+        <v>85.90748330098225</v>
       </c>
       <c r="E36">
-        <v>60</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F36">
-        <v>0.07221228862418901</v>
+        <v>1.165029295243797</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>249.1116268026622</v>
+        <v>204.6280725962261</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>65.61004661283214</v>
+        <v>90.28226492698596</v>
       </c>
       <c r="E37">
-        <v>55.55555555555556</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F37">
-        <v>0.6445402629324878</v>
+        <v>0.5660235931038431</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37">
-        <v>221.8101424313202</v>
+        <v>264.1816185200898</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -1892,95 +1892,95 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Little Wenatchee River Lower 04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D38">
+        <v>89.03941451403804</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>0.07221228862418901</v>
+      </c>
+      <c r="G38">
         <v>100</v>
       </c>
-      <c r="E38">
-        <v>80</v>
-      </c>
-      <c r="F38">
-        <v>19.63727276714606</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
       <c r="H38">
-        <v>203.6372727671461</v>
+        <v>249.1116268026622</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D39">
-        <v>82.38008539503814</v>
+        <v>65.61004661283214</v>
       </c>
       <c r="E39">
-        <v>71.11111111111111</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F39">
-        <v>24.39708799192094</v>
+        <v>0.6445402629324878</v>
       </c>
       <c r="G39">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="H39">
-        <v>234.8882844980702</v>
+        <v>221.8101468757646</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1990,38 +1990,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D40">
-        <v>29.27753101162979</v>
+        <v>95.183526325915</v>
       </c>
       <c r="E40">
-        <v>82.22222222222221</v>
+        <v>71.11111</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>28.32126674627545</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H40">
-        <v>211.499753233852</v>
+        <v>219.6159030721904</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2031,32 +2031,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D41">
-        <v>28.99103782593232</v>
+        <v>100</v>
       </c>
       <c r="E41">
-        <v>91.11111111111111</v>
+        <v>80</v>
+      </c>
+      <c r="F41">
+        <v>19.63727276714606</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>203.637272767146</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Thompson 01</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2066,38 +2072,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E42">
-        <v>55.55555555555556</v>
+        <v>71.11111</v>
       </c>
       <c r="F42">
-        <v>46.75852342372073</v>
+        <v>24.39708799192094</v>
       </c>
       <c r="G42">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H42">
-        <v>229.3140789792763</v>
+        <v>234.8882833869591</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Thompson 02</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2107,38 +2113,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D43">
-        <v>96.57561407892462</v>
+        <v>29.27753101162979</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F43">
-        <v>59.51062208581162</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>260.0862361647363</v>
+        <v>211.4997510116298</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2148,38 +2154,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D44">
-        <v>72.5846543329274</v>
+        <v>28.99103782593232</v>
       </c>
       <c r="E44">
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <v>50.19452171975494</v>
+        <v>100</v>
       </c>
       <c r="G44">
-        <v>38</v>
-      </c>
-      <c r="H44">
-        <v>220.7791760526824</v>
+        <v>100</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Thompson 04</t>
+          <t>Methow River Thompson 01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2196,31 +2196,31 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F45">
-        <v>78.84520926726687</v>
+        <v>46.75852342372073</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H45">
-        <v>253.8452092672669</v>
+        <v>229.3140834237208</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Methow River Thompson 02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2234,19 +2234,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>96.95976797190397</v>
+        <v>96.57561407892462</v>
       </c>
       <c r="E46">
         <v>60</v>
       </c>
       <c r="F46">
-        <v>74.67701543385975</v>
+        <v>59.51062208581162</v>
       </c>
       <c r="G46">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>259.6367834057637</v>
+        <v>260.0862361647363</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -2255,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2275,34 +2275,34 @@
         </is>
       </c>
       <c r="D47">
-        <v>92.54450709719747</v>
+        <v>72.5846543329274</v>
       </c>
       <c r="E47">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="F47">
-        <v>79.30566085797605</v>
+        <v>50.19452171975494</v>
       </c>
       <c r="G47">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>260.4057235107291</v>
+        <v>220.7791760526824</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2319,31 +2319,31 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>71.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="F48">
-        <v>86.9102939314629</v>
+        <v>78.84520926726687</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>265.021405042574</v>
+        <v>253.8452092672669</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2357,34 +2357,34 @@
         </is>
       </c>
       <c r="D49">
-        <v>98.76178856325181</v>
+        <v>96.95976797190397</v>
       </c>
       <c r="E49">
-        <v>71.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="F49">
-        <v>61.76444491517135</v>
+        <v>74.67701543385975</v>
       </c>
       <c r="G49">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H49">
-        <v>252.6373445895343</v>
+        <v>259.6367834057637</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Thompson 09</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2398,19 +2398,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>90.85457663230511</v>
+        <v>92.54450709719747</v>
       </c>
       <c r="E50">
-        <v>66.66666666666666</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F50">
-        <v>74.54307817092519</v>
+        <v>79.30566085797605</v>
       </c>
       <c r="G50">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>275.064321469897</v>
+        <v>260.4057279551735</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2419,80 +2419,80 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D51">
-        <v>85.49378663891662</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>80</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F51">
-        <v>27.25067491631236</v>
+        <v>86.9102939314629</v>
       </c>
       <c r="G51">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>283.744461555229</v>
+        <v>267.2436239314629</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D52">
-        <v>60</v>
+        <v>98.76178856325181</v>
       </c>
       <c r="E52">
-        <v>88.88888888888889</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F52">
-        <v>13.28234674934646</v>
+        <v>61.76444491517135</v>
       </c>
       <c r="G52">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H52">
-        <v>195.1712356382353</v>
+        <v>254.8595634784232</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -2501,54 +2501,54 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D53">
-        <v>84.3515167253664</v>
+        <v>90.85457663230511</v>
       </c>
       <c r="E53">
-        <v>75.55555555555556</v>
+        <v>68.88889</v>
       </c>
       <c r="F53">
-        <v>25.21350326567888</v>
+        <v>74.54307817092519</v>
       </c>
       <c r="G53">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>217.1205755466008</v>
+        <v>277.2865448032303</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2562,34 +2562,34 @@
         </is>
       </c>
       <c r="D54">
-        <v>81.64245837892949</v>
+        <v>85.49378663891662</v>
       </c>
       <c r="E54">
-        <v>55.55555555555556</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F54">
-        <v>38.35381780479476</v>
+        <v>27.25067491631236</v>
       </c>
       <c r="G54">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="H54">
-        <v>244.5518317392798</v>
+        <v>285.966681555229</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2603,34 +2603,34 @@
         </is>
       </c>
       <c r="D55">
-        <v>70.58555725197336</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>53.33333333333334</v>
+        <v>88.88889</v>
       </c>
       <c r="F55">
-        <v>30.06777338013726</v>
+        <v>13.28234674934646</v>
       </c>
       <c r="G55">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>223.9866639654439</v>
+        <v>195.1712367493465</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2644,25 +2644,25 @@
         </is>
       </c>
       <c r="D56">
-        <v>41.40452926434025</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E56">
-        <v>55.55555555555556</v>
+        <v>77.77777999999999</v>
       </c>
       <c r="F56">
-        <v>30.38705152956334</v>
+        <v>25.21350326567888</v>
       </c>
       <c r="G56">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>218.3471363494591</v>
+        <v>219.3427999910453</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>40</v>
@@ -2671,7 +2671,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2685,34 +2685,34 @@
         </is>
       </c>
       <c r="D57">
-        <v>49.48033511287066</v>
+        <v>81.64245837892949</v>
       </c>
       <c r="E57">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="F57">
-        <v>13.46367942505994</v>
+        <v>38.35381780479476</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="H57">
-        <v>119.4995700934862</v>
+        <v>248.9962761837243</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2726,112 +2726,136 @@
         </is>
       </c>
       <c r="D58">
-        <v>47.10807995455942</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>53.33333</v>
+      </c>
+      <c r="F58">
+        <v>30.06777338013726</v>
       </c>
       <c r="G58">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="H58">
+        <v>223.9866606321106</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59">
-        <v>96.99902423868772</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E59">
-        <v>73.33333333333333</v>
+        <v>55.55556000000001</v>
+      </c>
+      <c r="F59">
+        <v>30.38705152956334</v>
       </c>
       <c r="G59">
-        <v>32</v>
+        <v>91</v>
+      </c>
+      <c r="H59">
+        <v>218.3471407939036</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D60">
-        <v>94.14263946738888</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E60">
-        <v>77.77777777777779</v>
+        <v>55.55556000000001</v>
+      </c>
+      <c r="F60">
+        <v>13.46367942505994</v>
       </c>
       <c r="G60">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>119.4995745379306</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D61">
-        <v>86.53386002555166</v>
+        <v>47.10807995455942</v>
       </c>
       <c r="E61">
-        <v>82.22222222222221</v>
+        <v>60</v>
       </c>
       <c r="G61">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -2840,218 +2864,194 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>96.99902423868772</v>
       </c>
       <c r="E62">
-        <v>75.55555555555556</v>
-      </c>
-      <c r="F62">
-        <v>8.128609896833083</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="G62">
-        <v>96</v>
-      </c>
-      <c r="H62">
-        <v>279.6841654523886</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D63">
-        <v>12.5825765710022</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E63">
-        <v>71.11111111111111</v>
-      </c>
-      <c r="F63">
-        <v>10.94662072144676</v>
+        <v>77.77777999999999</v>
       </c>
       <c r="G63">
-        <v>100</v>
-      </c>
-      <c r="H63">
-        <v>194.6403084035601</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D64">
-        <v>99.37559372771551</v>
+        <v>86.53386002555166</v>
       </c>
       <c r="E64">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F64">
-        <v>89.82364225104938</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="G64">
-        <v>49</v>
-      </c>
-      <c r="H64">
-        <v>293.7547915343205</v>
+        <v>100</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D65">
-        <v>80.64715622126087</v>
+        <v>100</v>
       </c>
       <c r="E65">
-        <v>55.55555555555556</v>
+        <v>75.55556</v>
       </c>
       <c r="F65">
-        <v>92.17671363265187</v>
+        <v>8.128609896833083</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="H65">
-        <v>234.3794254094683</v>
+        <v>279.6841698968331</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D66">
-        <v>87.50837494371574</v>
+        <v>12.5825765710022</v>
       </c>
       <c r="E66">
-        <v>55.55555555555556</v>
+        <v>71.11111100000001</v>
       </c>
       <c r="F66">
-        <v>89.25391353772524</v>
+        <v>10.94662072144676</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H66">
-        <v>237.3178440369965</v>
+        <v>194.640308292449</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3065,19 +3065,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>88.39597921741711</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E67">
-        <v>60</v>
+        <v>66.666667</v>
       </c>
       <c r="F67">
-        <v>92.03318408220582</v>
+        <v>89.82364225104938</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="H67">
-        <v>244.4291632996229</v>
+        <v>304.8659029787649</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3106,110 +3106,116 @@
         </is>
       </c>
       <c r="D68">
-        <v>86.02763875475596</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>66.666667</v>
       </c>
       <c r="F68">
-        <v>60.8972780777365</v>
+        <v>92.17671363265187</v>
       </c>
       <c r="G68">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>239.9249168324924</v>
+        <v>245.4905368539127</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D69">
-        <v>12.44070883508962</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E69">
-        <v>62.6617921420571</v>
+        <v>66.666667</v>
+      </c>
+      <c r="F69">
+        <v>89.25391353772524</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>248.428955481441</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D70">
-        <v>39.11139432932308</v>
+        <v>88.39597921741711</v>
       </c>
       <c r="E70">
-        <v>87.2302720070069</v>
+        <v>71.11111100000001</v>
+      </c>
+      <c r="F70">
+        <v>92.03318408220582</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>255.5402742996229</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Ninemile 16-1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3219,17 +3225,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D71">
-        <v>50.19589933065281</v>
+        <v>66.17416337596592</v>
       </c>
       <c r="E71">
-        <v>65.42803770568443</v>
+        <v>69.78993</v>
       </c>
       <c r="G71">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3238,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -3247,7 +3253,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Ninemile 16-2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3257,26 +3263,26 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D72">
-        <v>61.21972936706004</v>
+        <v>29.06850168380519</v>
       </c>
       <c r="E72">
-        <v>67.8840842271688</v>
+        <v>67.338526</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72">
         <v>71</v>
@@ -3285,7 +3291,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3299,22 +3305,22 @@
         </is>
       </c>
       <c r="D73">
-        <v>38.57403949197322</v>
+        <v>12.44070883508962</v>
       </c>
       <c r="E73">
-        <v>68.1008576206181</v>
+        <v>62.66179200000001</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L73">
         <v>72</v>
@@ -3323,7 +3329,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3337,22 +3343,22 @@
         </is>
       </c>
       <c r="D74">
-        <v>86.71407722197918</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E74">
-        <v>78.30164640163568</v>
+        <v>87.230272</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L74">
         <v>73</v>
@@ -3361,7 +3367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3375,13 +3381,13 @@
         </is>
       </c>
       <c r="D75">
-        <v>9.40098230509123</v>
+        <v>50.19589933065281</v>
       </c>
       <c r="E75">
-        <v>52.80329377860712</v>
+        <v>65.428038</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3390,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L75">
         <v>74</v>
@@ -3399,7 +3405,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3413,13 +3419,13 @@
         </is>
       </c>
       <c r="D76">
-        <v>17.98763439738011</v>
+        <v>61.21972936706004</v>
       </c>
       <c r="E76">
-        <v>69.88250208433527</v>
+        <v>67.884084</v>
       </c>
       <c r="G76">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3428,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>75</v>
@@ -3437,7 +3443,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3451,22 +3457,22 @@
         </is>
       </c>
       <c r="D77">
-        <v>68.77662469825343</v>
+        <v>38.57403949197322</v>
       </c>
       <c r="E77">
-        <v>78.92917935080432</v>
+        <v>68.100858</v>
       </c>
       <c r="G77">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L77">
         <v>76</v>
@@ -3475,7 +3481,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3485,26 +3491,26 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D78">
-        <v>93.12987408131754</v>
+        <v>86.71407722197918</v>
       </c>
       <c r="E78">
-        <v>51.2291200709168</v>
+        <v>78.30164600000001</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L78">
         <v>77</v>
@@ -3513,7 +3519,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3523,17 +3529,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E79">
-        <v>50.33511462569658</v>
+        <v>52.803294</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L79">
         <v>78</v>
@@ -3551,7 +3557,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3561,26 +3567,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D80">
-        <v>35.02680379350559</v>
+        <v>17.98763439738011</v>
       </c>
       <c r="E80">
-        <v>62.92740558041172</v>
+        <v>69.882502</v>
       </c>
       <c r="G80">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>2</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>4</v>
       </c>
       <c r="L80">
         <v>79</v>
@@ -3589,7 +3595,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3599,26 +3605,26 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D81">
-        <v>21.87768683751509</v>
+        <v>68.77662469825343</v>
       </c>
       <c r="E81">
-        <v>100</v>
+        <v>78.92917900000001</v>
       </c>
       <c r="G81">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L81">
         <v>80</v>
@@ -3627,30 +3633,36 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D82">
-        <v>55.35278697152805</v>
+        <v>93.12987408131754</v>
       </c>
       <c r="E82">
-        <v>55.55555555555556</v>
+        <v>51.22912</v>
       </c>
       <c r="G82">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
       </c>
       <c r="J82">
         <v>0</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
       </c>
       <c r="L82">
         <v>81</v>
@@ -3659,30 +3671,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D83">
-        <v>39.88903924834695</v>
+        <v>100</v>
       </c>
       <c r="E83">
-        <v>51.11111111111111</v>
+        <v>50.335115</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
       </c>
       <c r="L83">
         <v>82</v>
@@ -3691,30 +3709,36 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D84">
-        <v>72.65933763461709</v>
+        <v>35.02680379350559</v>
       </c>
       <c r="E84">
-        <v>53.33333333333334</v>
+        <v>62.927406</v>
       </c>
       <c r="G84">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
       </c>
       <c r="J84">
         <v>0</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
       </c>
       <c r="L84">
         <v>83</v>
@@ -3723,30 +3747,36 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D85">
-        <v>88.38500784340779</v>
+        <v>21.87768683751509</v>
       </c>
       <c r="E85">
-        <v>51.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="G85">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
       </c>
       <c r="L85">
         <v>84</v>
@@ -3755,7 +3785,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3765,17 +3795,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D86">
-        <v>49.09931794304519</v>
+        <v>55.35278697152805</v>
       </c>
       <c r="E86">
-        <v>62.22222222222222</v>
+        <v>55.555556</v>
       </c>
       <c r="G86">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3787,7 +3817,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3797,23 +3827,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D87">
-        <v>91.80999745138692</v>
+        <v>39.88903924834695</v>
       </c>
       <c r="E87">
-        <v>62.22222222222222</v>
+        <v>51.111111</v>
       </c>
       <c r="G87">
-        <v>100</v>
-      </c>
-      <c r="I87">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>86</v>
@@ -3822,7 +3849,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3832,23 +3859,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>72.65933763461709</v>
       </c>
       <c r="E88">
-        <v>62.22222222222222</v>
+        <v>57.77777800000001</v>
       </c>
       <c r="G88">
-        <v>100</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>87</v>
@@ -3857,7 +3881,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3867,23 +3891,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D89">
-        <v>42.6890552310836</v>
+        <v>88.38500784340779</v>
       </c>
       <c r="E89">
-        <v>66.66666666666666</v>
+        <v>51.111111</v>
       </c>
       <c r="G89">
-        <v>100</v>
-      </c>
-      <c r="I89">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>88</v>
@@ -3892,7 +3913,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3906,19 +3927,16 @@
         </is>
       </c>
       <c r="D90">
-        <v>37.48068068716065</v>
+        <v>49.09931794304519</v>
       </c>
       <c r="E90">
-        <v>66.66666666666666</v>
+        <v>62.222222</v>
       </c>
       <c r="G90">
-        <v>100</v>
-      </c>
-      <c r="I90">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>89</v>
@@ -3927,7 +3945,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Upper 01</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3937,14 +3955,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D91">
-        <v>53.2313104822968</v>
+        <v>91.80999745138692</v>
       </c>
       <c r="E91">
-        <v>66.66666666666666</v>
+        <v>62.222222</v>
       </c>
       <c r="G91">
         <v>100</v>
@@ -3962,7 +3980,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Twisp River Upper 02</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3972,14 +3990,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D92">
-        <v>97.29535372792989</v>
+        <v>100</v>
       </c>
       <c r="E92">
-        <v>82.22222222222221</v>
+        <v>62.222222</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -3997,7 +4015,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Twisp River Upper 03</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4007,14 +4025,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D93">
-        <v>71.69696234224107</v>
+        <v>42.6890552310836</v>
       </c>
       <c r="E93">
-        <v>82.22222222222221</v>
+        <v>66.666667</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -4027,6 +4045,111 @@
       </c>
       <c r="L93">
         <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 08</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>37.48068068716065</v>
+      </c>
+      <c r="E94">
+        <v>66.666667</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Twisp River Upper 02</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Upper Twisp River</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>97.29535372792989</v>
+      </c>
+      <c r="E95">
+        <v>82.22222000000001</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Twisp River Upper 03</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Upper Twisp River</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>71.69696234224107</v>
+      </c>
+      <c r="E96">
+        <v>82.22222000000001</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -972,7 +972,7 @@
         <v>84.35796761868576</v>
       </c>
       <c r="E15">
-        <v>64.44444</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F15">
         <v>15.08775462109912</v>
@@ -981,7 +981,7 @@
         <v>29</v>
       </c>
       <c r="H15">
-        <v>192.8901622397849</v>
+        <v>184.0012822397849</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E16">
-        <v>55.55556000000001</v>
+        <v>57.77778</v>
       </c>
       <c r="F16">
-        <v>37.12562754930836</v>
+        <v>0.5508173424905437</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="H16">
-        <v>153.6811875493084</v>
+        <v>175.5263177993437</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1051,34 +1051,34 @@
         </is>
       </c>
       <c r="D17">
-        <v>32.1977204568532</v>
+        <v>31.28770204495832</v>
       </c>
       <c r="E17">
-        <v>66.66667</v>
+        <v>51.11111</v>
       </c>
       <c r="F17">
-        <v>0.5508173424905437</v>
+        <v>1.115868659286246</v>
       </c>
       <c r="G17">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>184.4152077993437</v>
+        <v>183.5146807042446</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1092,19 +1092,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>31.28770204495832</v>
+        <v>59.40114855246741</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>57.77778</v>
       </c>
       <c r="F18">
-        <v>1.115868659286246</v>
+        <v>3.364744106188359</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>192.4035707042446</v>
+        <v>220.5436726586558</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1113,13 +1113,13 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 05</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1133,19 +1133,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>11.93596293888412</v>
+        <v>17.25110079134537</v>
       </c>
       <c r="E19">
-        <v>51.11111</v>
+        <v>64.44444</v>
       </c>
       <c r="F19">
-        <v>0.7050532708779511</v>
+        <v>0.07753013421156983</v>
       </c>
       <c r="G19">
         <v>100</v>
       </c>
       <c r="H19">
-        <v>163.7521262097621</v>
+        <v>181.7730709255569</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1154,80 +1154,80 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D20">
-        <v>59.40114855246741</v>
+        <v>84.29416294333068</v>
       </c>
       <c r="E20">
-        <v>66.66667</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>3.364744106188359</v>
+        <v>5.690506474479204</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H20">
-        <v>229.4325626586558</v>
+        <v>244.9846694178099</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D21">
-        <v>17.25110079134537</v>
+        <v>74.02921541005696</v>
       </c>
       <c r="E21">
-        <v>64.44444</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>0.07753013421156983</v>
+        <v>11.49343000490987</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>181.7730709255569</v>
+        <v>245.5226454149668</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1256,34 +1256,34 @@
         </is>
       </c>
       <c r="D22">
-        <v>84.29416294333068</v>
+        <v>63.71807967313585</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>88.88889</v>
       </c>
       <c r="F22">
-        <v>5.690506474479204</v>
+        <v>22.84510983776991</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>244.9846694178099</v>
+        <v>275.4520795109058</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1297,19 +1297,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>74.02921541005696</v>
+        <v>67.13441483580915</v>
       </c>
       <c r="E23">
-        <v>60</v>
+        <v>71.11111</v>
       </c>
       <c r="F23">
-        <v>11.49343000490987</v>
+        <v>8.119335801906416</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
-        <v>245.5226454149668</v>
+        <v>246.3648606377156</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1318,13 +1318,13 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1338,19 +1338,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>63.71807967313585</v>
+        <v>57.79778914955362</v>
       </c>
       <c r="E24">
         <v>88.88889</v>
       </c>
       <c r="F24">
-        <v>22.84510983776991</v>
+        <v>4.68592151202821</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24">
-        <v>275.4520795109058</v>
+        <v>251.3726006615818</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1359,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>67.13441483580915</v>
+        <v>11.67507174164155</v>
       </c>
       <c r="E25">
-        <v>71.11111</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F25">
-        <v>8.119335801906416</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>246.3648606377156</v>
+        <v>193.8972917416415</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1400,13 +1400,13 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>57.79778914955362</v>
+        <v>97.21324179051436</v>
       </c>
       <c r="E26">
-        <v>88.88889</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F26">
-        <v>4.68592151202821</v>
+        <v>3.197646810303625</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>251.3726006615818</v>
+        <v>282.633108600818</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1441,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1457,38 +1457,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D27">
-        <v>11.67507174164155</v>
+        <v>98.91220961766038</v>
       </c>
       <c r="E27">
-        <v>82.22222000000001</v>
+        <v>86.66667</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7.873493957221549</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>193.8972917416415</v>
+        <v>240.4523735748819</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1498,38 +1498,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D28">
-        <v>97.21324179051436</v>
+        <v>98.41864483952135</v>
       </c>
       <c r="E28">
-        <v>82.22222000000001</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>3.197646810303625</v>
+        <v>5.336962261893179</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>282.633108600818</v>
+        <v>230.7556071014145</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1543,34 +1543,34 @@
         </is>
       </c>
       <c r="D29">
-        <v>98.91220961766038</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>86.66667</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F29">
-        <v>7.873493957221549</v>
+        <v>1.14382492657479</v>
       </c>
       <c r="G29">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>240.4523735748819</v>
+        <v>174.4771549265748</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1580,26 +1580,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D30">
-        <v>98.41864483952135</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F30">
-        <v>5.336962261893179</v>
+        <v>5.546067577265227</v>
       </c>
       <c r="G30">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H30">
-        <v>230.7556071014145</v>
+        <v>234.8793975772652</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1621,23 +1621,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>97.31787937555582</v>
       </c>
       <c r="E31">
-        <v>73.33332999999999</v>
+        <v>68.88889</v>
       </c>
       <c r="F31">
-        <v>1.14382492657479</v>
+        <v>10.63870711159244</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>174.4771549265748</v>
+        <v>221.8454764871483</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1666,34 +1666,34 @@
         </is>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>83.44649421443781</v>
       </c>
       <c r="E32">
-        <v>73.33332999999999</v>
+        <v>68.88889</v>
       </c>
       <c r="F32">
-        <v>5.546067577265227</v>
+        <v>6.149398330290484</v>
       </c>
       <c r="G32">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H32">
-        <v>234.8793975772652</v>
+        <v>225.4847825447283</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1703,120 +1703,120 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D33">
-        <v>97.31787937555582</v>
+        <v>97.24629936242772</v>
       </c>
       <c r="E33">
-        <v>68.88889</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>10.63870711159244</v>
+        <v>14.70579254329286</v>
       </c>
       <c r="G33">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>221.8454764871483</v>
+        <v>234.9520919057206</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D34">
-        <v>83.44649421443781</v>
+        <v>85.90748330098225</v>
       </c>
       <c r="E34">
-        <v>68.88889</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F34">
-        <v>6.149398330290484</v>
+        <v>1.165029295243797</v>
       </c>
       <c r="G34">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H34">
-        <v>225.4847825447283</v>
+        <v>204.6280725962261</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D35">
-        <v>97.24629936242772</v>
+        <v>90.28226492698596</v>
       </c>
       <c r="E35">
-        <v>80</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F35">
-        <v>14.70579254329286</v>
+        <v>0.5660235931038431</v>
       </c>
       <c r="G35">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H35">
-        <v>234.9520919057206</v>
+        <v>264.1816185200898</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Little Wenatchee River Lower 04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1830,34 +1830,34 @@
         </is>
       </c>
       <c r="D36">
-        <v>85.90748330098225</v>
+        <v>89.03941451403804</v>
       </c>
       <c r="E36">
-        <v>55.55556000000001</v>
+        <v>60</v>
       </c>
       <c r="F36">
-        <v>1.165029295243797</v>
+        <v>0.07221228862418901</v>
       </c>
       <c r="G36">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>204.6280725962261</v>
+        <v>249.1116268026622</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>90.28226492698596</v>
+        <v>65.61004661283214</v>
       </c>
       <c r="E37">
-        <v>73.33332999999999</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F37">
-        <v>0.5660235931038431</v>
+        <v>0.6445402629324878</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37">
-        <v>264.1816185200898</v>
+        <v>221.8101468757646</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -1892,95 +1892,95 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D38">
-        <v>89.03941451403804</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>0.07221228862418901</v>
+        <v>19.63727276714606</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>249.1116268026622</v>
+        <v>203.637272767146</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D39">
-        <v>65.61004661283214</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E39">
-        <v>55.55556000000001</v>
+        <v>71.11111</v>
       </c>
       <c r="F39">
-        <v>0.6445402629324878</v>
+        <v>24.39708799192094</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H39">
-        <v>221.8101468757646</v>
+        <v>234.8882833869591</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1990,38 +1990,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D40">
-        <v>95.183526325915</v>
+        <v>29.27753101162979</v>
       </c>
       <c r="E40">
-        <v>71.11111</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F40">
-        <v>28.32126674627545</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H40">
-        <v>219.6159030721904</v>
+        <v>211.4997510116298</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2031,38 +2031,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D41">
+        <v>28.99103782593232</v>
+      </c>
+      <c r="E41">
+        <v>91.11111</v>
+      </c>
+      <c r="G41">
         <v>100</v>
       </c>
-      <c r="E41">
-        <v>80</v>
-      </c>
-      <c r="F41">
-        <v>19.63727276714606</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>203.637272767146</v>
-      </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Thompson 01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2072,38 +2066,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D42">
-        <v>82.38008539503814</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>71.11111</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F42">
-        <v>24.39708799192094</v>
+        <v>46.75852342372073</v>
       </c>
       <c r="G42">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H42">
-        <v>234.8882833869591</v>
+        <v>229.3140834237208</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Thompson 02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2113,38 +2107,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D43">
-        <v>29.27753101162979</v>
+        <v>96.57561407892462</v>
       </c>
       <c r="E43">
-        <v>82.22222000000001</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>59.51062208581162</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>211.4997510116298</v>
+        <v>260.0862361647363</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2154,32 +2148,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D44">
-        <v>28.99103782593232</v>
+        <v>72.5846543329274</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>50.19452171975494</v>
       </c>
       <c r="G44">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <v>220.7791760526824</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Thompson 01</t>
+          <t>Methow River Thompson 04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2196,16 +2196,16 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>55.55556000000001</v>
+        <v>60</v>
       </c>
       <c r="F45">
-        <v>46.75852342372073</v>
+        <v>78.84520926726687</v>
       </c>
       <c r="G45">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>229.3140834237208</v>
+        <v>253.8452092672669</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Thompson 02</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2234,19 +2234,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>96.57561407892462</v>
+        <v>96.95976797190397</v>
       </c>
       <c r="E46">
         <v>60</v>
       </c>
       <c r="F46">
-        <v>59.51062208581162</v>
+        <v>74.67701543385975</v>
       </c>
       <c r="G46">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>260.0862361647363</v>
+        <v>259.6367834057637</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -2255,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2275,34 +2275,34 @@
         </is>
       </c>
       <c r="D47">
-        <v>72.5846543329274</v>
+        <v>92.54450709719747</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F47">
-        <v>50.19452171975494</v>
+        <v>79.30566085797605</v>
       </c>
       <c r="G47">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>220.7791760526824</v>
+        <v>260.4057279551735</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Thompson 04</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2319,31 +2319,31 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>60</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F48">
-        <v>78.84520926726687</v>
+        <v>86.9102939314629</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>253.8452092672669</v>
+        <v>267.2436239314629</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2357,19 +2357,19 @@
         </is>
       </c>
       <c r="D49">
-        <v>96.95976797190397</v>
+        <v>98.76178856325181</v>
       </c>
       <c r="E49">
-        <v>60</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="F49">
-        <v>74.67701543385975</v>
+        <v>61.76444491517135</v>
       </c>
       <c r="G49">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H49">
-        <v>259.6367834057637</v>
+        <v>254.8595634784232</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2398,19 +2398,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>92.54450709719747</v>
+        <v>90.85457663230511</v>
       </c>
       <c r="E50">
-        <v>55.55556000000001</v>
+        <v>68.88889</v>
       </c>
       <c r="F50">
-        <v>79.30566085797605</v>
+        <v>74.54307817092519</v>
       </c>
       <c r="G50">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>260.4057279551735</v>
+        <v>277.2865448032303</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2419,80 +2419,80 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>85.49378663891662</v>
       </c>
       <c r="E51">
-        <v>73.33332999999999</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="F51">
-        <v>86.9102939314629</v>
+        <v>27.25067491631236</v>
       </c>
       <c r="G51">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="H51">
-        <v>267.2436239314629</v>
+        <v>285.966681555229</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D52">
-        <v>98.76178856325181</v>
+        <v>60</v>
       </c>
       <c r="E52">
-        <v>73.33332999999999</v>
+        <v>88.88889</v>
       </c>
       <c r="F52">
-        <v>61.76444491517135</v>
+        <v>13.28234674934646</v>
       </c>
       <c r="G52">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>254.8595634784232</v>
+        <v>195.1712367493465</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -2501,54 +2501,54 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Thompson 09</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D53">
-        <v>90.85457663230511</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E53">
-        <v>68.88889</v>
+        <v>77.77777999999999</v>
       </c>
       <c r="F53">
-        <v>74.54307817092519</v>
+        <v>25.21350326567888</v>
       </c>
       <c r="G53">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>277.2865448032303</v>
+        <v>219.3427999910453</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2562,34 +2562,34 @@
         </is>
       </c>
       <c r="D54">
-        <v>85.49378663891662</v>
+        <v>81.64245837892949</v>
       </c>
       <c r="E54">
-        <v>82.22222000000001</v>
+        <v>60</v>
       </c>
       <c r="F54">
-        <v>27.25067491631236</v>
+        <v>38.35381780479476</v>
       </c>
       <c r="G54">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H54">
-        <v>285.966681555229</v>
+        <v>248.9962761837243</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2603,34 +2603,34 @@
         </is>
       </c>
       <c r="D55">
-        <v>60</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E55">
-        <v>88.88889</v>
+        <v>53.33333</v>
       </c>
       <c r="F55">
-        <v>13.28234674934646</v>
+        <v>30.06777338013726</v>
       </c>
       <c r="G55">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H55">
-        <v>195.1712367493465</v>
+        <v>223.9866606321106</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2644,34 +2644,34 @@
         </is>
       </c>
       <c r="D56">
-        <v>84.3515167253664</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E56">
-        <v>77.77777999999999</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F56">
-        <v>25.21350326567888</v>
+        <v>30.38705152956334</v>
       </c>
       <c r="G56">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H56">
-        <v>219.3427999910453</v>
+        <v>218.3471407939036</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2685,34 +2685,34 @@
         </is>
       </c>
       <c r="D57">
-        <v>81.64245837892949</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E57">
-        <v>60</v>
+        <v>55.55556000000001</v>
       </c>
       <c r="F57">
-        <v>38.35381780479476</v>
+        <v>13.46367942505994</v>
       </c>
       <c r="G57">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>248.9962761837243</v>
+        <v>119.4995745379306</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2726,136 +2726,112 @@
         </is>
       </c>
       <c r="D58">
-        <v>70.58555725197336</v>
+        <v>47.10807995455942</v>
       </c>
       <c r="E58">
-        <v>53.33333</v>
-      </c>
-      <c r="F58">
-        <v>30.06777338013726</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>70</v>
-      </c>
-      <c r="H58">
-        <v>223.9866606321106</v>
+        <v>92</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D59">
-        <v>41.40452926434025</v>
+        <v>96.99902423868772</v>
       </c>
       <c r="E59">
-        <v>55.55556000000001</v>
-      </c>
-      <c r="F59">
-        <v>30.38705152956334</v>
+        <v>73.33332999999999</v>
       </c>
       <c r="G59">
-        <v>91</v>
-      </c>
-      <c r="H59">
-        <v>218.3471407939036</v>
-      </c>
-      <c r="I59">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D60">
-        <v>49.48033511287066</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E60">
-        <v>55.55556000000001</v>
-      </c>
-      <c r="F60">
-        <v>13.46367942505994</v>
+        <v>77.77777999999999</v>
       </c>
       <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>119.4995745379306</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D61">
-        <v>47.10807995455942</v>
+        <v>86.53386002555166</v>
       </c>
       <c r="E61">
-        <v>60</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="G61">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -2864,194 +2840,218 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D62">
-        <v>96.99902423868772</v>
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>73.33332999999999</v>
+        <v>75.55556</v>
+      </c>
+      <c r="F62">
+        <v>8.128609896833083</v>
       </c>
       <c r="G62">
-        <v>32</v>
+        <v>96</v>
+      </c>
+      <c r="H62">
+        <v>279.6841698968331</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D63">
-        <v>94.14263946738888</v>
+        <v>12.5825765710022</v>
       </c>
       <c r="E63">
-        <v>77.77777999999999</v>
+        <v>71.11111100000001</v>
+      </c>
+      <c r="F63">
+        <v>10.94662072144676</v>
       </c>
       <c r="G63">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>194.640308292449</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D64">
-        <v>86.53386002555166</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E64">
-        <v>82.22222000000001</v>
+        <v>57.77777800000001</v>
+      </c>
+      <c r="F64">
+        <v>89.82364225104938</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="H64">
+        <v>295.9770139787649</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D65">
-        <v>100</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E65">
-        <v>75.55556</v>
+        <v>57.77777800000001</v>
       </c>
       <c r="F65">
-        <v>8.128609896833083</v>
+        <v>92.17671363265187</v>
       </c>
       <c r="G65">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>279.6841698968331</v>
+        <v>236.6016478539127</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D66">
-        <v>12.5825765710022</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E66">
-        <v>71.11111100000001</v>
+        <v>57.77777800000001</v>
       </c>
       <c r="F66">
-        <v>10.94662072144676</v>
+        <v>89.25391353772524</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>194.640308292449</v>
+        <v>239.540066481441</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3065,19 +3065,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>99.37559372771551</v>
+        <v>88.39597921741711</v>
       </c>
       <c r="E67">
-        <v>66.666667</v>
+        <v>62.222222</v>
       </c>
       <c r="F67">
-        <v>89.82364225104938</v>
+        <v>92.03318408220582</v>
       </c>
       <c r="G67">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>304.8659029787649</v>
+        <v>246.6513852996229</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="D68">
-        <v>80.64715622126087</v>
+        <v>86.02763875475596</v>
       </c>
       <c r="E68">
-        <v>66.666667</v>
+        <v>62.222222</v>
       </c>
       <c r="F68">
-        <v>92.17671363265187</v>
+        <v>60.8972780777365</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>245.4905368539127</v>
+        <v>242.1471388324925</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3133,89 +3133,83 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Ninemile 16-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D69">
-        <v>87.50837494371574</v>
+        <v>66.17416337596592</v>
       </c>
       <c r="E69">
-        <v>66.666667</v>
-      </c>
-      <c r="F69">
-        <v>89.25391353772524</v>
+        <v>69.78993</v>
       </c>
       <c r="G69">
-        <v>5</v>
-      </c>
-      <c r="H69">
-        <v>248.428955481441</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
       <c r="L69">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Ninemile 16-2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Ninemile Creek DS</t>
         </is>
       </c>
       <c r="D70">
-        <v>88.39597921741711</v>
+        <v>29.06850168380519</v>
       </c>
       <c r="E70">
-        <v>71.11111100000001</v>
-      </c>
-      <c r="F70">
-        <v>92.03318408220582</v>
+        <v>67.338526</v>
       </c>
       <c r="G70">
-        <v>4</v>
-      </c>
-      <c r="H70">
-        <v>255.5402742996229</v>
+        <v>84</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
       <c r="L70">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ninemile 16-1</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3225,26 +3219,26 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ninemile Creek DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D71">
-        <v>66.17416337596592</v>
+        <v>12.44070883508962</v>
       </c>
       <c r="E71">
-        <v>69.78993</v>
+        <v>62.66179200000001</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -3253,7 +3247,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ninemile 16-2</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3263,26 +3257,26 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ninemile Creek DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D72">
-        <v>29.06850168380519</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E72">
-        <v>67.338526</v>
+        <v>87.230272</v>
       </c>
       <c r="G72">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L72">
         <v>71</v>
@@ -3291,7 +3285,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3305,22 +3299,22 @@
         </is>
       </c>
       <c r="D73">
-        <v>12.44070883508962</v>
+        <v>50.19589933065281</v>
       </c>
       <c r="E73">
-        <v>62.66179200000001</v>
+        <v>65.428038</v>
       </c>
       <c r="G73">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L73">
         <v>72</v>
@@ -3329,7 +3323,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3343,22 +3337,22 @@
         </is>
       </c>
       <c r="D74">
-        <v>39.11139432932308</v>
+        <v>61.21972936706004</v>
       </c>
       <c r="E74">
-        <v>87.230272</v>
+        <v>67.884084</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>3</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>73</v>
@@ -3367,7 +3361,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3381,13 +3375,13 @@
         </is>
       </c>
       <c r="D75">
-        <v>50.19589933065281</v>
+        <v>38.57403949197322</v>
       </c>
       <c r="E75">
-        <v>65.428038</v>
+        <v>68.100858</v>
       </c>
       <c r="G75">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3396,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L75">
         <v>74</v>
@@ -3405,7 +3399,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3419,22 +3413,22 @@
         </is>
       </c>
       <c r="D76">
-        <v>61.21972936706004</v>
+        <v>86.71407722197918</v>
       </c>
       <c r="E76">
-        <v>67.884084</v>
+        <v>78.30164600000001</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
         <v>75</v>
@@ -3443,7 +3437,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3457,13 +3451,13 @@
         </is>
       </c>
       <c r="D77">
-        <v>38.57403949197322</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E77">
-        <v>68.100858</v>
+        <v>52.803294</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -3472,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L77">
         <v>76</v>
@@ -3481,7 +3475,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3495,22 +3489,22 @@
         </is>
       </c>
       <c r="D78">
-        <v>86.71407722197918</v>
+        <v>17.98763439738011</v>
       </c>
       <c r="E78">
-        <v>78.30164600000001</v>
+        <v>69.882502</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <v>2</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>5</v>
       </c>
       <c r="L78">
         <v>77</v>
@@ -3519,7 +3513,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3533,22 +3527,22 @@
         </is>
       </c>
       <c r="D79">
-        <v>9.40098230509123</v>
+        <v>68.77662469825343</v>
       </c>
       <c r="E79">
-        <v>52.803294</v>
+        <v>78.92917900000001</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L79">
         <v>78</v>
@@ -3557,7 +3551,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3567,17 +3561,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D80">
-        <v>17.98763439738011</v>
+        <v>93.12987408131754</v>
       </c>
       <c r="E80">
-        <v>69.882502</v>
+        <v>51.22912</v>
       </c>
       <c r="G80">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -3586,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L80">
         <v>79</v>
@@ -3595,7 +3589,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3605,26 +3599,26 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D81">
-        <v>68.77662469825343</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>78.92917900000001</v>
+        <v>50.335115</v>
       </c>
       <c r="G81">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L81">
         <v>80</v>
@@ -3633,7 +3627,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3647,22 +3641,22 @@
         </is>
       </c>
       <c r="D82">
-        <v>93.12987408131754</v>
+        <v>35.02680379350559</v>
       </c>
       <c r="E82">
-        <v>51.22912</v>
+        <v>62.927406</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L82">
         <v>81</v>
@@ -3671,7 +3665,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3681,17 +3675,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="D83">
+        <v>21.87768683751509</v>
+      </c>
+      <c r="E83">
         <v>100</v>
       </c>
-      <c r="E83">
-        <v>50.335115</v>
-      </c>
       <c r="G83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3700,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>82</v>
@@ -3709,36 +3703,30 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D84">
-        <v>35.02680379350559</v>
+        <v>55.35278697152805</v>
       </c>
       <c r="E84">
-        <v>62.927406</v>
+        <v>55.555556</v>
       </c>
       <c r="G84">
-        <v>37</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J84">
         <v>0</v>
-      </c>
-      <c r="K84">
-        <v>4</v>
       </c>
       <c r="L84">
         <v>83</v>
@@ -3747,36 +3735,30 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D85">
-        <v>21.87768683751509</v>
+        <v>39.88903924834695</v>
       </c>
       <c r="E85">
-        <v>100</v>
+        <v>51.111111</v>
       </c>
       <c r="G85">
-        <v>8</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J85">
         <v>0</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
       </c>
       <c r="L85">
         <v>84</v>
@@ -3785,7 +3767,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3799,13 +3781,13 @@
         </is>
       </c>
       <c r="D86">
-        <v>55.35278697152805</v>
+        <v>72.65933763461709</v>
       </c>
       <c r="E86">
-        <v>55.555556</v>
+        <v>53.333333</v>
       </c>
       <c r="G86">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3817,7 +3799,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3831,13 +3813,13 @@
         </is>
       </c>
       <c r="D87">
-        <v>39.88903924834695</v>
+        <v>88.38500784340779</v>
       </c>
       <c r="E87">
         <v>51.111111</v>
       </c>
       <c r="G87">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3849,7 +3831,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3859,17 +3841,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D88">
-        <v>72.65933763461709</v>
+        <v>49.09931794304519</v>
       </c>
       <c r="E88">
-        <v>57.77777800000001</v>
+        <v>62.222222</v>
       </c>
       <c r="G88">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -3881,7 +3863,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3891,20 +3873,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D89">
-        <v>88.38500784340779</v>
+        <v>91.80999745138692</v>
       </c>
       <c r="E89">
-        <v>51.111111</v>
+        <v>62.222222</v>
       </c>
       <c r="G89">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>88</v>
@@ -3913,7 +3898,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3927,16 +3912,19 @@
         </is>
       </c>
       <c r="D90">
-        <v>49.09931794304519</v>
+        <v>100</v>
       </c>
       <c r="E90">
         <v>62.222222</v>
       </c>
       <c r="G90">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>89</v>
@@ -3945,7 +3933,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3959,10 +3947,10 @@
         </is>
       </c>
       <c r="D91">
-        <v>91.80999745138692</v>
+        <v>42.6890552310836</v>
       </c>
       <c r="E91">
-        <v>62.222222</v>
+        <v>66.666667</v>
       </c>
       <c r="G91">
         <v>100</v>
@@ -3980,7 +3968,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3994,10 +3982,10 @@
         </is>
       </c>
       <c r="D92">
-        <v>100</v>
+        <v>37.48068068716065</v>
       </c>
       <c r="E92">
-        <v>62.222222</v>
+        <v>66.666667</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -4015,7 +4003,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4025,14 +4013,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D93">
-        <v>42.6890552310836</v>
+        <v>53.2313104822968</v>
       </c>
       <c r="E93">
-        <v>66.666667</v>
+        <v>66.66667</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -4050,7 +4038,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Upper 02</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4060,14 +4048,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D94">
-        <v>37.48068068716065</v>
+        <v>97.29535372792989</v>
       </c>
       <c r="E94">
-        <v>66.666667</v>
+        <v>82.22222000000001</v>
       </c>
       <c r="G94">
         <v>100</v>
@@ -4085,7 +4073,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Twisp River Upper 02</t>
+          <t>Twisp River Upper 03</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4099,7 +4087,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>97.29535372792989</v>
+        <v>71.69696234224107</v>
       </c>
       <c r="E95">
         <v>82.22222000000001</v>
@@ -4115,41 +4103,6 @@
       </c>
       <c r="L95">
         <v>94</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Twisp River Upper 03</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Upper Twisp River</t>
-        </is>
-      </c>
-      <c r="D96">
-        <v>71.69696234224107</v>
-      </c>
-      <c r="E96">
-        <v>82.22222000000001</v>
-      </c>
-      <c r="G96">
-        <v>100</v>
-      </c>
-      <c r="I96">
-        <v>3</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Habitat_Quality_Percent</t>
   </si>
   <si>
+    <t xml:space="preserve">Life_Stage_Habitat_Degradation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Threats_Percent</t>
   </si>
   <si>
@@ -50,12 +53,27 @@
     <t xml:space="preserve">Rank_Across_All_Reaches</t>
   </si>
   <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Doe 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River-Doe Creek</t>
   </si>
   <si>
@@ -98,12 +116,24 @@
     <t xml:space="preserve">Chewuch River Pearrygin 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiwawa River Lower 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower Chiwawa River</t>
   </si>
   <si>
@@ -143,9 +173,30 @@
     <t xml:space="preserve">Entiat River Lake 08</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Mills 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 06</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -179,6 +230,21 @@
     <t xml:space="preserve">Methow River-Fawn Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Wenatchee River Lower 02</t>
   </si>
   <si>
@@ -251,9 +317,96 @@
     <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Nason Creek Lower 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
   </si>
   <si>
+    <t xml:space="preserve">Ninemile 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Lower 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twisp River Middle 01</t>
   </si>
   <si>
@@ -263,139 +416,85 @@
     <t xml:space="preserve">Twisp River Middle 02</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Middle 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twisp River Middle 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Middle 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Derby 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Tumwater Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Nahahum 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Nahahum Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Nahahum 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
     <t xml:space="preserve">Lower White River</t>
   </si>
   <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Lower 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
 </sst>
 </file>
@@ -764,2319 +863,2517 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>95.5495880146652</v>
+        <v>46.6465444297908</v>
       </c>
       <c r="E2" t="n">
-        <v>71.11111</v>
+        <v>57.777778</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G2"/>
       <c r="H2" t="n">
-        <v>266.660698014665</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>98.1370600401239</v>
+        <v>12.5825765710022</v>
       </c>
       <c r="E3" t="n">
-        <v>73.33333</v>
+        <v>71.111111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>10.9466207214468</v>
       </c>
       <c r="H3" t="n">
-        <v>271.470390040124</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>194.640308292449</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>70.931073843182</v>
+        <v>95.5495880146652</v>
       </c>
       <c r="E4" t="n">
-        <v>68.88889</v>
+        <v>71.11111</v>
       </c>
       <c r="F4" t="n">
-        <v>45.2049303137455</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>197.024894156928</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>266.660698014665</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="n">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>79.1672471919955</v>
+        <v>98.1370600401239</v>
       </c>
       <c r="E5" t="n">
-        <v>68.88889</v>
+        <v>73.33333</v>
       </c>
       <c r="F5" t="n">
-        <v>20.8672740414653</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.923411233461</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>271.470390040124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>95.81184510461</v>
+        <v>70.931073843182</v>
       </c>
       <c r="E6" t="n">
-        <v>62.22222</v>
+        <v>68.88889</v>
       </c>
       <c r="F6" t="n">
-        <v>12.5847626120527</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
+        <v>45.2049303137455</v>
       </c>
       <c r="H6" t="n">
-        <v>201.618827716663</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>222.024894156928</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="n">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>90.2842007147304</v>
+        <v>79.1672471919955</v>
       </c>
       <c r="E7" t="n">
-        <v>62.22222</v>
+        <v>68.88889</v>
       </c>
       <c r="F7" t="n">
-        <v>7.58233385915519</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>20.8672740414653</v>
       </c>
       <c r="H7" t="n">
-        <v>182.088754573886</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>193.923411233461</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="n">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>95.81184510461</v>
       </c>
       <c r="E8" t="n">
-        <v>64.44444</v>
+        <v>62.22222</v>
       </c>
       <c r="F8" t="n">
-        <v>1.39706504753158</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>12.5847626120527</v>
       </c>
       <c r="H8" t="n">
-        <v>165.841505047532</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>226.618827716663</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90.2842007147304</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.22222</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.58233385915519</v>
+      </c>
+      <c r="H9" t="n">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>64.44444</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18.3866856513307</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>189.831125651331</v>
-      </c>
       <c r="I9" t="n">
+        <v>207.088754573886</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9" t="n">
-        <v>48</v>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="n">
-        <v>80.9900671418518</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>55.55556</v>
+        <v>64.44444</v>
       </c>
       <c r="F10" t="n">
-        <v>32.7324602216016</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>44</v>
+        <v>1.39706504753158</v>
       </c>
       <c r="H10" t="n">
-        <v>213.278087363453</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>190.841505047532</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="n">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>86.466842175267</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>75.55556</v>
+        <v>64.44444</v>
       </c>
       <c r="F11" t="n">
-        <v>8.48354860931903</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>94</v>
+        <v>18.3866856513307</v>
       </c>
       <c r="H11" t="n">
-        <v>264.505950784586</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>214.831125651331</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11" t="n">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>3.44705674385717</v>
+        <v>80.9900671418518</v>
       </c>
       <c r="E12" t="n">
-        <v>57.77778</v>
+        <v>55.55556</v>
       </c>
       <c r="F12" t="n">
-        <v>9.80574271165818</v>
+        <v>37.5</v>
       </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>32.7324602216016</v>
       </c>
       <c r="H12" t="n">
-        <v>151.030579455515</v>
+        <v>44</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>250.778087363453</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12" t="n">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86.466842175267</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.55556</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8.48354860931903</v>
+      </c>
+      <c r="H13" t="n">
+        <v>94</v>
+      </c>
+      <c r="I13" t="n">
+        <v>289.505950784586</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="n">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>98.1852597687865</v>
-      </c>
-      <c r="E13" t="n">
-        <v>57.77778</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.91560130108416</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13</v>
-      </c>
-      <c r="H13" t="n">
-        <v>171.878641069871</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>93.8235377269847</v>
+        <v>3.44705674385717</v>
       </c>
       <c r="E14" t="n">
         <v>57.77778</v>
       </c>
       <c r="F14" t="n">
-        <v>21.6990515232888</v>
+        <v>37.5</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>9.80574271165818</v>
       </c>
       <c r="H14" t="n">
-        <v>250.300369250274</v>
+        <v>80</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>188.530579455515</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" t="n">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>84.3579676186858</v>
+        <v>98.1852597687865</v>
       </c>
       <c r="E15" t="n">
-        <v>55.55556</v>
+        <v>57.77778</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0877546210991</v>
+        <v>37.5</v>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>2.91560130108416</v>
       </c>
       <c r="H15" t="n">
-        <v>184.001282239785</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>209.378641069871</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15" t="n">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>32.1977204568532</v>
+        <v>93.8235377269847</v>
       </c>
       <c r="E16" t="n">
         <v>57.77778</v>
       </c>
       <c r="F16" t="n">
-        <v>0.550817342490544</v>
+        <v>37.5</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>21.6990515232888</v>
       </c>
       <c r="H16" t="n">
-        <v>175.526317799344</v>
+        <v>77</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>287.800369250274</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" t="n">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2877020449583</v>
+        <v>48.0074118062286</v>
       </c>
       <c r="E17" t="n">
-        <v>51.11111</v>
+        <v>75.55556</v>
       </c>
       <c r="F17" t="n">
-        <v>1.11586865928625</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>183.514680704245</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>223.562971806229</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17" t="n">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>59.4011485524674</v>
+        <v>42.3931652095506</v>
       </c>
       <c r="E18" t="n">
-        <v>57.77778</v>
+        <v>91.11111</v>
       </c>
       <c r="F18" t="n">
-        <v>3.36474410618836</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>220.543672658656</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>233.504275209551</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" t="n">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>17.2511007913454</v>
+        <v>96.4368955685615</v>
       </c>
       <c r="E19" t="n">
-        <v>64.44444</v>
+        <v>82.22222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0775301342115698</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>181.773070925557</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>278.659115568562</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19" t="n">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
       <c r="D20" t="n">
-        <v>84.2941629433307</v>
+        <v>86.2053125779419</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>82.22222</v>
       </c>
       <c r="F20" t="n">
-        <v>5.6905064744792</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>244.98466941781</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>268.427532577942</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>74.029215410057</v>
+        <v>84.3579676186858</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>55.55556</v>
       </c>
       <c r="F21" t="n">
-        <v>11.4934300049099</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>15.0877546210991</v>
       </c>
       <c r="H21" t="n">
-        <v>245.522645414967</v>
+        <v>29</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>228.445726684229</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K21"/>
-      <c r="L21" t="n">
-        <v>21</v>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>63.7180796731359</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E22" t="n">
-        <v>88.88889</v>
+        <v>57.77778</v>
       </c>
       <c r="F22" t="n">
-        <v>22.8451098377699</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>0.550817342490544</v>
       </c>
       <c r="H22" t="n">
-        <v>275.452079510906</v>
+        <v>85</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>219.970762243788</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
       <c r="D23" t="n">
-        <v>67.1344148358092</v>
+        <v>31.2877020449583</v>
       </c>
       <c r="E23" t="n">
-        <v>71.11111</v>
+        <v>51.11111</v>
       </c>
       <c r="F23" t="n">
-        <v>8.11933580190642</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>1.11586865928625</v>
       </c>
       <c r="H23" t="n">
-        <v>246.364860637716</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>239.0702362598</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" t="n">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>57.7977891495536</v>
+        <v>59.4011485524674</v>
       </c>
       <c r="E24" t="n">
-        <v>88.88889</v>
+        <v>57.77778</v>
       </c>
       <c r="F24" t="n">
-        <v>4.68592151202821</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>3.36474410618836</v>
       </c>
       <c r="H24" t="n">
-        <v>251.372600661582</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>264.9881171031</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24"/>
-      <c r="L24" t="n">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>11.6750717416415</v>
+        <v>17.2511007913454</v>
       </c>
       <c r="E25" t="n">
-        <v>82.22222</v>
+        <v>64.44444</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>0.0775301342115698</v>
       </c>
       <c r="H25" t="n">
-        <v>193.897291741642</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>215.10640425889</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" t="n">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D26" t="n">
-        <v>97.2132417905144</v>
+        <v>84.2941629433307</v>
       </c>
       <c r="E26" t="n">
-        <v>82.22222</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>3.19764681030363</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>5.6905064744792</v>
       </c>
       <c r="H26" t="n">
-        <v>282.633108600818</v>
+        <v>75</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>253.318002751143</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K26"/>
-      <c r="L26" t="n">
-        <v>3</v>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" t="n">
-        <v>98.9122096176604</v>
+        <v>74.029215410057</v>
       </c>
       <c r="E27" t="n">
-        <v>86.66667</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>7.87349395722155</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="G27" t="n">
-        <v>47</v>
+        <v>11.4934300049099</v>
       </c>
       <c r="H27" t="n">
-        <v>240.452373574882</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>262.189312081633</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27"/>
-      <c r="L27" t="n">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
-        <v>98.4186448395213</v>
+        <v>63.7180796731359</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>88.88889</v>
       </c>
       <c r="F28" t="n">
-        <v>5.33696226189318</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47</v>
+        <v>22.8451098377699</v>
       </c>
       <c r="H28" t="n">
-        <v>230.755607101414</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>275.452079510906</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28"/>
-      <c r="L28" t="n">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>67.1344148358092</v>
       </c>
       <c r="E29" t="n">
-        <v>73.33333</v>
+        <v>71.11111</v>
       </c>
       <c r="F29" t="n">
-        <v>1.14382492657479</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.11933580190642</v>
       </c>
       <c r="H29" t="n">
-        <v>174.477154926575</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>263.031527304382</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29"/>
-      <c r="L29" t="n">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>57.7977891495536</v>
       </c>
       <c r="E30" t="n">
-        <v>73.33333</v>
+        <v>88.88889</v>
       </c>
       <c r="F30" t="n">
-        <v>5.54606757726523</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56</v>
+        <v>4.68592151202821</v>
       </c>
       <c r="H30" t="n">
-        <v>234.879397577265</v>
+        <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>251.372600661582</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30" t="n">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>97.3178793755558</v>
+        <v>11.6750717416415</v>
       </c>
       <c r="E31" t="n">
-        <v>68.88889</v>
+        <v>82.22222</v>
       </c>
       <c r="F31" t="n">
-        <v>10.6387071115924</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>221.845476487148</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>202.230625074975</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31"/>
-      <c r="L31" t="n">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" t="n">
-        <v>83.4464942144378</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>68.88889</v>
+        <v>82.22222</v>
       </c>
       <c r="F32" t="n">
-        <v>6.14939833029048</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="G32" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>225.484782544728</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>291.313129090909</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32"/>
-      <c r="L32" t="n">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D33" t="n">
-        <v>97.2462993624277</v>
+        <v>97.2132417905144</v>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>82.22222</v>
       </c>
       <c r="F33" t="n">
-        <v>14.7057925432929</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>43</v>
+        <v>3.19764681030363</v>
       </c>
       <c r="H33" t="n">
-        <v>234.952091905721</v>
+        <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>290.966441934151</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33"/>
-      <c r="L33" t="n">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>99.3755937277155</v>
       </c>
       <c r="E34" t="n">
-        <v>80</v>
+        <v>57.777778</v>
       </c>
       <c r="F34" t="n">
-        <v>99.016586446884</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>89.8236422510494</v>
       </c>
       <c r="H34" t="n">
-        <v>279.016586446884</v>
+        <v>49</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>320.977013978765</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
       </c>
       <c r="D35" t="n">
-        <v>85.9074833009822</v>
+        <v>80.6471562212609</v>
       </c>
       <c r="E35" t="n">
-        <v>55.55556</v>
+        <v>57.777778</v>
       </c>
       <c r="F35" t="n">
-        <v>1.1650292952438</v>
+        <v>25</v>
       </c>
       <c r="G35" t="n">
-        <v>62</v>
+        <v>92.1767136326519</v>
       </c>
       <c r="H35" t="n">
-        <v>204.628072596226</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>261.601647853913</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35"/>
-      <c r="L35" t="n">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
       </c>
       <c r="D36" t="n">
-        <v>90.282264926986</v>
+        <v>87.5083749437157</v>
       </c>
       <c r="E36" t="n">
-        <v>73.33333</v>
+        <v>57.777778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.566023593103843</v>
+        <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>89.2539135377252</v>
       </c>
       <c r="H36" t="n">
-        <v>264.18161852009</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>264.540066481441</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="K36"/>
-      <c r="L36" t="n">
-        <v>12</v>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
       <c r="D37" t="n">
-        <v>89.039414514038</v>
+        <v>88.3959792174171</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>62.222222</v>
       </c>
       <c r="F37" t="n">
-        <v>0.072212288624189</v>
+        <v>12.5</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>92.0331840822058</v>
       </c>
       <c r="H37" t="n">
-        <v>249.111626802662</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>259.151385299623</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37"/>
-      <c r="L37" t="n">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
       <c r="D38" t="n">
-        <v>65.6100466128321</v>
+        <v>86.027638754756</v>
       </c>
       <c r="E38" t="n">
-        <v>55.55556</v>
+        <v>62.222222</v>
       </c>
       <c r="F38" t="n">
-        <v>0.644540262932488</v>
+        <v>12.5</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>60.8972780777365</v>
       </c>
       <c r="H38" t="n">
-        <v>221.810146875765</v>
+        <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>254.647138832492</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38" t="n">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>98.9122096176604</v>
       </c>
       <c r="E39" t="n">
-        <v>80</v>
+        <v>86.66667</v>
       </c>
       <c r="F39" t="n">
-        <v>19.6372727671461</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>7.87349395722155</v>
       </c>
       <c r="H39" t="n">
-        <v>203.637272767146</v>
+        <v>47</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>240.452373574882</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39"/>
-      <c r="L39" t="n">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
       </c>
       <c r="D40" t="n">
-        <v>82.3800853950381</v>
+        <v>98.4186448395213</v>
       </c>
       <c r="E40" t="n">
-        <v>71.11111</v>
+        <v>80</v>
       </c>
       <c r="F40" t="n">
-        <v>24.3970879919209</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57</v>
+        <v>5.33696226189318</v>
       </c>
       <c r="H40" t="n">
-        <v>234.888283386959</v>
+        <v>47</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>230.755607101415</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40" t="n">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
       <c r="D41" t="n">
-        <v>29.2775310116298</v>
+        <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>82.22222</v>
+        <v>73.33333</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>1.14382492657479</v>
       </c>
       <c r="H41" t="n">
-        <v>211.49975101163</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>174.477154926575</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41"/>
-      <c r="L41" t="n">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D42" t="n">
-        <v>28.9910378259323</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>91.11111</v>
-      </c>
-      <c r="F42"/>
+        <v>73.33333</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
       <c r="G42" t="n">
-        <v>100</v>
-      </c>
-      <c r="H42"/>
+        <v>5.54606757726523</v>
+      </c>
+      <c r="H42" t="n">
+        <v>56</v>
+      </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>234.879397577265</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42" t="n">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>97.3178793755558</v>
       </c>
       <c r="E43" t="n">
-        <v>55.55556</v>
+        <v>68.88889</v>
       </c>
       <c r="F43" t="n">
-        <v>46.7585234237207</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="G43" t="n">
-        <v>27</v>
+        <v>10.6387071115924</v>
       </c>
       <c r="H43" t="n">
-        <v>229.314083423721</v>
+        <v>45</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>232.956587598259</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43" t="n">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
       </c>
       <c r="D44" t="n">
-        <v>92.5445070971975</v>
+        <v>83.4464942144378</v>
       </c>
       <c r="E44" t="n">
-        <v>55.55556</v>
+        <v>68.88889</v>
       </c>
       <c r="F44" t="n">
-        <v>79.3056608579761</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="G44" t="n">
-        <v>33</v>
+        <v>6.14939833029048</v>
       </c>
       <c r="H44" t="n">
-        <v>260.405727955174</v>
+        <v>67</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>247.707004766951</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>97.2462993624277</v>
       </c>
       <c r="E45" t="n">
-        <v>73.33333</v>
+        <v>80</v>
       </c>
       <c r="F45" t="n">
-        <v>86.9102939314629</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>14.7057925432929</v>
       </c>
       <c r="H45" t="n">
-        <v>267.243623931463</v>
+        <v>43</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>246.063203016832</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D46" t="n">
-        <v>98.7617885632518</v>
+        <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>73.33333</v>
+        <v>80</v>
       </c>
       <c r="F46" t="n">
-        <v>61.7644449151713</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>99.016586446884</v>
       </c>
       <c r="H46" t="n">
-        <v>254.859563478423</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>279.016586446884</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46" t="n">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D47" t="n">
-        <v>90.8545766323051</v>
+        <v>25.4752882596388</v>
       </c>
       <c r="E47" t="n">
-        <v>68.88889</v>
+        <v>66.666667</v>
       </c>
       <c r="F47" t="n">
-        <v>74.5430781709252</v>
-      </c>
-      <c r="G47" t="n">
-        <v>43</v>
-      </c>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="G47"/>
       <c r="H47" t="n">
-        <v>277.28654480323</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47" t="n">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" t="n">
-        <v>85.4937866389166</v>
+        <v>8.18033767541901</v>
       </c>
       <c r="E48" t="n">
-        <v>82.22222</v>
+        <v>62.222222</v>
       </c>
       <c r="F48" t="n">
-        <v>27.2506749163124</v>
-      </c>
-      <c r="G48" t="n">
-        <v>91</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G48"/>
       <c r="H48" t="n">
-        <v>285.966681555229</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I48"/>
       <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48"/>
-      <c r="L48" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
       <c r="D49" t="n">
-        <v>60</v>
+        <v>27.866660600359</v>
       </c>
       <c r="E49" t="n">
-        <v>88.88889</v>
+        <v>62.222222</v>
       </c>
       <c r="F49" t="n">
-        <v>13.2823467493465</v>
-      </c>
-      <c r="G49" t="n">
-        <v>33</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G49"/>
       <c r="H49" t="n">
-        <v>195.171236749346</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I49"/>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49"/>
-      <c r="L49" t="n">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" t="n">
-        <v>84.3515167253664</v>
+        <v>56.3954580958173</v>
       </c>
       <c r="E50" t="n">
-        <v>77.77778</v>
+        <v>64.444444</v>
       </c>
       <c r="F50" t="n">
-        <v>25.2135032656789</v>
-      </c>
-      <c r="G50" t="n">
-        <v>32</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G50"/>
       <c r="H50" t="n">
-        <v>219.342799991045</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I50"/>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50" t="n">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D51" t="n">
-        <v>81.6424583789295</v>
+        <v>85.9074833009822</v>
       </c>
       <c r="E51" t="n">
         <v>60</v>
       </c>
       <c r="F51" t="n">
-        <v>38.3538178047948</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G51" t="n">
-        <v>69</v>
+        <v>1.1650292952438</v>
       </c>
       <c r="H51" t="n">
-        <v>248.996276183724</v>
+        <v>62</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>263.617967141681</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51"/>
-      <c r="L51" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D52" t="n">
-        <v>70.5855572519734</v>
+        <v>90.282264926986</v>
       </c>
       <c r="E52" t="n">
-        <v>53.33333</v>
+        <v>77.77778</v>
       </c>
       <c r="F52" t="n">
-        <v>30.0677733801373</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G52" t="n">
-        <v>70</v>
+        <v>0.566023593103843</v>
       </c>
       <c r="H52" t="n">
-        <v>223.986660632111</v>
+        <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>304.989704883726</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" t="n">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D53" t="n">
-        <v>41.4045292643402</v>
+        <v>89.039414514038</v>
       </c>
       <c r="E53" t="n">
-        <v>55.55556</v>
+        <v>60</v>
       </c>
       <c r="F53" t="n">
-        <v>30.3870515295633</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G53" t="n">
-        <v>91</v>
+        <v>0.072212288624189</v>
       </c>
       <c r="H53" t="n">
-        <v>218.347140793904</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>303.657081348117</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53" t="n">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
       <c r="D54" t="n">
-        <v>49.4803351128707</v>
+        <v>65.6100466128321</v>
       </c>
       <c r="E54" t="n">
         <v>55.55556</v>
       </c>
       <c r="F54" t="n">
-        <v>13.4636794250599</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.644540262932488</v>
       </c>
       <c r="H54" t="n">
-        <v>119.499574537931</v>
+        <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>276.355601421219</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54" t="n">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" t="n">
-        <v>47.1080799545594</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>60</v>
-      </c>
-      <c r="F55"/>
+        <v>80</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" t="n">
-        <v>92</v>
-      </c>
-      <c r="H55"/>
+        <v>19.6372727671461</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>203.637272767146</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55" t="n">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D56" t="n">
-        <v>96.9990242386877</v>
+        <v>82.3800853950381</v>
       </c>
       <c r="E56" t="n">
-        <v>73.33333</v>
-      </c>
-      <c r="F56"/>
+        <v>71.11111</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
       <c r="G56" t="n">
-        <v>32</v>
-      </c>
-      <c r="H56"/>
-      <c r="I56"/>
+        <v>24.3970879919209</v>
+      </c>
+      <c r="H56" t="n">
+        <v>57</v>
+      </c>
+      <c r="I56" t="n">
+        <v>234.888283386959</v>
+      </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56" t="n">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D57" t="n">
-        <v>94.1426394673889</v>
+        <v>29.2775310116298</v>
       </c>
       <c r="E57" t="n">
-        <v>77.77778</v>
-      </c>
-      <c r="F57"/>
+        <v>82.22222</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" t="n">
-        <v>32</v>
-      </c>
-      <c r="H57"/>
-      <c r="I57"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" t="n">
+        <v>211.49975101163</v>
+      </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="n">
+        <v>28.9910378259323</v>
+      </c>
+      <c r="E58" t="n">
+        <v>91.11111</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" t="n">
+        <v>100</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58" t="n">
+        <v>3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58" t="n">
         <v>81</v>
-      </c>
-      <c r="D58" t="n">
-        <v>86.5338600255517</v>
-      </c>
-      <c r="E58" t="n">
-        <v>82.22222</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58" t="n">
-        <v>100</v>
-      </c>
-      <c r="H58"/>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58"/>
-      <c r="L58" t="n">
-        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D59" t="n">
         <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>75.55556</v>
+        <v>55.55556</v>
       </c>
       <c r="F59" t="n">
-        <v>8.12860989683308</v>
+        <v>12.5</v>
       </c>
       <c r="G59" t="n">
-        <v>96</v>
+        <v>46.7585234237207</v>
       </c>
       <c r="H59" t="n">
-        <v>279.684169896833</v>
+        <v>27</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>241.814083423721</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="n">
-        <v>12.5825765710022</v>
+        <v>92.5445070971975</v>
       </c>
       <c r="E60" t="n">
-        <v>71.111111</v>
+        <v>55.55556</v>
       </c>
       <c r="F60" t="n">
-        <v>10.9466207214468</v>
+        <v>12.5</v>
       </c>
       <c r="G60" t="n">
-        <v>100</v>
+        <v>79.3056608579761</v>
       </c>
       <c r="H60" t="n">
-        <v>194.640308292449</v>
+        <v>33</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>272.905727955174</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60" t="n">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
         <v>88</v>
       </c>
-      <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
       <c r="D61" t="n">
-        <v>99.3755937277155</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>57.777778</v>
+        <v>73.33333</v>
       </c>
       <c r="F61" t="n">
-        <v>89.8236422510494</v>
+        <v>12.5</v>
       </c>
       <c r="G61" t="n">
-        <v>49</v>
+        <v>86.9102939314629</v>
       </c>
       <c r="H61" t="n">
-        <v>295.977013978765</v>
+        <v>7</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>279.743623931463</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61"/>
-      <c r="L61" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" t="n">
-        <v>80.6471562212609</v>
+        <v>98.7617885632518</v>
       </c>
       <c r="E62" t="n">
-        <v>57.777778</v>
+        <v>73.33333</v>
       </c>
       <c r="F62" t="n">
-        <v>92.1767136326519</v>
+        <v>12.5</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>61.7644449151713</v>
       </c>
       <c r="H62" t="n">
-        <v>236.601647853913</v>
+        <v>21</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>267.359563478423</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62"/>
-      <c r="L62" t="n">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D63" t="n">
-        <v>87.5083749437157</v>
+        <v>90.8545766323051</v>
       </c>
       <c r="E63" t="n">
-        <v>57.777778</v>
+        <v>68.88889</v>
       </c>
       <c r="F63" t="n">
-        <v>89.2539135377252</v>
+        <v>12.5</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>74.5430781709252</v>
       </c>
       <c r="H63" t="n">
-        <v>239.540066481441</v>
+        <v>43</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>289.78654480323</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63"/>
-      <c r="L63" t="n">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D64" t="n">
-        <v>88.3959792174171</v>
+        <v>85.4937866389166</v>
       </c>
       <c r="E64" t="n">
-        <v>62.222222</v>
+        <v>82.22222</v>
       </c>
       <c r="F64" t="n">
-        <v>92.0331840822058</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>27.2506749163124</v>
       </c>
       <c r="H64" t="n">
-        <v>246.651385299623</v>
+        <v>91</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>319.300014888562</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64"/>
-      <c r="L64" t="n">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D65" t="n">
-        <v>86.027638754756</v>
+        <v>60</v>
       </c>
       <c r="E65" t="n">
-        <v>62.222222</v>
+        <v>88.88889</v>
       </c>
       <c r="F65" t="n">
-        <v>60.8972780777365</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G65" t="n">
+        <v>13.2823467493465</v>
+      </c>
+      <c r="H65" t="n">
         <v>33</v>
       </c>
-      <c r="H65" t="n">
-        <v>242.147138832492</v>
-      </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>228.50457008268</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65"/>
-      <c r="L65" t="n">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" t="s">
-        <v>96</v>
-      </c>
       <c r="D66" t="n">
-        <v>66.1741633759659</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E66" t="n">
-        <v>69.78993</v>
-      </c>
-      <c r="F66"/>
+        <v>82.22222</v>
+      </c>
+      <c r="F66" t="n">
+        <v>33.3333333333333</v>
+      </c>
       <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66"/>
+        <v>25.2135032656789</v>
+      </c>
+      <c r="H66" t="n">
+        <v>32</v>
+      </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>257.120573324379</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
-      </c>
-      <c r="L66" t="n">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="67">
@@ -3084,33 +3381,38 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D67" t="n">
-        <v>29.0685016838052</v>
+        <v>81.6424583789295</v>
       </c>
       <c r="E67" t="n">
-        <v>67.338526</v>
-      </c>
-      <c r="F67"/>
+        <v>60</v>
+      </c>
+      <c r="F67" t="n">
+        <v>41.6666666666667</v>
+      </c>
       <c r="G67" t="n">
-        <v>84</v>
-      </c>
-      <c r="H67"/>
+        <v>38.3538178047948</v>
+      </c>
+      <c r="H67" t="n">
+        <v>69</v>
+      </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>290.662942850391</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
-      </c>
-      <c r="L67" t="n">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3118,471 +3420,521 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D68" t="n">
-        <v>12.4407088350896</v>
+        <v>70.5855572519734</v>
       </c>
       <c r="E68" t="n">
-        <v>62.661792</v>
-      </c>
-      <c r="F68"/>
+        <v>53.33333</v>
+      </c>
+      <c r="F68" t="n">
+        <v>41.6666666666667</v>
+      </c>
       <c r="G68" t="n">
-        <v>100</v>
-      </c>
-      <c r="H68"/>
+        <v>30.0677733801373</v>
+      </c>
+      <c r="H68" t="n">
+        <v>70</v>
+      </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>265.653327298777</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>8</v>
-      </c>
-      <c r="L68" t="n">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D69" t="n">
-        <v>39.1113943293231</v>
+        <v>41.4045292643402</v>
       </c>
       <c r="E69" t="n">
-        <v>87.230272</v>
-      </c>
-      <c r="F69"/>
+        <v>55.55556</v>
+      </c>
+      <c r="F69" t="n">
+        <v>41.6666666666667</v>
+      </c>
       <c r="G69" t="n">
-        <v>100</v>
-      </c>
-      <c r="H69"/>
+        <v>30.3870515295633</v>
+      </c>
+      <c r="H69" t="n">
+        <v>91</v>
+      </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>260.01380746057</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>10</v>
-      </c>
-      <c r="L69" t="n">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D70" t="n">
-        <v>50.1958993306528</v>
+        <v>49.4803351128707</v>
       </c>
       <c r="E70" t="n">
-        <v>65.428038</v>
-      </c>
-      <c r="F70"/>
+        <v>55.55556</v>
+      </c>
+      <c r="F70" t="n">
+        <v>41.6666666666667</v>
+      </c>
       <c r="G70" t="n">
-        <v>29</v>
-      </c>
-      <c r="H70"/>
+        <v>13.4636794250599</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>161.166241204597</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>9</v>
-      </c>
-      <c r="L70" t="n">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D71" t="n">
-        <v>61.21972936706</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>67.884084</v>
-      </c>
-      <c r="F71"/>
+        <v>53.33333</v>
+      </c>
+      <c r="F71" t="n">
+        <v>41.6666666666667</v>
+      </c>
       <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71"/>
+        <v>62.2128103054147</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>267.212806972081</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D72" t="n">
-        <v>38.5740394919732</v>
+        <v>47.1080799545594</v>
       </c>
       <c r="E72" t="n">
-        <v>68.100858</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72"/>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F72" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="n">
+        <v>92</v>
+      </c>
+      <c r="I72"/>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
-      </c>
-      <c r="L72" t="n">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
         <v>104</v>
       </c>
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D73" t="n">
-        <v>86.7140772219792</v>
+        <v>66.1741633759659</v>
       </c>
       <c r="E73" t="n">
-        <v>78.301646</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73"/>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
+        <v>69.78993</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73"/>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="M73" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
         <v>105</v>
       </c>
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>99</v>
-      </c>
       <c r="D74" t="n">
-        <v>9.40098230509123</v>
+        <v>29.0685016838052</v>
       </c>
       <c r="E74" t="n">
-        <v>52.803294</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" t="n">
-        <v>14</v>
-      </c>
-      <c r="H74"/>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>67.338526</v>
+      </c>
+      <c r="F74" t="n">
+        <v>40</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74" t="n">
+        <v>84</v>
+      </c>
+      <c r="I74"/>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D75" t="n">
-        <v>17.9876343973801</v>
+        <v>60.045701093646</v>
       </c>
       <c r="E75" t="n">
-        <v>69.882502</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75" t="n">
-        <v>33</v>
-      </c>
-      <c r="H75"/>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
+        <v>88.88889</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75" t="n">
+        <v>100</v>
+      </c>
+      <c r="I75"/>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
-      </c>
-      <c r="L75" t="n">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D76" t="n">
-        <v>68.7766246982534</v>
+        <v>12.4407088350896</v>
       </c>
       <c r="E76" t="n">
-        <v>78.929179</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76" t="n">
-        <v>34</v>
-      </c>
-      <c r="H76"/>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
+        <v>62.661792</v>
+      </c>
+      <c r="F76" t="n">
+        <v>50</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76" t="n">
+        <v>100</v>
+      </c>
+      <c r="I76"/>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="M76" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D77" t="n">
-        <v>93.1298740813175</v>
+        <v>39.1113943293231</v>
       </c>
       <c r="E77" t="n">
-        <v>51.22912</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77"/>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
+        <v>87.230272</v>
+      </c>
+      <c r="F77" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77" t="n">
+        <v>100</v>
+      </c>
+      <c r="I77"/>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="M77" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
       <c r="D78" t="n">
-        <v>100</v>
+        <v>50.1958993306528</v>
       </c>
       <c r="E78" t="n">
-        <v>50.335115</v>
-      </c>
-      <c r="F78"/>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78"/>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>65.428038</v>
+      </c>
+      <c r="F78" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78" t="n">
+        <v>29</v>
+      </c>
+      <c r="I78"/>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="M78" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D79" t="n">
-        <v>35.0268037935056</v>
+        <v>61.21972936706</v>
       </c>
       <c r="E79" t="n">
-        <v>62.927406</v>
-      </c>
-      <c r="F79"/>
-      <c r="G79" t="n">
-        <v>37</v>
-      </c>
-      <c r="H79"/>
-      <c r="I79" t="n">
-        <v>2</v>
-      </c>
+        <v>67.884084</v>
+      </c>
+      <c r="F79" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79"/>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D80" t="n">
-        <v>21.8776868375151</v>
+        <v>38.5740394919732</v>
       </c>
       <c r="E80" t="n">
-        <v>100</v>
-      </c>
-      <c r="F80"/>
-      <c r="G80" t="n">
-        <v>8</v>
-      </c>
-      <c r="H80"/>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>68.100858</v>
+      </c>
+      <c r="F80" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80"/>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="M80" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D81" t="n">
-        <v>55.3527869715281</v>
+        <v>86.7140772219792</v>
       </c>
       <c r="E81" t="n">
-        <v>55.555556</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81" t="n">
-        <v>16</v>
-      </c>
-      <c r="H81"/>
+        <v>78.301646</v>
+      </c>
+      <c r="F81" t="n">
+        <v>25</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
       <c r="I81"/>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81"/>
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
       <c r="L81" t="n">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="82">
@@ -3590,29 +3942,36 @@
         <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D82" t="n">
-        <v>39.8890392483469</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E82" t="n">
-        <v>51.111111</v>
-      </c>
-      <c r="F82"/>
-      <c r="G82" t="n">
-        <v>15</v>
-      </c>
-      <c r="H82"/>
+        <v>52.803294</v>
+      </c>
+      <c r="F82" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82" t="n">
+        <v>14</v>
+      </c>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82"/>
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
       <c r="L82" t="n">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="M82" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="83">
@@ -3620,29 +3979,36 @@
         <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D83" t="n">
-        <v>72.6593376346171</v>
+        <v>17.9876343973801</v>
       </c>
       <c r="E83" t="n">
-        <v>53.333333</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83" t="n">
-        <v>46</v>
-      </c>
-      <c r="H83"/>
+        <v>69.882502</v>
+      </c>
+      <c r="F83" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83" t="n">
+        <v>33</v>
+      </c>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83"/>
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
       <c r="L83" t="n">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="84">
@@ -3650,29 +4016,36 @@
         <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D84" t="n">
-        <v>88.3850078434078</v>
+        <v>68.7766246982534</v>
       </c>
       <c r="E84" t="n">
-        <v>51.111111</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84" t="n">
-        <v>56</v>
-      </c>
-      <c r="H84"/>
+        <v>78.929179</v>
+      </c>
+      <c r="F84" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84" t="n">
+        <v>34</v>
+      </c>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84"/>
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
       <c r="L84" t="n">
-        <v>83</v>
+        <v>4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="85">
@@ -3680,253 +4053,1157 @@
         <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D85" t="n">
-        <v>49.0993179430452</v>
+        <v>93.1298740813175</v>
       </c>
       <c r="E85" t="n">
-        <v>62.222222</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85" t="n">
-        <v>66</v>
-      </c>
-      <c r="H85"/>
+        <v>51.22912</v>
+      </c>
+      <c r="F85" t="n">
+        <v>60</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
       <c r="I85"/>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85"/>
+        <v>3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
       <c r="L85" t="n">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
         <v>120</v>
       </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>81</v>
-      </c>
       <c r="D86" t="n">
-        <v>91.8099974513869</v>
+        <v>100</v>
       </c>
       <c r="E86" t="n">
-        <v>62.222222</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86" t="n">
-        <v>100</v>
-      </c>
-      <c r="H86"/>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
+        <v>50.335115</v>
+      </c>
+      <c r="F86" t="n">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86"/>
       <c r="J86" t="n">
         <v>1</v>
       </c>
-      <c r="K86"/>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
       <c r="L86" t="n">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>35.0268037935056</v>
       </c>
       <c r="E87" t="n">
-        <v>62.222222</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87" t="n">
-        <v>100</v>
-      </c>
-      <c r="H87"/>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
+        <v>62.927406</v>
+      </c>
+      <c r="F87" t="n">
+        <v>40</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87" t="n">
+        <v>37</v>
+      </c>
+      <c r="I87"/>
       <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87"/>
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
       <c r="L87" t="n">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="M87" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D88" t="n">
-        <v>42.6890552310836</v>
+        <v>21.8776868375151</v>
       </c>
       <c r="E88" t="n">
-        <v>66.666667</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88" t="n">
-        <v>100</v>
-      </c>
-      <c r="H88"/>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+      <c r="I88"/>
       <c r="J88" t="n">
         <v>1</v>
       </c>
-      <c r="K88"/>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
       <c r="L88" t="n">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D89" t="n">
-        <v>37.4806806871606</v>
+        <v>36.0074020631048</v>
       </c>
       <c r="E89" t="n">
-        <v>66.666667</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89" t="n">
-        <v>100</v>
-      </c>
-      <c r="H89"/>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
+        <v>97.777778</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89" t="n">
+        <v>100</v>
+      </c>
+      <c r="I89"/>
       <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89"/>
-      <c r="L89" t="n">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D90" t="n">
-        <v>53.2313104822968</v>
+        <v>55.3527869715281</v>
       </c>
       <c r="E90" t="n">
-        <v>66.66667</v>
-      </c>
-      <c r="F90"/>
-      <c r="G90" t="n">
-        <v>100</v>
-      </c>
-      <c r="H90"/>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90"/>
-      <c r="L90" t="n">
-        <v>89</v>
+        <v>55.55556</v>
+      </c>
+      <c r="F90" t="n">
+        <v>25</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90" t="n">
+        <v>16</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90"/>
+      <c r="M90" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D91" t="n">
-        <v>97.2953537279299</v>
+        <v>39.8890392483469</v>
       </c>
       <c r="E91" t="n">
-        <v>82.22222</v>
-      </c>
-      <c r="F91"/>
-      <c r="G91" t="n">
-        <v>100</v>
-      </c>
-      <c r="H91"/>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91"/>
-      <c r="L91" t="n">
-        <v>90</v>
+        <v>51.11111</v>
+      </c>
+      <c r="F91" t="n">
+        <v>25</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91" t="n">
+        <v>15</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
         <v>127</v>
       </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>125</v>
-      </c>
       <c r="D92" t="n">
+        <v>72.6593376346171</v>
+      </c>
+      <c r="E92" t="n">
+        <v>53.33333</v>
+      </c>
+      <c r="F92" t="n">
+        <v>25</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92" t="n">
+        <v>46</v>
+      </c>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" t="n">
+        <v>88.3850078434078</v>
+      </c>
+      <c r="E93" t="n">
+        <v>51.11111</v>
+      </c>
+      <c r="F93" t="n">
+        <v>25</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93" t="n">
+        <v>56</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" t="n">
+        <v>96.9990242386877</v>
+      </c>
+      <c r="E94" t="n">
+        <v>77.77778</v>
+      </c>
+      <c r="F94" t="n">
+        <v>25</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94" t="n">
+        <v>32</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" t="n">
+        <v>94.1426394673889</v>
+      </c>
+      <c r="E95" t="n">
+        <v>77.77778</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95" t="n">
+        <v>32</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" t="n">
+        <v>49.0993179430452</v>
+      </c>
+      <c r="E96" t="n">
+        <v>62.222222</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96" t="n">
+        <v>66</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" t="n">
+        <v>91.8099974513869</v>
+      </c>
+      <c r="E97" t="n">
+        <v>62.222222</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97" t="n">
+        <v>100</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" t="n">
+        <v>100</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62.222222</v>
+      </c>
+      <c r="F98" t="n">
+        <v>25</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98" t="n">
+        <v>100</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" t="n">
+        <v>86.5338600255517</v>
+      </c>
+      <c r="E99" t="n">
+        <v>82.22222</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99" t="n">
+        <v>100</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99" t="n">
+        <v>3</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" t="n">
+        <v>42.6890552310836</v>
+      </c>
+      <c r="E100" t="n">
+        <v>66.666667</v>
+      </c>
+      <c r="F100" t="n">
+        <v>25</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100" t="n">
+        <v>100</v>
+      </c>
+      <c r="I100"/>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" t="n">
+        <v>37.4806806871606</v>
+      </c>
+      <c r="E101" t="n">
+        <v>66.666667</v>
+      </c>
+      <c r="F101" t="n">
+        <v>25</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101" t="n">
+        <v>100</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102" t="n">
+        <v>53.2313104822968</v>
+      </c>
+      <c r="E102" t="n">
+        <v>66.66667</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" t="n">
+        <v>100</v>
+      </c>
+      <c r="I102"/>
+      <c r="J102" t="n">
+        <v>3</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102"/>
+      <c r="M102" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" t="n">
+        <v>97.2953537279299</v>
+      </c>
+      <c r="E103" t="n">
+        <v>82.22222</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103" t="n">
+        <v>100</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103"/>
+      <c r="M103" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" t="n">
         <v>71.6969623422411</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E104" t="n">
         <v>82.22222</v>
       </c>
-      <c r="F92"/>
-      <c r="G92" t="n">
-        <v>100</v>
-      </c>
-      <c r="H92"/>
-      <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92"/>
-      <c r="L92" t="n">
-        <v>91</v>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104" t="n">
+        <v>100</v>
+      </c>
+      <c r="I104"/>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" t="n">
+        <v>32.5149885056798</v>
+      </c>
+      <c r="E105" t="n">
+        <v>84.444444</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105" t="n">
+        <v>100</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" t="n">
+        <v>77.986833542685</v>
+      </c>
+      <c r="E106" t="n">
+        <v>82.22222</v>
+      </c>
+      <c r="F106" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.23071272602277</v>
+      </c>
+      <c r="H106" t="n">
+        <v>100</v>
+      </c>
+      <c r="I106" t="n">
+        <v>297.803402632344</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>146</v>
+      </c>
+      <c r="D107" t="n">
+        <v>96.2017524769695</v>
+      </c>
+      <c r="E107" t="n">
+        <v>71.11111</v>
+      </c>
+      <c r="F107" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.9765793321376</v>
+      </c>
+      <c r="H107" t="n">
+        <v>99</v>
+      </c>
+      <c r="I107" t="n">
+        <v>310.653078172743</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" t="n">
+        <v>97.0341353962278</v>
+      </c>
+      <c r="E108" t="n">
+        <v>55.55556</v>
+      </c>
+      <c r="F108" t="n">
+        <v>27.2727272727273</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7.46028813594896</v>
+      </c>
+      <c r="H108" t="n">
+        <v>56</v>
+      </c>
+      <c r="I108" t="n">
+        <v>243.322710804904</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" t="n">
+        <v>98.9014640459717</v>
+      </c>
+      <c r="E109" t="n">
+        <v>55.55556</v>
+      </c>
+      <c r="F109" t="n">
+        <v>27.2727272727273</v>
+      </c>
+      <c r="G109" t="n">
+        <v>31.6469324807288</v>
+      </c>
+      <c r="H109" t="n">
+        <v>42</v>
+      </c>
+      <c r="I109" t="n">
+        <v>255.376683799428</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" t="n">
+        <v>76.3671057432737</v>
+      </c>
+      <c r="E110" t="n">
+        <v>53.33333</v>
+      </c>
+      <c r="F110" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9.86420954806068</v>
+      </c>
+      <c r="H110" t="n">
+        <v>76</v>
+      </c>
+      <c r="I110" t="n">
+        <v>251.928281654971</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>55.55556</v>
+      </c>
+      <c r="F111" t="n">
+        <v>20</v>
+      </c>
+      <c r="G111" t="n">
+        <v>41.6818339622474</v>
+      </c>
+      <c r="H111" t="n">
+        <v>29</v>
+      </c>
+      <c r="I111" t="n">
+        <v>246.237393962247</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" t="n">
+        <v>86.7430413008064</v>
+      </c>
+      <c r="E112" t="n">
+        <v>55.555556</v>
+      </c>
+      <c r="F112" t="n">
+        <v>40</v>
+      </c>
+      <c r="G112" t="n">
+        <v>86.1330435257328</v>
+      </c>
+      <c r="H112" t="n">
+        <v>31</v>
+      </c>
+      <c r="I112" t="n">
+        <v>299.431640826539</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>53.333333</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
+      </c>
+      <c r="G113" t="n">
+        <v>85.30220261826</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+      <c r="I113" t="n">
+        <v>265.63553561826</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>75.55556</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20</v>
+      </c>
+      <c r="G114" t="n">
+        <v>8.12860989683308</v>
+      </c>
+      <c r="H114" t="n">
+        <v>96</v>
+      </c>
+      <c r="I114" t="n">
+        <v>299.684169896833</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.08708129583914</v>
+      </c>
+      <c r="E115" t="n">
+        <v>71.11111</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>43</v>
+      </c>
+      <c r="I115" t="n">
+        <v>117.198191295839</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.5531152313921</v>
+      </c>
+      <c r="E116" t="n">
+        <v>97.77778</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>100</v>
+      </c>
+      <c r="I116" t="n">
+        <v>209.330895231392</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116"/>
+      <c r="M116" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -71,15 +71,15 @@
     <t xml:space="preserve">Big Meadow Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River-Doe Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 01</t>
   </si>
   <si>
@@ -131,6 +131,12 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiwawa River Lower 01</t>
   </si>
   <si>
@@ -149,6 +155,18 @@
     <t xml:space="preserve">Chiwawa River Lower 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
@@ -179,12 +197,18 @@
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Mills 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Mills 03</t>
   </si>
   <si>
@@ -197,12 +221,15 @@
     <t xml:space="preserve">Entiat River Mills 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
@@ -230,12 +257,15 @@
     <t xml:space="preserve">Methow River-Fawn Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Little Bridge Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Bridge Creek 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Bridge Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Little Bridge Creek 03</t>
   </si>
   <si>
@@ -260,6 +290,12 @@
     <t xml:space="preserve">Little Wenatchee River Lower 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Mad River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Methow River Fawn 04</t>
   </si>
   <si>
@@ -293,6 +329,12 @@
     <t xml:space="preserve">Methow River Thompson 09</t>
   </si>
   <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 01</t>
   </si>
   <si>
@@ -317,9 +359,6 @@
     <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
-    <t xml:space="preserve">Nason Creek Lower 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
   </si>
   <si>
@@ -341,6 +380,12 @@
     <t xml:space="preserve">Twisp River Headwaters</t>
   </si>
   <si>
+    <t xml:space="preserve">Panther Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panther Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-10</t>
   </si>
   <si>
@@ -434,15 +479,12 @@
     <t xml:space="preserve">Twisp River Middle 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Twisp River Upper 01</t>
+    <t xml:space="preserve">Twisp River Upper 02</t>
   </si>
   <si>
     <t xml:space="preserve">Upper Twisp River</t>
   </si>
   <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Twisp River Upper 03</t>
   </si>
   <si>
@@ -482,10 +524,19 @@
     <t xml:space="preserve">Wenatchee River Nahahum 04</t>
   </si>
   <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower White River</t>
+    <t xml:space="preserve">White River Lower 09</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek 02</t>
@@ -881,7 +932,7 @@
         <v>46.6465444297908</v>
       </c>
       <c r="E2" t="n">
-        <v>57.777778</v>
+        <v>55.555556</v>
       </c>
       <c r="F2" t="n">
         <v>22.2222222222222</v>
@@ -899,7 +950,7 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -938,7 +989,7 @@
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -946,29 +997,25 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>95.5495880146652</v>
+        <v>95.0608657364311</v>
       </c>
       <c r="E4" t="n">
-        <v>71.11111</v>
+        <v>73.333333</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4"/>
       <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I4" t="n">
-        <v>266.660698014665</v>
-      </c>
+      <c r="I4"/>
       <c r="J4" t="n">
         <v>3</v>
       </c>
@@ -977,18 +1024,18 @@
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
         <v>98.1370600401239</v>
@@ -1016,7 +1063,7 @@
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1055,7 +1102,7 @@
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1141,7 @@
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1172,7 +1219,7 @@
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1189,7 +1236,7 @@
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>64.44444</v>
+        <v>62.22222</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
@@ -1201,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>190.841505047532</v>
+        <v>188.619285047532</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -1211,7 +1258,7 @@
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -1228,7 +1275,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>64.44444</v>
+        <v>62.22222</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
@@ -1240,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>214.831125651331</v>
+        <v>212.608905651331</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1250,7 +1297,7 @@
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1306,7 +1353,7 @@
         <v>86.466842175267</v>
       </c>
       <c r="E13" t="n">
-        <v>75.55556</v>
+        <v>73.33333</v>
       </c>
       <c r="F13" t="n">
         <v>25</v>
@@ -1318,7 +1365,7 @@
         <v>94</v>
       </c>
       <c r="I13" t="n">
-        <v>289.505950784586</v>
+        <v>287.283720784586</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -1328,7 +1375,7 @@
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1367,7 +1414,7 @@
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1406,7 +1453,7 @@
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -1445,7 +1492,7 @@
       </c>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1484,7 +1531,7 @@
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1501,7 +1548,7 @@
         <v>42.3931652095506</v>
       </c>
       <c r="E18" t="n">
-        <v>91.11111</v>
+        <v>86.66667</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1513,7 +1560,7 @@
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>233.504275209551</v>
+        <v>229.059835209551</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -1523,7 +1570,7 @@
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -1540,7 +1587,7 @@
         <v>96.4368955685615</v>
       </c>
       <c r="E19" t="n">
-        <v>82.22222</v>
+        <v>77.77778</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1552,7 +1599,7 @@
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>278.659115568562</v>
+        <v>274.214675568561</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -1562,7 +1609,7 @@
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1601,7 +1648,7 @@
       </c>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1615,22 +1662,22 @@
         <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>84.3579676186858</v>
+        <v>87.6370389553426</v>
       </c>
       <c r="E21" t="n">
-        <v>55.55556</v>
+        <v>86.66667</v>
       </c>
       <c r="F21" t="n">
-        <v>44.4444444444444</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="G21" t="n">
-        <v>15.0877546210991</v>
+        <v>6.50398749142366</v>
       </c>
       <c r="H21" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I21" t="n">
-        <v>228.445726684229</v>
+        <v>219.093410732481</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1640,7 +1687,7 @@
       </c>
       <c r="L21"/>
       <c r="M21" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1651,103 +1698,103 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>32.1977204568532</v>
+        <v>84.3579676186858</v>
       </c>
       <c r="E22" t="n">
-        <v>57.77778</v>
+        <v>51.11111</v>
       </c>
       <c r="F22" t="n">
         <v>44.4444444444444</v>
       </c>
       <c r="G22" t="n">
-        <v>0.550817342490544</v>
+        <v>15.0877546210991</v>
       </c>
       <c r="H22" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I22" t="n">
-        <v>219.970762243788</v>
+        <v>224.001276684229</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>31.2877020449583</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E23" t="n">
-        <v>51.11111</v>
+        <v>57.77778</v>
       </c>
       <c r="F23" t="n">
-        <v>55.5555555555556</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11586865928625</v>
+        <v>0.550817342490544</v>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I23" t="n">
-        <v>239.0702362598</v>
+        <v>219.970762243788</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>59.4011485524674</v>
+        <v>31.2877020449583</v>
       </c>
       <c r="E24" t="n">
-        <v>57.77778</v>
+        <v>51.11111</v>
       </c>
       <c r="F24" t="n">
-        <v>44.4444444444444</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="G24" t="n">
-        <v>3.36474410618836</v>
+        <v>1.11586865928625</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>264.9881171031</v>
+        <v>239.0702362598</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -1757,36 +1804,36 @@
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>17.2511007913454</v>
+        <v>59.4011485524674</v>
       </c>
       <c r="E25" t="n">
-        <v>64.44444</v>
+        <v>57.77778</v>
       </c>
       <c r="F25" t="n">
-        <v>33.3333333333333</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0775301342115698</v>
+        <v>3.36474410618836</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>215.10640425889</v>
+        <v>264.9881171031</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -1796,76 +1843,72 @@
       </c>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>84.2941629433307</v>
+        <v>17.2511007913454</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>62.22222</v>
       </c>
       <c r="F26" t="n">
-        <v>8.33333333333333</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>5.6905064744792</v>
+        <v>0.0775301342115698</v>
       </c>
       <c r="H26" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>253.318002751143</v>
+        <v>212.88418425889</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
       <c r="D27" t="n">
-        <v>74.029215410057</v>
+        <v>98.2745398602345</v>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>75.55556</v>
       </c>
       <c r="F27" t="n">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="G27" t="n">
-        <v>11.4934300049099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G27"/>
       <c r="H27" t="n">
         <v>100</v>
       </c>
-      <c r="I27" t="n">
-        <v>262.189312081633</v>
-      </c>
+      <c r="I27"/>
       <c r="J27" t="n">
         <v>3</v>
       </c>
@@ -1874,7 +1917,7 @@
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -1882,29 +1925,25 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>63.7180796731359</v>
+        <v>93.3825341858876</v>
       </c>
       <c r="E28" t="n">
-        <v>88.88889</v>
+        <v>71.11111</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="n">
-        <v>22.8451098377699</v>
-      </c>
+      <c r="G28"/>
       <c r="H28" t="n">
         <v>100</v>
       </c>
-      <c r="I28" t="n">
-        <v>275.452079510906</v>
-      </c>
+      <c r="I28"/>
       <c r="J28" t="n">
         <v>3</v>
       </c>
@@ -1913,75 +1952,75 @@
       </c>
       <c r="L28"/>
       <c r="M28" t="n">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D29" t="n">
-        <v>67.1344148358092</v>
+        <v>84.2941629433307</v>
       </c>
       <c r="E29" t="n">
-        <v>71.11111</v>
+        <v>68.88889</v>
       </c>
       <c r="F29" t="n">
         <v>16.6666666666667</v>
       </c>
       <c r="G29" t="n">
-        <v>8.11933580190642</v>
+        <v>5.6905064744792</v>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I29" t="n">
-        <v>263.031527304382</v>
+        <v>250.540226084477</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30" t="n">
-        <v>57.7977891495536</v>
+        <v>74.029215410057</v>
       </c>
       <c r="E30" t="n">
-        <v>88.88889</v>
+        <v>75.55556</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="G30" t="n">
-        <v>4.68592151202821</v>
+        <v>11.4934300049099</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>251.372600661582</v>
+        <v>269.4115387483</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -1991,36 +2030,36 @@
       </c>
       <c r="L30"/>
       <c r="M30" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D31" t="n">
-        <v>11.6750717416415</v>
+        <v>63.7180796731359</v>
       </c>
       <c r="E31" t="n">
-        <v>82.22222</v>
+        <v>75.55556</v>
       </c>
       <c r="F31" t="n">
         <v>8.33333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>22.8451098377699</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>202.230625074975</v>
+        <v>270.452082844239</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -2030,36 +2069,36 @@
       </c>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>67.1344148358092</v>
       </c>
       <c r="E32" t="n">
-        <v>82.22222</v>
+        <v>77.77778</v>
       </c>
       <c r="F32" t="n">
-        <v>9.09090909090909</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>8.11933580190642</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>291.313129090909</v>
+        <v>261.364863971049</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -2069,36 +2108,36 @@
       </c>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>97.2132417905144</v>
+        <v>57.7977891495536</v>
       </c>
       <c r="E33" t="n">
-        <v>82.22222</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>8.33333333333333</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="G33" t="n">
-        <v>3.19764681030363</v>
+        <v>4.68592151202821</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>290.966441934151</v>
+        <v>239.150377328248</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -2108,231 +2147,231 @@
       </c>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" t="n">
-        <v>99.3755937277155</v>
+        <v>11.6750717416415</v>
       </c>
       <c r="E34" t="n">
-        <v>57.777778</v>
+        <v>93.33333</v>
       </c>
       <c r="F34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>89.8236422510494</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>320.977013978765</v>
+        <v>205.008401741642</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" t="n">
-        <v>80.6471562212609</v>
+        <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>57.777778</v>
+        <v>86.66667</v>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>92.1767136326519</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>261.601647853913</v>
+        <v>286.66667</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" t="n">
-        <v>87.5083749437157</v>
+        <v>97.2132417905144</v>
       </c>
       <c r="E36" t="n">
-        <v>57.777778</v>
+        <v>86.66667</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>89.2539135377252</v>
+        <v>3.19764681030363</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>264.540066481441</v>
+        <v>287.077558600818</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D37" t="n">
-        <v>88.3959792174171</v>
+        <v>66.5615916752238</v>
       </c>
       <c r="E37" t="n">
-        <v>62.222222</v>
+        <v>71.11111</v>
       </c>
       <c r="F37" t="n">
-        <v>12.5</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>92.0331840822058</v>
+        <v>4.8838925125451</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>259.151385299623</v>
+        <v>259.223260854436</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D38" t="n">
-        <v>86.027638754756</v>
+        <v>76.1068706798624</v>
       </c>
       <c r="E38" t="n">
-        <v>62.222222</v>
+        <v>51.111111</v>
       </c>
       <c r="F38" t="n">
-        <v>12.5</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="G38" t="n">
-        <v>60.8972780777365</v>
+        <v>64.7654728594585</v>
       </c>
       <c r="H38" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I38" t="n">
-        <v>254.647138832492</v>
+        <v>288.840597396464</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38"/>
       <c r="M38" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" t="n">
-        <v>98.9122096176604</v>
+        <v>99.3755937277155</v>
       </c>
       <c r="E39" t="n">
-        <v>86.66667</v>
+        <v>57.777778</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G39" t="n">
-        <v>7.87349395722155</v>
+        <v>89.8236422510494</v>
       </c>
       <c r="H39" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I39" t="n">
-        <v>240.452373574882</v>
+        <v>320.977013978765</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2342,36 +2381,36 @@
       </c>
       <c r="L39"/>
       <c r="M39" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
       <c r="D40" t="n">
-        <v>98.4186448395213</v>
+        <v>80.6471562212609</v>
       </c>
       <c r="E40" t="n">
-        <v>80</v>
+        <v>57.777778</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>5.33696226189318</v>
+        <v>92.1767136326519</v>
       </c>
       <c r="H40" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>230.755607101415</v>
+        <v>261.601647853913</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
@@ -2381,114 +2420,114 @@
       </c>
       <c r="L40"/>
       <c r="M40" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>87.5083749437157</v>
       </c>
       <c r="E41" t="n">
-        <v>73.33333</v>
+        <v>57.777778</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G41" t="n">
-        <v>1.14382492657479</v>
+        <v>89.2539135377252</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>174.477154926575</v>
+        <v>264.540066481441</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
+        <v>88.3959792174171</v>
       </c>
       <c r="E42" t="n">
-        <v>73.33333</v>
+        <v>62.222222</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G42" t="n">
-        <v>5.54606757726523</v>
+        <v>92.0331840822058</v>
       </c>
       <c r="H42" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>234.879397577265</v>
+        <v>259.151385299623</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D43" t="n">
-        <v>97.3178793755558</v>
+        <v>86.027638754756</v>
       </c>
       <c r="E43" t="n">
-        <v>68.88889</v>
+        <v>62.222222</v>
       </c>
       <c r="F43" t="n">
-        <v>11.1111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="G43" t="n">
-        <v>10.6387071115924</v>
+        <v>60.8972780777365</v>
       </c>
       <c r="H43" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I43" t="n">
-        <v>232.956587598259</v>
+        <v>254.647138832492</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -2498,114 +2537,114 @@
       </c>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D44" t="n">
-        <v>83.4464942144378</v>
+        <v>50.3015481776046</v>
       </c>
       <c r="E44" t="n">
-        <v>68.88889</v>
+        <v>51.11111</v>
       </c>
       <c r="F44" t="n">
-        <v>22.2222222222222</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>6.14939833029048</v>
+        <v>19.4481988341114</v>
       </c>
       <c r="H44" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I44" t="n">
-        <v>247.707004766951</v>
+        <v>206.194190345049</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44"/>
       <c r="M44" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="n">
+        <v>98.9122096176604</v>
+      </c>
+      <c r="E45" t="n">
+        <v>84.44444</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.87349395722155</v>
+      </c>
+      <c r="H45" t="n">
         <v>47</v>
       </c>
-      <c r="D45" t="n">
-        <v>97.2462993624277</v>
-      </c>
-      <c r="E45" t="n">
-        <v>80</v>
-      </c>
-      <c r="F45" t="n">
-        <v>11.1111111111111</v>
-      </c>
-      <c r="G45" t="n">
-        <v>14.7057925432929</v>
-      </c>
-      <c r="H45" t="n">
-        <v>43</v>
-      </c>
       <c r="I45" t="n">
-        <v>246.063203016832</v>
+        <v>238.230143574882</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>98.4186448395213</v>
       </c>
       <c r="E46" t="n">
-        <v>80</v>
+        <v>77.77778</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.016586446884</v>
+        <v>5.33696226189318</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I46" t="n">
-        <v>279.016586446884</v>
+        <v>228.533387101414</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2615,40 +2654,46 @@
       </c>
       <c r="L46"/>
       <c r="M46" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>25.4752882596388</v>
+        <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>66.666667</v>
+        <v>71.11111</v>
       </c>
       <c r="F47" t="n">
-        <v>11.1111111111111</v>
-      </c>
-      <c r="G47"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.14382492657479</v>
+      </c>
       <c r="H47" t="n">
-        <v>88</v>
-      </c>
-      <c r="I47"/>
-      <c r="J47"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>172.254934926575</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -2656,143 +2701,155 @@
         <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" t="n">
-        <v>8.18033767541901</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>62.222222</v>
+        <v>71.11111</v>
       </c>
       <c r="F48" t="n">
-        <v>22.2222222222222</v>
-      </c>
-      <c r="G48"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.54606757726523</v>
+      </c>
       <c r="H48" t="n">
-        <v>100</v>
-      </c>
-      <c r="I48"/>
+        <v>56</v>
+      </c>
+      <c r="I48" t="n">
+        <v>232.657177577265</v>
+      </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
       <c r="D49" t="n">
-        <v>27.866660600359</v>
+        <v>97.3178793755558</v>
       </c>
       <c r="E49" t="n">
-        <v>62.222222</v>
+        <v>66.66667</v>
       </c>
       <c r="F49" t="n">
-        <v>22.2222222222222</v>
-      </c>
-      <c r="G49"/>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10.6387071115924</v>
+      </c>
       <c r="H49" t="n">
-        <v>100</v>
-      </c>
-      <c r="I49"/>
+        <v>45</v>
+      </c>
+      <c r="I49" t="n">
+        <v>230.734367598259</v>
+      </c>
       <c r="J49" t="n">
         <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D50" t="n">
-        <v>56.3954580958173</v>
+        <v>83.4464942144378</v>
       </c>
       <c r="E50" t="n">
-        <v>64.444444</v>
+        <v>64.44444</v>
       </c>
       <c r="F50" t="n">
-        <v>22.2222222222222</v>
-      </c>
-      <c r="G50"/>
+        <v>37.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.14939833029048</v>
+      </c>
       <c r="H50" t="n">
-        <v>100</v>
-      </c>
-      <c r="I50"/>
+        <v>67</v>
+      </c>
+      <c r="I50" t="n">
+        <v>258.540332544728</v>
+      </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D51" t="n">
-        <v>85.9074833009822</v>
+        <v>97.2462993624277</v>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>66.66667</v>
       </c>
       <c r="F51" t="n">
-        <v>54.5454545454545</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="G51" t="n">
-        <v>1.1650292952438</v>
+        <v>14.7057925432929</v>
       </c>
       <c r="H51" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I51" t="n">
-        <v>263.617967141681</v>
+        <v>232.729873016832</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -2800,224 +2857,200 @@
         <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D52" t="n">
-        <v>90.282264926986</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
         <v>77.77778</v>
       </c>
       <c r="F52" t="n">
-        <v>36.3636363636364</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.566023593103843</v>
+        <v>99.016586446884</v>
       </c>
       <c r="H52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>304.989704883726</v>
+        <v>276.794366446884</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D53" t="n">
-        <v>89.039414514038</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>64.444444</v>
       </c>
       <c r="F53" t="n">
-        <v>54.5454545454545</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.072212288624189</v>
-      </c>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="G53"/>
       <c r="H53" t="n">
-        <v>100</v>
-      </c>
-      <c r="I53" t="n">
-        <v>303.657081348117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D54" t="n">
-        <v>65.6100466128321</v>
+        <v>25.4752882596388</v>
       </c>
       <c r="E54" t="n">
-        <v>55.55556</v>
+        <v>66.666667</v>
       </c>
       <c r="F54" t="n">
-        <v>54.5454545454545</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.644540262932488</v>
-      </c>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="G54"/>
       <c r="H54" t="n">
-        <v>100</v>
-      </c>
-      <c r="I54" t="n">
-        <v>276.355601421219</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>8.18033767541901</v>
       </c>
       <c r="E55" t="n">
-        <v>80</v>
+        <v>62.222222</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>19.6372727671461</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G55"/>
       <c r="H55" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" t="n">
-        <v>203.637272767146</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I55"/>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D56" t="n">
-        <v>82.3800853950381</v>
+        <v>27.866660600359</v>
       </c>
       <c r="E56" t="n">
-        <v>71.11111</v>
+        <v>62.222222</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>24.3970879919209</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G56"/>
       <c r="H56" t="n">
-        <v>57</v>
-      </c>
-      <c r="I56" t="n">
-        <v>234.888283386959</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I56"/>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56"/>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" t="n">
-        <v>29.2775310116298</v>
+        <v>56.3954580958173</v>
       </c>
       <c r="E57" t="n">
-        <v>82.22222</v>
+        <v>64.444444</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G57"/>
       <c r="H57" t="n">
         <v>100</v>
       </c>
-      <c r="I57" t="n">
-        <v>211.49975101163</v>
-      </c>
+      <c r="I57"/>
       <c r="J57" t="n">
         <v>3</v>
       </c>
@@ -3026,422 +3059,422 @@
       </c>
       <c r="L57"/>
       <c r="M57" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D58" t="n">
-        <v>28.9910378259323</v>
+        <v>85.9074833009822</v>
       </c>
       <c r="E58" t="n">
-        <v>91.11111</v>
+        <v>57.77778</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58"/>
+        <v>54.5454545454545</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.1650292952438</v>
+      </c>
       <c r="H58" t="n">
-        <v>100</v>
-      </c>
-      <c r="I58"/>
+        <v>62</v>
+      </c>
+      <c r="I58" t="n">
+        <v>261.395747141681</v>
+      </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58"/>
       <c r="M58" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>90.282264926986</v>
       </c>
       <c r="E59" t="n">
-        <v>55.55556</v>
+        <v>77.77778</v>
       </c>
       <c r="F59" t="n">
-        <v>12.5</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G59" t="n">
-        <v>46.7585234237207</v>
+        <v>0.566023593103843</v>
       </c>
       <c r="H59" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I59" t="n">
-        <v>241.814083423721</v>
+        <v>304.989704883726</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59"/>
       <c r="M59" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>88</v>
       </c>
       <c r="D60" t="n">
-        <v>92.5445070971975</v>
+        <v>89.039414514038</v>
       </c>
       <c r="E60" t="n">
-        <v>55.55556</v>
+        <v>60</v>
       </c>
       <c r="F60" t="n">
-        <v>12.5</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G60" t="n">
-        <v>79.3056608579761</v>
+        <v>0.072212288624189</v>
       </c>
       <c r="H60" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>272.905727955174</v>
+        <v>303.657081348117</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60"/>
       <c r="M60" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
         <v>88</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>65.6100466128321</v>
       </c>
       <c r="E61" t="n">
-        <v>73.33333</v>
+        <v>55.55556</v>
       </c>
       <c r="F61" t="n">
-        <v>12.5</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G61" t="n">
-        <v>86.9102939314629</v>
+        <v>0.644540262932488</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>279.743623931463</v>
+        <v>276.355601421219</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61"/>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D62" t="n">
-        <v>98.7617885632518</v>
+        <v>11.766996910312</v>
       </c>
       <c r="E62" t="n">
-        <v>73.33333</v>
+        <v>68.888889</v>
       </c>
       <c r="F62" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>61.7644449151713</v>
+        <v>0.101749123484108</v>
       </c>
       <c r="H62" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>267.359563478423</v>
+        <v>210.757635033796</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62"/>
       <c r="M62" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D63" t="n">
-        <v>90.8545766323051</v>
+        <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>68.88889</v>
+        <v>77.77778</v>
       </c>
       <c r="F63" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>74.5430781709252</v>
+        <v>19.6372727671461</v>
       </c>
       <c r="H63" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>289.78654480323</v>
+        <v>201.415052767146</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63"/>
       <c r="M63" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" t="n">
-        <v>85.4937866389166</v>
+        <v>82.3800853950381</v>
       </c>
       <c r="E64" t="n">
-        <v>82.22222</v>
+        <v>71.11111</v>
       </c>
       <c r="F64" t="n">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>27.2506749163124</v>
+        <v>24.3970879919209</v>
       </c>
       <c r="H64" t="n">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="I64" t="n">
-        <v>319.300014888562</v>
+        <v>234.888283386959</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64"/>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" t="n">
-        <v>60</v>
+        <v>29.2775310116298</v>
       </c>
       <c r="E65" t="n">
-        <v>88.88889</v>
+        <v>80</v>
       </c>
       <c r="F65" t="n">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>13.2823467493465</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I65" t="n">
-        <v>228.50457008268</v>
+        <v>209.27753101163</v>
       </c>
       <c r="J65" t="n">
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65"/>
       <c r="M65" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
         <v>96</v>
       </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
       <c r="D66" t="n">
-        <v>84.3515167253664</v>
+        <v>28.9910378259323</v>
       </c>
       <c r="E66" t="n">
-        <v>82.22222</v>
+        <v>86.66667</v>
       </c>
       <c r="F66" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G66" t="n">
-        <v>25.2135032656789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G66"/>
       <c r="H66" t="n">
-        <v>32</v>
-      </c>
-      <c r="I66" t="n">
-        <v>257.120573324379</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I66"/>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66"/>
       <c r="M66" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>81.6424583789295</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>60</v>
+        <v>55.55556</v>
       </c>
       <c r="F67" t="n">
-        <v>41.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="G67" t="n">
-        <v>38.3538178047948</v>
+        <v>46.7585234237207</v>
       </c>
       <c r="H67" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I67" t="n">
-        <v>290.662942850391</v>
+        <v>241.814083423721</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67"/>
       <c r="M67" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>70.5855572519734</v>
+        <v>92.5445070971975</v>
       </c>
       <c r="E68" t="n">
-        <v>53.33333</v>
+        <v>55.55556</v>
       </c>
       <c r="F68" t="n">
-        <v>41.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="G68" t="n">
-        <v>30.0677733801373</v>
+        <v>79.3056608579761</v>
       </c>
       <c r="H68" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I68" t="n">
-        <v>265.653327298777</v>
+        <v>272.905727955174</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
@@ -3451,114 +3484,114 @@
       </c>
       <c r="L68"/>
       <c r="M68" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>41.4045292643402</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>55.55556</v>
+        <v>73.33333</v>
       </c>
       <c r="F69" t="n">
-        <v>41.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="G69" t="n">
-        <v>30.3870515295633</v>
+        <v>86.9102939314629</v>
       </c>
       <c r="H69" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="I69" t="n">
-        <v>260.01380746057</v>
+        <v>279.743623931463</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69"/>
       <c r="M69" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>49.4803351128707</v>
+        <v>98.7617885632518</v>
       </c>
       <c r="E70" t="n">
-        <v>55.55556</v>
+        <v>73.33333</v>
       </c>
       <c r="F70" t="n">
-        <v>41.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="G70" t="n">
-        <v>13.4636794250599</v>
+        <v>61.7644449151713</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I70" t="n">
-        <v>161.166241204597</v>
+        <v>267.359563478423</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70"/>
       <c r="M70" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>100</v>
+        <v>90.8545766323051</v>
       </c>
       <c r="E71" t="n">
-        <v>53.33333</v>
+        <v>68.88889</v>
       </c>
       <c r="F71" t="n">
-        <v>41.6666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="G71" t="n">
-        <v>62.2128103054147</v>
+        <v>74.5430781709252</v>
       </c>
       <c r="H71" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I71" t="n">
-        <v>267.212806972081</v>
+        <v>289.78654480323</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3568,356 +3601,368 @@
       </c>
       <c r="L71"/>
       <c r="M71" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D72" t="n">
-        <v>47.1080799545594</v>
+        <v>49.1351344420367</v>
       </c>
       <c r="E72" t="n">
-        <v>60</v>
+        <v>77.77778</v>
       </c>
       <c r="F72" t="n">
-        <v>33.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>3</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72"/>
       <c r="M72" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D73" t="n">
-        <v>66.1741633759659</v>
+        <v>85.4937866389166</v>
       </c>
       <c r="E73" t="n">
-        <v>69.78993</v>
+        <v>80</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
-      </c>
-      <c r="G73"/>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27.2506749163124</v>
+      </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73"/>
+        <v>91</v>
+      </c>
+      <c r="I73" t="n">
+        <v>317.077794888562</v>
+      </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L73"/>
       <c r="M73" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>29.0685016838052</v>
+        <v>60</v>
       </c>
       <c r="E74" t="n">
-        <v>67.338526</v>
+        <v>86.66667</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
-      </c>
-      <c r="G74"/>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13.2823467493465</v>
+      </c>
       <c r="H74" t="n">
-        <v>84</v>
-      </c>
-      <c r="I74"/>
+        <v>33</v>
+      </c>
+      <c r="I74" t="n">
+        <v>226.28235008268</v>
+      </c>
       <c r="J74" t="n">
         <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="n">
-        <v>2</v>
-      </c>
+      <c r="L74"/>
       <c r="M74" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>108</v>
       </c>
       <c r="D75" t="n">
-        <v>60.045701093646</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E75" t="n">
-        <v>88.88889</v>
+        <v>80</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75"/>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25.2135032656789</v>
+      </c>
       <c r="H75" t="n">
-        <v>100</v>
-      </c>
-      <c r="I75"/>
+        <v>32</v>
+      </c>
+      <c r="I75" t="n">
+        <v>254.898353324379</v>
+      </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75"/>
       <c r="M75" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4407088350896</v>
+        <v>81.6424583789295</v>
       </c>
       <c r="E76" t="n">
-        <v>62.661792</v>
+        <v>60</v>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
-      </c>
-      <c r="G76"/>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="G76" t="n">
+        <v>38.3538178047948</v>
+      </c>
       <c r="H76" t="n">
-        <v>100</v>
-      </c>
-      <c r="I76"/>
+        <v>69</v>
+      </c>
+      <c r="I76" t="n">
+        <v>290.662942850391</v>
+      </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L76"/>
       <c r="M76" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D77" t="n">
-        <v>39.1113943293231</v>
+        <v>70.5855572519734</v>
       </c>
       <c r="E77" t="n">
-        <v>87.230272</v>
+        <v>53.33333</v>
       </c>
       <c r="F77" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G77"/>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>30.0677733801373</v>
+      </c>
       <c r="H77" t="n">
-        <v>100</v>
-      </c>
-      <c r="I77"/>
+        <v>70</v>
+      </c>
+      <c r="I77" t="n">
+        <v>265.653327298777</v>
+      </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L77"/>
       <c r="M77" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D78" t="n">
-        <v>50.1958993306528</v>
+        <v>41.4045292643402</v>
       </c>
       <c r="E78" t="n">
-        <v>65.428038</v>
+        <v>55.55556</v>
       </c>
       <c r="F78" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G78"/>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="G78" t="n">
+        <v>30.3870515295633</v>
+      </c>
       <c r="H78" t="n">
-        <v>29</v>
-      </c>
-      <c r="I78"/>
+        <v>91</v>
+      </c>
+      <c r="I78" t="n">
+        <v>260.01380746057</v>
+      </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L78"/>
       <c r="M78" t="n">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D79" t="n">
-        <v>61.21972936706</v>
+        <v>49.4803351128707</v>
       </c>
       <c r="E79" t="n">
-        <v>67.884084</v>
+        <v>55.55556</v>
       </c>
       <c r="F79" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G79"/>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13.4636794250599</v>
+      </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>161.166241204597</v>
+      </c>
       <c r="J79" t="n">
         <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+      <c r="L79"/>
       <c r="M79" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D80" t="n">
-        <v>38.5740394919732</v>
+        <v>47.1080799545594</v>
       </c>
       <c r="E80" t="n">
-        <v>68.100858</v>
+        <v>60</v>
       </c>
       <c r="F80" t="n">
         <v>33.3333333333333</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I80"/>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L80"/>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D81" t="n">
-        <v>86.7140772219792</v>
+        <v>66.1741633759659</v>
       </c>
       <c r="E81" t="n">
-        <v>78.301646</v>
+        <v>69.78993</v>
       </c>
       <c r="F81" t="n">
-        <v>25</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="n">
@@ -3925,266 +3970,262 @@
       </c>
       <c r="I81"/>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D82" t="n">
-        <v>9.40098230509123</v>
+        <v>29.0685016838052</v>
       </c>
       <c r="E82" t="n">
-        <v>52.803294</v>
+        <v>67.338526</v>
       </c>
       <c r="F82" t="n">
-        <v>37.5</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D83" t="n">
-        <v>17.9876343973801</v>
+        <v>60.045701093646</v>
       </c>
       <c r="E83" t="n">
-        <v>69.882502</v>
+        <v>86.66667</v>
       </c>
       <c r="F83" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I83"/>
       <c r="J83" t="n">
         <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L83"/>
       <c r="M83" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D84" t="n">
-        <v>68.7766246982534</v>
+        <v>34.6727712734646</v>
       </c>
       <c r="E84" t="n">
-        <v>78.929179</v>
+        <v>71.11111</v>
       </c>
       <c r="F84" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L84"/>
       <c r="M84" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D85" t="n">
-        <v>93.1298740813175</v>
+        <v>12.4407088350896</v>
       </c>
       <c r="E85" t="n">
-        <v>51.22912</v>
+        <v>62.661792</v>
       </c>
       <c r="F85" t="n">
-        <v>60</v>
+        <v>37.5</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I85"/>
       <c r="J85" t="n">
         <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M85" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>39.1113943293231</v>
       </c>
       <c r="E86" t="n">
-        <v>50.335115</v>
+        <v>87.230272</v>
       </c>
       <c r="F86" t="n">
-        <v>66.6666666666667</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I86"/>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M86" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D87" t="n">
-        <v>35.0268037935056</v>
+        <v>50.1958993306528</v>
       </c>
       <c r="E87" t="n">
-        <v>62.927406</v>
+        <v>65.428038</v>
       </c>
       <c r="F87" t="n">
-        <v>40</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M87" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D88" t="n">
-        <v>21.8776868375151</v>
+        <v>61.21972936706</v>
       </c>
       <c r="E88" t="n">
-        <v>100</v>
+        <v>67.884084</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I88"/>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4193,328 +4234,360 @@
         <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
         <v>125</v>
       </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" t="s">
-        <v>108</v>
-      </c>
       <c r="D89" t="n">
-        <v>36.0074020631048</v>
+        <v>38.5740394919732</v>
       </c>
       <c r="E89" t="n">
-        <v>97.777778</v>
+        <v>68.100858</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89"/>
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6</v>
+      </c>
       <c r="M89" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D90" t="n">
-        <v>55.3527869715281</v>
+        <v>86.7140772219792</v>
       </c>
       <c r="E90" t="n">
-        <v>55.55556</v>
+        <v>78.301646</v>
       </c>
       <c r="F90" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
-      <c r="L90"/>
+      <c r="L90" t="n">
+        <v>5</v>
+      </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D91" t="n">
-        <v>39.8890392483469</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E91" t="n">
-        <v>51.11111</v>
+        <v>52.803294</v>
       </c>
       <c r="F91" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I91"/>
-      <c r="J91"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
-      <c r="L91"/>
+      <c r="L91" t="n">
+        <v>7</v>
+      </c>
       <c r="M91" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D92" t="n">
-        <v>72.6593376346171</v>
+        <v>17.9876343973801</v>
       </c>
       <c r="E92" t="n">
-        <v>53.33333</v>
+        <v>69.882502</v>
       </c>
       <c r="F92" t="n">
         <v>25</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I92"/>
-      <c r="J92"/>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
-      <c r="L92"/>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
       <c r="M92" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D93" t="n">
-        <v>88.3850078434078</v>
+        <v>68.7766246982534</v>
       </c>
       <c r="E93" t="n">
-        <v>51.11111</v>
+        <v>78.929179</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I93"/>
-      <c r="J93"/>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
-      <c r="L93"/>
+      <c r="L93" t="n">
+        <v>4</v>
+      </c>
       <c r="M93" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D94" t="n">
-        <v>96.9990242386877</v>
+        <v>93.1298740813175</v>
       </c>
       <c r="E94" t="n">
-        <v>77.77778</v>
+        <v>51.22912</v>
       </c>
       <c r="F94" t="n">
-        <v>25</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I94"/>
-      <c r="J94"/>
+      <c r="J94" t="n">
+        <v>3</v>
+      </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
-      <c r="L94"/>
+      <c r="L94" t="n">
+        <v>3</v>
+      </c>
       <c r="M94" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D95" t="n">
-        <v>94.1426394673889</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>77.77778</v>
+        <v>50.335115</v>
       </c>
       <c r="F95" t="n">
-        <v>12.5</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I95"/>
-      <c r="J95"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
-      <c r="L95"/>
+      <c r="L95" t="n">
+        <v>5</v>
+      </c>
       <c r="M95" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D96" t="n">
-        <v>49.0993179430452</v>
+        <v>35.0268037935056</v>
       </c>
       <c r="E96" t="n">
-        <v>62.222222</v>
+        <v>62.927406</v>
       </c>
       <c r="F96" t="n">
-        <v>25</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I96"/>
-      <c r="J96"/>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
-      <c r="L96"/>
+      <c r="L96" t="n">
+        <v>4</v>
+      </c>
       <c r="M96" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D97" t="n">
-        <v>91.8099974513869</v>
+        <v>21.8776868375151</v>
       </c>
       <c r="E97" t="n">
-        <v>62.222222</v>
+        <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I97"/>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
-      </c>
-      <c r="L97"/>
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
       <c r="M97" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D98" t="n">
-        <v>100</v>
+        <v>36.0074020631048</v>
       </c>
       <c r="E98" t="n">
-        <v>62.222222</v>
+        <v>95.555556</v>
       </c>
       <c r="F98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="n">
@@ -4529,282 +4602,264 @@
       </c>
       <c r="L98"/>
       <c r="M98" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D99" t="n">
-        <v>86.5338600255517</v>
+        <v>55.3527869715281</v>
       </c>
       <c r="E99" t="n">
-        <v>82.22222</v>
+        <v>53.33333</v>
       </c>
       <c r="F99" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I99"/>
-      <c r="J99" t="n">
-        <v>3</v>
-      </c>
+      <c r="J99"/>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99"/>
       <c r="M99" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D100" t="n">
-        <v>42.6890552310836</v>
+        <v>39.8890392483469</v>
       </c>
       <c r="E100" t="n">
-        <v>66.666667</v>
+        <v>51.11111</v>
       </c>
       <c r="F100" t="n">
         <v>25</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I100"/>
-      <c r="J100" t="n">
-        <v>3</v>
-      </c>
+      <c r="J100"/>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100"/>
       <c r="M100" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D101" t="n">
-        <v>37.4806806871606</v>
+        <v>72.6593376346171</v>
       </c>
       <c r="E101" t="n">
-        <v>66.666667</v>
+        <v>53.33333</v>
       </c>
       <c r="F101" t="n">
         <v>25</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I101"/>
-      <c r="J101" t="n">
-        <v>3</v>
-      </c>
+      <c r="J101"/>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101"/>
       <c r="M101" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D102" t="n">
-        <v>53.2313104822968</v>
+        <v>88.3850078434078</v>
       </c>
       <c r="E102" t="n">
-        <v>66.66667</v>
+        <v>51.11111</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G102"/>
       <c r="H102" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I102"/>
-      <c r="J102" t="n">
-        <v>3</v>
-      </c>
+      <c r="J102"/>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102"/>
       <c r="M102" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D103" t="n">
-        <v>97.2953537279299</v>
+        <v>96.9990242386877</v>
       </c>
       <c r="E103" t="n">
-        <v>82.22222</v>
+        <v>75.55556</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I103"/>
-      <c r="J103" t="n">
-        <v>3</v>
-      </c>
+      <c r="J103"/>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103"/>
       <c r="M103" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D104" t="n">
-        <v>71.6969623422411</v>
+        <v>94.1426394673889</v>
       </c>
       <c r="E104" t="n">
-        <v>82.22222</v>
+        <v>75.55556</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G104"/>
       <c r="H104" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I104"/>
-      <c r="J104" t="n">
-        <v>3</v>
-      </c>
+      <c r="J104"/>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104"/>
       <c r="M104" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="D105" t="n">
-        <v>32.5149885056798</v>
+        <v>49.0993179430452</v>
       </c>
       <c r="E105" t="n">
-        <v>84.444444</v>
+        <v>60</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G105"/>
       <c r="H105" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I105"/>
-      <c r="J105" t="n">
-        <v>3</v>
-      </c>
+      <c r="J105"/>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105"/>
       <c r="M105" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D106" t="n">
-        <v>77.986833542685</v>
+        <v>91.8099974513869</v>
       </c>
       <c r="E106" t="n">
-        <v>82.22222</v>
+        <v>62.222222</v>
       </c>
       <c r="F106" t="n">
-        <v>36.3636363636364</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.23071272602277</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G106"/>
       <c r="H106" t="n">
         <v>100</v>
       </c>
-      <c r="I106" t="n">
-        <v>297.803402632344</v>
-      </c>
+      <c r="I106"/>
       <c r="J106" t="n">
         <v>3</v>
       </c>
@@ -4813,37 +4868,33 @@
       </c>
       <c r="L106"/>
       <c r="M106" t="n">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
         <v>147</v>
       </c>
-      <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" t="s">
-        <v>146</v>
-      </c>
       <c r="D107" t="n">
-        <v>96.2017524769695</v>
+        <v>100</v>
       </c>
       <c r="E107" t="n">
-        <v>71.11111</v>
+        <v>60</v>
       </c>
       <c r="F107" t="n">
-        <v>36.3636363636364</v>
-      </c>
-      <c r="G107" t="n">
-        <v>7.9765793321376</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G107"/>
       <c r="H107" t="n">
-        <v>99</v>
-      </c>
-      <c r="I107" t="n">
-        <v>310.653078172743</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I107"/>
       <c r="J107" t="n">
         <v>3</v>
       </c>
@@ -4852,270 +4903,246 @@
       </c>
       <c r="L107"/>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D108" t="n">
-        <v>97.0341353962278</v>
+        <v>86.5338600255517</v>
       </c>
       <c r="E108" t="n">
-        <v>55.55556</v>
+        <v>82.22222</v>
       </c>
       <c r="F108" t="n">
-        <v>27.2727272727273</v>
-      </c>
-      <c r="G108" t="n">
-        <v>7.46028813594896</v>
-      </c>
+        <v>12.5</v>
+      </c>
+      <c r="G108"/>
       <c r="H108" t="n">
-        <v>56</v>
-      </c>
-      <c r="I108" t="n">
-        <v>243.322710804904</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I108"/>
       <c r="J108" t="n">
         <v>3</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108"/>
       <c r="M108" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D109" t="n">
-        <v>98.9014640459717</v>
+        <v>42.6890552310836</v>
       </c>
       <c r="E109" t="n">
-        <v>55.55556</v>
+        <v>64.444444</v>
       </c>
       <c r="F109" t="n">
-        <v>27.2727272727273</v>
-      </c>
-      <c r="G109" t="n">
-        <v>31.6469324807288</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G109"/>
       <c r="H109" t="n">
-        <v>42</v>
-      </c>
-      <c r="I109" t="n">
-        <v>255.376683799428</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I109"/>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109"/>
       <c r="M109" t="n">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D110" t="n">
-        <v>76.3671057432737</v>
+        <v>37.4806806871606</v>
       </c>
       <c r="E110" t="n">
-        <v>53.33333</v>
+        <v>64.444444</v>
       </c>
       <c r="F110" t="n">
-        <v>36.3636363636364</v>
-      </c>
-      <c r="G110" t="n">
-        <v>9.86420954806068</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G110"/>
       <c r="H110" t="n">
-        <v>76</v>
-      </c>
-      <c r="I110" t="n">
-        <v>251.928281654971</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I110"/>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110"/>
       <c r="M110" t="n">
-        <v>40</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D111" t="n">
-        <v>100</v>
+        <v>97.2953537279299</v>
       </c>
       <c r="E111" t="n">
-        <v>55.55556</v>
+        <v>82.22222</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
-      </c>
-      <c r="G111" t="n">
-        <v>41.6818339622474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G111"/>
       <c r="H111" t="n">
-        <v>29</v>
-      </c>
-      <c r="I111" t="n">
-        <v>246.237393962247</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I111"/>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111"/>
       <c r="M111" t="n">
-        <v>44</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D112" t="n">
-        <v>86.7430413008064</v>
+        <v>71.6969623422411</v>
       </c>
       <c r="E112" t="n">
-        <v>55.555556</v>
+        <v>82.22222</v>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
-      </c>
-      <c r="G112" t="n">
-        <v>86.1330435257328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G112"/>
       <c r="H112" t="n">
-        <v>31</v>
-      </c>
-      <c r="I112" t="n">
-        <v>299.431640826539</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I112"/>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112"/>
       <c r="M112" t="n">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D113" t="n">
-        <v>100</v>
+        <v>32.5149885056798</v>
       </c>
       <c r="E113" t="n">
-        <v>53.333333</v>
+        <v>84.444444</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
-      </c>
-      <c r="G113" t="n">
-        <v>85.30220261826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G113"/>
       <c r="H113" t="n">
-        <v>7</v>
-      </c>
-      <c r="I113" t="n">
-        <v>265.63553561826</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I113"/>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113"/>
       <c r="M113" t="n">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>77.986833542685</v>
       </c>
       <c r="E114" t="n">
-        <v>75.55556</v>
+        <v>77.77778</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G114" t="n">
-        <v>8.12860989683308</v>
+        <v>1.23071272602277</v>
       </c>
       <c r="H114" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I114" t="n">
-        <v>299.684169896833</v>
+        <v>293.358962632344</v>
       </c>
       <c r="J114" t="n">
         <v>3</v>
@@ -5125,85 +5152,510 @@
       </c>
       <c r="L114"/>
       <c r="M114" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D115" t="n">
-        <v>3.08708129583914</v>
+        <v>96.2017524769695</v>
       </c>
       <c r="E115" t="n">
-        <v>71.11111</v>
+        <v>68.88889</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>7.9765793321376</v>
       </c>
       <c r="H115" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I115" t="n">
-        <v>117.198191295839</v>
+        <v>308.430858172743</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115"/>
       <c r="M115" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
         <v>160</v>
       </c>
-      <c r="B116" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" t="s">
-        <v>159</v>
-      </c>
       <c r="D116" t="n">
-        <v>11.5531152313921</v>
+        <v>97.0341353962278</v>
       </c>
       <c r="E116" t="n">
-        <v>97.77778</v>
+        <v>53.33333</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>27.2727272727273</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>7.46028813594896</v>
       </c>
       <c r="H116" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I116" t="n">
-        <v>209.330895231392</v>
+        <v>241.100480804904</v>
       </c>
       <c r="J116" t="n">
         <v>3</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116"/>
       <c r="M116" t="n">
-        <v>65</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" t="n">
+        <v>98.9014640459717</v>
+      </c>
+      <c r="E117" t="n">
+        <v>53.33333</v>
+      </c>
+      <c r="F117" t="n">
+        <v>27.2727272727273</v>
+      </c>
+      <c r="G117" t="n">
+        <v>31.6469324807288</v>
+      </c>
+      <c r="H117" t="n">
+        <v>42</v>
+      </c>
+      <c r="I117" t="n">
+        <v>253.154453799428</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" t="n">
+        <v>76.3671057432737</v>
+      </c>
+      <c r="E118" t="n">
+        <v>51.11111</v>
+      </c>
+      <c r="F118" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9.86420954806068</v>
+      </c>
+      <c r="H118" t="n">
+        <v>76</v>
+      </c>
+      <c r="I118" t="n">
+        <v>249.706061654971</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118"/>
+      <c r="M118" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" t="n">
+        <v>100</v>
+      </c>
+      <c r="E119" t="n">
+        <v>55.55556</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="n">
+        <v>41.6818339622474</v>
+      </c>
+      <c r="H119" t="n">
+        <v>29</v>
+      </c>
+      <c r="I119" t="n">
+        <v>246.237393962247</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119"/>
+      <c r="M119" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" t="n">
+        <v>86.7430413008064</v>
+      </c>
+      <c r="E120" t="n">
+        <v>55.555556</v>
+      </c>
+      <c r="F120" t="n">
+        <v>40</v>
+      </c>
+      <c r="G120" t="n">
+        <v>86.1330435257328</v>
+      </c>
+      <c r="H120" t="n">
+        <v>31</v>
+      </c>
+      <c r="I120" t="n">
+        <v>299.431640826539</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120"/>
+      <c r="M120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" t="n">
+        <v>100</v>
+      </c>
+      <c r="E121" t="n">
+        <v>53.333333</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
+      </c>
+      <c r="G121" t="n">
+        <v>85.30220261826</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+      <c r="I121" t="n">
+        <v>265.63553561826</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="n">
+        <v>95.9150558706487</v>
+      </c>
+      <c r="E122" t="n">
+        <v>73.33333</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7.81416870185758</v>
+      </c>
+      <c r="H122" t="n">
+        <v>74</v>
+      </c>
+      <c r="I122" t="n">
+        <v>276.062554572506</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" t="n">
+        <v>77.77778</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.38214423735175</v>
+      </c>
+      <c r="H123" t="n">
+        <v>99</v>
+      </c>
+      <c r="I123" t="n">
+        <v>304.159924237352</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" t="n">
+        <v>73.33333</v>
+      </c>
+      <c r="F124" t="n">
+        <v>20</v>
+      </c>
+      <c r="G124" t="n">
+        <v>8.12860989683308</v>
+      </c>
+      <c r="H124" t="n">
+        <v>96</v>
+      </c>
+      <c r="I124" t="n">
+        <v>297.461939896833</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124"/>
+      <c r="M124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>73.33333</v>
+      </c>
+      <c r="F125" t="n">
+        <v>25</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="n">
+        <v>100</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125" t="n">
+        <v>3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125"/>
+      <c r="M125" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.08708129583914</v>
+      </c>
+      <c r="E126" t="n">
+        <v>71.11111</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>43</v>
+      </c>
+      <c r="I126" t="n">
+        <v>117.198191295839</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126"/>
+      <c r="M126" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.5531152313921</v>
+      </c>
+      <c r="E127" t="n">
+        <v>82.22222</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>100</v>
+      </c>
+      <c r="I127" t="n">
+        <v>193.775335231392</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127"/>
+      <c r="M127" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Protection_Reach_Ranking_Scores_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -53,6 +53,15 @@
     <t xml:space="preserve">Rank_Across_All_Reaches</t>
   </si>
   <si>
+    <t xml:space="preserve">Alder Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Chiwawa River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beaver Creek Lower 09</t>
   </si>
   <si>
@@ -65,9 +74,6 @@
     <t xml:space="preserve">Big Meadow Creek 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Big Meadow Creek</t>
   </si>
   <si>
@@ -116,12 +122,15 @@
     <t xml:space="preserve">Chewuch River Pearrygin 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -140,15 +149,9 @@
     <t xml:space="preserve">Chiwawa River Lower 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Chiwawa River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiwawa River Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiwawa River Lower 04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiwawa River Lower 06</t>
   </si>
   <si>
@@ -161,12 +164,6 @@
     <t xml:space="preserve">Middle Chiwawa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiwawa River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Chiwawa River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
@@ -359,6 +359,9 @@
     <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Nason Creek Lower 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
   </si>
   <si>
@@ -380,10 +383,10 @@
     <t xml:space="preserve">Twisp River Headwaters</t>
   </si>
   <si>
-    <t xml:space="preserve">Panther Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panther Creek</t>
+    <t xml:space="preserve">Roaring Creek Entiat 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roaring Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-10</t>
@@ -428,6 +431,9 @@
     <t xml:space="preserve">Similkameen 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">Stormy Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tonasket 16-2</t>
   </si>
   <si>
@@ -479,12 +485,15 @@
     <t xml:space="preserve">Twisp River Middle 08</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twisp River Upper 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Twisp River Upper 03</t>
   </si>
   <si>
@@ -509,6 +518,9 @@
     <t xml:space="preserve">Wenatchee River Beaver 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenatchee River Beaver 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenatchee River Derby 06</t>
   </si>
   <si>
@@ -521,9 +533,15 @@
     <t xml:space="preserve">Wenatchee River-Nahahum Canyon</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenatchee River Nahahum 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenatchee River Nahahum 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenatchee River Nahahum 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">White River Lower 06</t>
   </si>
   <si>
@@ -539,13 +557,10 @@
     <t xml:space="preserve">White River Lower 09</t>
   </si>
   <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
+    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
 </sst>
 </file>
@@ -929,17 +944,17 @@
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>46.6465444297908</v>
+        <v>96.2501635550584</v>
       </c>
       <c r="E2" t="n">
-        <v>55.555556</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>22.2222222222222</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="n">
@@ -950,7 +965,7 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -964,23 +979,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5825765710022</v>
+        <v>46.6465444297908</v>
       </c>
       <c r="E3" t="n">
-        <v>71.111111</v>
+        <v>57.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.9466207214468</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G3"/>
       <c r="H3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" t="n">
-        <v>194.640308292449</v>
-      </c>
+      <c r="I3"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -989,7 +1000,7 @@
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -997,25 +1008,29 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>95.0608657364311</v>
+        <v>12.5825765710022</v>
       </c>
       <c r="E4" t="n">
-        <v>73.333333</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="n">
+        <v>10.9466207214468</v>
+      </c>
       <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <v>193.529197292449</v>
+      </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
@@ -1024,37 +1039,33 @@
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>98.1370600401239</v>
+        <v>95.0608657364311</v>
       </c>
       <c r="E5" t="n">
-        <v>73.33333</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5"/>
       <c r="H5" t="n">
         <v>100</v>
       </c>
-      <c r="I5" t="n">
-        <v>271.470390040124</v>
-      </c>
+      <c r="I5"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -1063,7 +1074,7 @@
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -1071,38 +1082,38 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>70.931073843182</v>
+        <v>98.1370600401239</v>
       </c>
       <c r="E6" t="n">
-        <v>68.88889</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>45.2049303137455</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>222.024894156928</v>
+        <v>268.137060040124</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1110,428 +1121,428 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>79.1672471919955</v>
+        <v>70.931073843182</v>
       </c>
       <c r="E7" t="n">
-        <v>68.88889</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>20.8672740414653</v>
+        <v>45.2049303137455</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>193.923411233461</v>
+        <v>218.136004156928</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="n">
-        <v>95.81184510461</v>
+        <v>79.1672471919955</v>
       </c>
       <c r="E8" t="n">
-        <v>62.22222</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>12.5847626120527</v>
+        <v>20.8672740414653</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>226.618827716663</v>
+        <v>190.034521233461</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>90.2842007147304</v>
+        <v>95.81184510461</v>
       </c>
       <c r="E9" t="n">
-        <v>62.22222</v>
+        <v>57.5</v>
       </c>
       <c r="F9" t="n">
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>7.58233385915519</v>
+        <v>12.5847626120527</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>207.088754573886</v>
+        <v>221.896607716663</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>90.2842007147304</v>
       </c>
       <c r="E10" t="n">
-        <v>62.22222</v>
+        <v>57.5</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.39706504753158</v>
+        <v>7.58233385915519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I10" t="n">
-        <v>188.619285047532</v>
+        <v>202.366534573886</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>62.22222</v>
+        <v>62.5</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>18.3866856513307</v>
+        <v>1.39706504753158</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>212.608905651331</v>
+        <v>188.897065047532</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>80.9900671418518</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>55.55556</v>
+        <v>62.5</v>
       </c>
       <c r="F12" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>32.7324602216016</v>
+        <v>18.3866856513307</v>
       </c>
       <c r="H12" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>250.778087363453</v>
+        <v>212.886685651331</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>86.466842175267</v>
+        <v>80.9900671418518</v>
       </c>
       <c r="E13" t="n">
-        <v>73.33333</v>
+        <v>52.5</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G13" t="n">
-        <v>8.48354860931903</v>
+        <v>32.7324602216016</v>
       </c>
       <c r="H13" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I13" t="n">
-        <v>287.283720784586</v>
+        <v>247.722527363453</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>3.44705674385717</v>
+        <v>86.466842175267</v>
       </c>
       <c r="E14" t="n">
-        <v>57.77778</v>
+        <v>72.5</v>
       </c>
       <c r="F14" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>9.80574271165818</v>
+        <v>8.48354860931903</v>
       </c>
       <c r="H14" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I14" t="n">
-        <v>188.530579455515</v>
+        <v>286.450390784586</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>98.1852597687865</v>
+        <v>3.44705674385717</v>
       </c>
       <c r="E15" t="n">
-        <v>57.77778</v>
+        <v>55</v>
       </c>
       <c r="F15" t="n">
         <v>37.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.91560130108416</v>
+        <v>9.80574271165818</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="I15" t="n">
-        <v>209.378641069871</v>
+        <v>185.752799455515</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>93.8235377269847</v>
+        <v>98.1852597687865</v>
       </c>
       <c r="E16" t="n">
-        <v>57.77778</v>
+        <v>55</v>
       </c>
       <c r="F16" t="n">
         <v>37.5</v>
       </c>
       <c r="G16" t="n">
-        <v>21.6990515232888</v>
+        <v>2.91560130108416</v>
       </c>
       <c r="H16" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>287.800369250274</v>
+        <v>206.600861069871</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>48.0074118062286</v>
+        <v>93.8235377269847</v>
       </c>
       <c r="E17" t="n">
-        <v>75.55556</v>
+        <v>55</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>21.6990515232888</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I17" t="n">
-        <v>223.562971806229</v>
+        <v>285.022589250274</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1539,16 +1550,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>42.3931652095506</v>
+        <v>28.5611902157318</v>
       </c>
       <c r="E18" t="n">
-        <v>86.66667</v>
+        <v>70</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1560,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>229.059835209551</v>
+        <v>198.561190215732</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -1570,24 +1581,24 @@
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
       <c r="D19" t="n">
-        <v>96.4368955685615</v>
+        <v>48.0074118062286</v>
       </c>
       <c r="E19" t="n">
-        <v>77.77778</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1599,7 +1610,7 @@
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>274.214675568561</v>
+        <v>228.007411806229</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -1609,24 +1620,24 @@
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
-        <v>86.2053125779419</v>
+        <v>42.3931652095506</v>
       </c>
       <c r="E20" t="n">
-        <v>82.22222</v>
+        <v>85</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1638,7 +1649,7 @@
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>268.427532577942</v>
+        <v>227.393165209551</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -1648,46 +1659,46 @@
       </c>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>87.6370389553426</v>
+        <v>96.4368955685615</v>
       </c>
       <c r="E21" t="n">
-        <v>86.66667</v>
+        <v>75</v>
       </c>
       <c r="F21" t="n">
-        <v>14.2857142857143</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.50398749142366</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>219.093410732481</v>
+        <v>271.436895568562</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -1698,74 +1709,74 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>84.3579676186858</v>
+        <v>86.2053125779419</v>
       </c>
       <c r="E22" t="n">
-        <v>51.11111</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>44.4444444444444</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.0877546210991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>224.001276684229</v>
+        <v>266.205312577942</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
       <c r="D23" t="n">
-        <v>32.1977204568532</v>
+        <v>87.6370389553426</v>
       </c>
       <c r="E23" t="n">
-        <v>57.77778</v>
+        <v>85</v>
       </c>
       <c r="F23" t="n">
-        <v>44.4444444444444</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="G23" t="n">
-        <v>0.550817342490544</v>
+        <v>6.50398749142366</v>
       </c>
       <c r="H23" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>219.970762243788</v>
+        <v>217.426740732481</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1773,38 +1784,38 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>31.2877020449583</v>
+        <v>84.3579676186858</v>
       </c>
       <c r="E24" t="n">
-        <v>51.11111</v>
+        <v>52.5</v>
       </c>
       <c r="F24" t="n">
-        <v>55.5555555555556</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G24" t="n">
-        <v>1.11586865928625</v>
+        <v>15.0877546210991</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I24" t="n">
-        <v>239.0702362598</v>
+        <v>225.390166684229</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1812,38 +1823,38 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>59.4011485524674</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E25" t="n">
-        <v>57.77778</v>
+        <v>52.5</v>
       </c>
       <c r="F25" t="n">
         <v>44.4444444444444</v>
       </c>
       <c r="G25" t="n">
-        <v>3.36474410618836</v>
+        <v>0.550817342490544</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I25" t="n">
-        <v>264.9881171031</v>
+        <v>214.692982243788</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -1851,28 +1862,28 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>17.2511007913454</v>
+        <v>59.4011485524674</v>
       </c>
       <c r="E26" t="n">
-        <v>62.22222</v>
+        <v>52.5</v>
       </c>
       <c r="F26" t="n">
-        <v>33.3333333333333</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0775301342115698</v>
+        <v>3.36474410618836</v>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>212.88418425889</v>
+        <v>259.7103371031</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -1882,7 +1893,7 @@
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -1890,25 +1901,29 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>98.2745398602345</v>
+        <v>17.2511007913454</v>
       </c>
       <c r="E27" t="n">
-        <v>75.55556</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27"/>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0775301342115698</v>
+      </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" t="n">
+        <v>210.66196425889</v>
+      </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
@@ -1917,24 +1932,24 @@
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
       <c r="D28" t="n">
-        <v>93.3825341858876</v>
+        <v>98.2745398602345</v>
       </c>
       <c r="E28" t="n">
-        <v>71.11111</v>
+        <v>75</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1952,24 +1967,24 @@
       </c>
       <c r="L28"/>
       <c r="M28" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
       </c>
       <c r="D29" t="n">
         <v>84.2941629433307</v>
       </c>
       <c r="E29" t="n">
-        <v>68.88889</v>
+        <v>65</v>
       </c>
       <c r="F29" t="n">
         <v>16.6666666666667</v>
@@ -1981,7 +1996,7 @@
         <v>75</v>
       </c>
       <c r="I29" t="n">
-        <v>250.540226084477</v>
+        <v>246.651336084477</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1991,24 +2006,24 @@
       </c>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
       </c>
       <c r="D30" t="n">
         <v>74.029215410057</v>
       </c>
       <c r="E30" t="n">
-        <v>75.55556</v>
+        <v>77.5</v>
       </c>
       <c r="F30" t="n">
         <v>8.33333333333333</v>
@@ -2020,7 +2035,7 @@
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>269.4115387483</v>
+        <v>271.3559787483</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -2030,24 +2045,24 @@
       </c>
       <c r="L30"/>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
         <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
       </c>
       <c r="D31" t="n">
         <v>63.7180796731359</v>
       </c>
       <c r="E31" t="n">
-        <v>75.55556</v>
+        <v>77.5</v>
       </c>
       <c r="F31" t="n">
         <v>8.33333333333333</v>
@@ -2059,7 +2074,7 @@
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>270.452082844239</v>
+        <v>272.396522844239</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -2069,24 +2084,24 @@
       </c>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
       </c>
       <c r="D32" t="n">
         <v>67.1344148358092</v>
       </c>
       <c r="E32" t="n">
-        <v>77.77778</v>
+        <v>77.5</v>
       </c>
       <c r="F32" t="n">
         <v>8.33333333333333</v>
@@ -2098,7 +2113,7 @@
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>261.364863971049</v>
+        <v>261.087083971049</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -2113,19 +2128,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
         <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
       </c>
       <c r="D33" t="n">
         <v>57.7977891495536</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="F33" t="n">
         <v>16.6666666666667</v>
@@ -2137,7 +2152,7 @@
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>239.150377328248</v>
+        <v>241.650377328249</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -2147,24 +2162,24 @@
       </c>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
         <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
       </c>
       <c r="D34" t="n">
         <v>11.6750717416415</v>
       </c>
       <c r="E34" t="n">
-        <v>93.33333</v>
+        <v>95</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2176,7 +2191,7 @@
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>205.008401741642</v>
+        <v>206.675071741642</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -2186,24 +2201,24 @@
       </c>
       <c r="L34"/>
       <c r="M34" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
       <c r="D35" t="n">
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>86.66667</v>
+        <v>87.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2215,7 +2230,7 @@
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>286.66667</v>
+        <v>287.5</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -2225,24 +2240,24 @@
       </c>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
       </c>
       <c r="D36" t="n">
         <v>97.2132417905144</v>
       </c>
       <c r="E36" t="n">
-        <v>86.66667</v>
+        <v>87.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2254,7 +2269,7 @@
         <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>287.077558600818</v>
+        <v>287.910888600818</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -2264,24 +2279,24 @@
       </c>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
         <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
       </c>
       <c r="D37" t="n">
         <v>66.5615916752238</v>
       </c>
       <c r="E37" t="n">
-        <v>71.11111</v>
+        <v>67.5</v>
       </c>
       <c r="F37" t="n">
         <v>16.6666666666667</v>
@@ -2293,7 +2308,7 @@
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>259.223260854436</v>
+        <v>255.612150854436</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -2303,24 +2318,24 @@
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
       </c>
       <c r="D38" t="n">
         <v>76.1068706798624</v>
       </c>
       <c r="E38" t="n">
-        <v>51.111111</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
         <v>42.8571428571429</v>
@@ -2332,7 +2347,7 @@
         <v>54</v>
       </c>
       <c r="I38" t="n">
-        <v>288.840597396464</v>
+        <v>287.729486396464</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2342,24 +2357,24 @@
       </c>
       <c r="L38"/>
       <c r="M38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="n">
         <v>99.3755937277155</v>
       </c>
       <c r="E39" t="n">
-        <v>57.777778</v>
+        <v>52.5</v>
       </c>
       <c r="F39" t="n">
         <v>25</v>
@@ -2371,7 +2386,7 @@
         <v>49</v>
       </c>
       <c r="I39" t="n">
-        <v>320.977013978765</v>
+        <v>315.699235978765</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2381,24 +2396,24 @@
       </c>
       <c r="L39"/>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="n">
         <v>80.6471562212609</v>
       </c>
       <c r="E40" t="n">
-        <v>57.777778</v>
+        <v>52.5</v>
       </c>
       <c r="F40" t="n">
         <v>25</v>
@@ -2410,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>261.601647853913</v>
+        <v>256.323869853913</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
@@ -2420,24 +2435,24 @@
       </c>
       <c r="L40"/>
       <c r="M40" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="n">
         <v>87.5083749437157</v>
       </c>
       <c r="E41" t="n">
-        <v>57.777778</v>
+        <v>52.5</v>
       </c>
       <c r="F41" t="n">
         <v>25</v>
@@ -2449,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>264.540066481441</v>
+        <v>259.262288481441</v>
       </c>
       <c r="J41" t="n">
         <v>2</v>
@@ -2459,24 +2474,24 @@
       </c>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" t="n">
         <v>88.3959792174171</v>
       </c>
       <c r="E42" t="n">
-        <v>62.222222</v>
+        <v>57.5</v>
       </c>
       <c r="F42" t="n">
         <v>12.5</v>
@@ -2488,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>259.151385299623</v>
+        <v>254.429163299623</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -2498,24 +2513,24 @@
       </c>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" t="n">
         <v>86.027638754756</v>
       </c>
       <c r="E43" t="n">
-        <v>62.222222</v>
+        <v>57.5</v>
       </c>
       <c r="F43" t="n">
         <v>12.5</v>
@@ -2527,7 +2542,7 @@
         <v>33</v>
       </c>
       <c r="I43" t="n">
-        <v>254.647138832492</v>
+        <v>249.924916832492</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -2537,24 +2552,24 @@
       </c>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
         <v>69</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
       </c>
       <c r="D44" t="n">
         <v>50.3015481776046</v>
       </c>
       <c r="E44" t="n">
-        <v>51.11111</v>
+        <v>50</v>
       </c>
       <c r="F44" t="n">
         <v>33.3333333333333</v>
@@ -2566,7 +2581,7 @@
         <v>52</v>
       </c>
       <c r="I44" t="n">
-        <v>206.194190345049</v>
+        <v>205.083080345049</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
@@ -2576,24 +2591,24 @@
       </c>
       <c r="L44"/>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" t="n">
         <v>98.9122096176604</v>
       </c>
       <c r="E45" t="n">
-        <v>84.44444</v>
+        <v>85</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2605,7 +2620,7 @@
         <v>47</v>
       </c>
       <c r="I45" t="n">
-        <v>238.230143574882</v>
+        <v>238.785703574882</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2615,24 +2630,24 @@
       </c>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="n">
         <v>98.4186448395213</v>
       </c>
       <c r="E46" t="n">
-        <v>77.77778</v>
+        <v>77.5</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2644,308 +2659,314 @@
         <v>47</v>
       </c>
       <c r="I46" t="n">
-        <v>228.533387101414</v>
+        <v>228.255607101415</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46"/>
       <c r="M46" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="n">
+        <v>100</v>
+      </c>
+      <c r="E47" t="n">
         <v>70</v>
       </c>
-      <c r="D47" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" t="n">
-        <v>71.11111</v>
-      </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.14382492657479</v>
+        <v>13.3291221478688</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I47" t="n">
-        <v>172.254934926575</v>
+        <v>240.329122147869</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" t="n">
         <v>75</v>
       </c>
-      <c r="D48" t="n">
-        <v>100</v>
-      </c>
-      <c r="E48" t="n">
-        <v>71.11111</v>
-      </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>5.54606757726523</v>
+        <v>1.14382492657479</v>
       </c>
       <c r="H48" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>232.657177577265</v>
+        <v>176.143824926575</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>75</v>
       </c>
       <c r="D49" t="n">
-        <v>97.3178793755558</v>
+        <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>66.66667</v>
+        <v>75</v>
       </c>
       <c r="F49" t="n">
-        <v>11.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>10.6387071115924</v>
+        <v>5.54606757726523</v>
       </c>
       <c r="H49" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I49" t="n">
-        <v>230.734367598259</v>
+        <v>236.546067577265</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
       </c>
       <c r="D50" t="n">
-        <v>83.4464942144378</v>
+        <v>97.3178793755558</v>
       </c>
       <c r="E50" t="n">
-        <v>64.44444</v>
+        <v>67.5</v>
       </c>
       <c r="F50" t="n">
-        <v>37.5</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="G50" t="n">
-        <v>6.14939833029048</v>
+        <v>10.6387071115924</v>
       </c>
       <c r="H50" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I50" t="n">
-        <v>258.540332544728</v>
+        <v>231.567697598259</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D51" t="n">
-        <v>97.2462993624277</v>
+        <v>83.4464942144378</v>
       </c>
       <c r="E51" t="n">
-        <v>66.66667</v>
+        <v>62.5</v>
       </c>
       <c r="F51" t="n">
-        <v>11.1111111111111</v>
+        <v>37.5</v>
       </c>
       <c r="G51" t="n">
-        <v>14.7057925432929</v>
+        <v>6.14939833029048</v>
       </c>
       <c r="H51" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I51" t="n">
-        <v>232.729873016832</v>
+        <v>256.595892544728</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>97.2462993624277</v>
       </c>
       <c r="E52" t="n">
-        <v>77.77778</v>
+        <v>67.5</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="G52" t="n">
-        <v>99.016586446884</v>
+        <v>14.7057925432929</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I52" t="n">
-        <v>276.794366446884</v>
+        <v>233.563203016832</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" t="n">
         <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>64.444444</v>
+        <v>75</v>
       </c>
       <c r="F53" t="n">
-        <v>11.1111111111111</v>
-      </c>
-      <c r="G53"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>99.016586446884</v>
+      </c>
       <c r="H53" t="n">
-        <v>51</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>274.016586446884</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53"/>
       <c r="M53" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>82</v>
       </c>
       <c r="D54" t="n">
-        <v>25.4752882596388</v>
+        <v>100</v>
       </c>
       <c r="E54" t="n">
-        <v>66.666667</v>
+        <v>65</v>
       </c>
       <c r="F54" t="n">
         <v>11.1111111111111</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -2954,59 +2975,57 @@
       </c>
       <c r="L54"/>
       <c r="M54" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>82</v>
       </c>
       <c r="D55" t="n">
-        <v>8.18033767541901</v>
+        <v>25.4752882596388</v>
       </c>
       <c r="E55" t="n">
-        <v>62.222222</v>
+        <v>67.5</v>
       </c>
       <c r="F55" t="n">
-        <v>22.2222222222222</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I55"/>
-      <c r="J55" t="n">
-        <v>3</v>
-      </c>
+      <c r="J55"/>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55"/>
       <c r="M55" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>82</v>
       </c>
       <c r="D56" t="n">
-        <v>27.866660600359</v>
+        <v>8.18033767541901</v>
       </c>
       <c r="E56" t="n">
-        <v>62.222222</v>
+        <v>62.5</v>
       </c>
       <c r="F56" t="n">
         <v>22.2222222222222</v>
@@ -3024,24 +3043,24 @@
       </c>
       <c r="L56"/>
       <c r="M56" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>82</v>
       </c>
       <c r="D57" t="n">
-        <v>56.3954580958173</v>
+        <v>27.866660600359</v>
       </c>
       <c r="E57" t="n">
-        <v>64.444444</v>
+        <v>62.5</v>
       </c>
       <c r="F57" t="n">
         <v>22.2222222222222</v>
@@ -3059,114 +3078,110 @@
       </c>
       <c r="L57"/>
       <c r="M57" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D58" t="n">
-        <v>85.9074833009822</v>
+        <v>56.3954580958173</v>
       </c>
       <c r="E58" t="n">
-        <v>57.77778</v>
+        <v>62.5</v>
       </c>
       <c r="F58" t="n">
-        <v>54.5454545454545</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.1650292952438</v>
-      </c>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="G58"/>
       <c r="H58" t="n">
-        <v>62</v>
-      </c>
-      <c r="I58" t="n">
-        <v>261.395747141681</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I58"/>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58"/>
       <c r="M58" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
       </c>
       <c r="D59" t="n">
-        <v>90.282264926986</v>
+        <v>85.9074833009822</v>
       </c>
       <c r="E59" t="n">
-        <v>77.77778</v>
+        <v>60</v>
       </c>
       <c r="F59" t="n">
-        <v>36.3636363636364</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G59" t="n">
-        <v>0.566023593103843</v>
+        <v>1.1650292952438</v>
       </c>
       <c r="H59" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I59" t="n">
-        <v>304.989704883726</v>
+        <v>263.617967141681</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59"/>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>88</v>
       </c>
       <c r="D60" t="n">
-        <v>89.039414514038</v>
+        <v>90.282264926986</v>
       </c>
       <c r="E60" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F60" t="n">
-        <v>54.5454545454545</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G60" t="n">
-        <v>0.072212288624189</v>
+        <v>0.566023593103843</v>
       </c>
       <c r="H60" t="n">
         <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>303.657081348117</v>
+        <v>302.211924883726</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -3176,36 +3191,36 @@
       </c>
       <c r="L60"/>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>88</v>
       </c>
       <c r="D61" t="n">
-        <v>65.6100466128321</v>
+        <v>89.039414514038</v>
       </c>
       <c r="E61" t="n">
-        <v>55.55556</v>
+        <v>55</v>
       </c>
       <c r="F61" t="n">
         <v>54.5454545454545</v>
       </c>
       <c r="G61" t="n">
-        <v>0.644540262932488</v>
+        <v>0.072212288624189</v>
       </c>
       <c r="H61" t="n">
         <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>276.355601421219</v>
+        <v>298.657081348117</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -3215,36 +3230,36 @@
       </c>
       <c r="L61"/>
       <c r="M61" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D62" t="n">
-        <v>11.766996910312</v>
+        <v>65.6100466128321</v>
       </c>
       <c r="E62" t="n">
-        <v>68.888889</v>
+        <v>50</v>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="G62" t="n">
-        <v>0.101749123484108</v>
+        <v>0.644540262932488</v>
       </c>
       <c r="H62" t="n">
         <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>210.757635033796</v>
+        <v>270.800041421219</v>
       </c>
       <c r="J62" t="n">
         <v>3</v>
@@ -3254,150 +3269,154 @@
       </c>
       <c r="L62"/>
       <c r="M62" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>11.766996910312</v>
       </c>
       <c r="E63" t="n">
-        <v>77.77778</v>
+        <v>65</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>19.6372727671461</v>
+        <v>0.101749123484108</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
-        <v>201.415052767146</v>
+        <v>206.868746033796</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63"/>
       <c r="M63" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D64" t="n">
-        <v>82.3800853950381</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>71.11111</v>
+        <v>77.5</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>24.3970879919209</v>
+        <v>19.6372727671461</v>
       </c>
       <c r="H64" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>234.888283386959</v>
+        <v>201.137272767146</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64"/>
       <c r="M64" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>96</v>
       </c>
       <c r="D65" t="n">
-        <v>29.2775310116298</v>
+        <v>82.3800853950381</v>
       </c>
       <c r="E65" t="n">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>24.3970879919209</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I65" t="n">
-        <v>209.27753101163</v>
+        <v>236.277173386959</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65"/>
       <c r="M65" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>96</v>
       </c>
       <c r="D66" t="n">
-        <v>28.9910378259323</v>
+        <v>29.2775310116298</v>
       </c>
       <c r="E66" t="n">
-        <v>86.66667</v>
+        <v>77.5</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G66"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" t="n">
         <v>100</v>
       </c>
-      <c r="I66"/>
+      <c r="I66" t="n">
+        <v>206.77753101163</v>
+      </c>
       <c r="J66" t="n">
         <v>3</v>
       </c>
@@ -3406,420 +3425,416 @@
       </c>
       <c r="L66"/>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>28.9910378259323</v>
       </c>
       <c r="E67" t="n">
-        <v>55.55556</v>
+        <v>85</v>
       </c>
       <c r="F67" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G67" t="n">
-        <v>46.7585234237207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G67"/>
       <c r="H67" t="n">
-        <v>27</v>
-      </c>
-      <c r="I67" t="n">
-        <v>241.814083423721</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I67"/>
       <c r="J67" t="n">
         <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67"/>
       <c r="M67" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>92.5445070971975</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>55.55556</v>
+        <v>55</v>
       </c>
       <c r="F68" t="n">
         <v>12.5</v>
       </c>
       <c r="G68" t="n">
-        <v>79.3056608579761</v>
+        <v>46.7585234237207</v>
       </c>
       <c r="H68" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I68" t="n">
-        <v>272.905727955174</v>
+        <v>241.258523423721</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68"/>
       <c r="M68" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>92.5445070971975</v>
       </c>
       <c r="E69" t="n">
-        <v>73.33333</v>
+        <v>55</v>
       </c>
       <c r="F69" t="n">
         <v>12.5</v>
       </c>
       <c r="G69" t="n">
-        <v>86.9102939314629</v>
+        <v>79.3056608579761</v>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I69" t="n">
-        <v>279.743623931463</v>
+        <v>272.350167955174</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69"/>
       <c r="M69" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>98.7617885632518</v>
+        <v>100</v>
       </c>
       <c r="E70" t="n">
-        <v>73.33333</v>
+        <v>72.5</v>
       </c>
       <c r="F70" t="n">
         <v>12.5</v>
       </c>
       <c r="G70" t="n">
-        <v>61.7644449151713</v>
+        <v>86.9102939314629</v>
       </c>
       <c r="H70" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
-        <v>267.359563478423</v>
+        <v>278.910293931463</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70"/>
       <c r="M70" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
         <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>90.8545766323051</v>
+        <v>98.7617885632518</v>
       </c>
       <c r="E71" t="n">
-        <v>68.88889</v>
+        <v>72.5</v>
       </c>
       <c r="F71" t="n">
         <v>12.5</v>
       </c>
       <c r="G71" t="n">
-        <v>74.5430781709252</v>
+        <v>61.7644449151713</v>
       </c>
       <c r="H71" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I71" t="n">
-        <v>289.78654480323</v>
+        <v>266.526233478423</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71"/>
       <c r="M71" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>49.1351344420367</v>
+        <v>90.8545766323051</v>
       </c>
       <c r="E72" t="n">
-        <v>77.77778</v>
+        <v>67.5</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72"/>
+        <v>12.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>74.5430781709252</v>
+      </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72"/>
-      <c r="J72"/>
+        <v>43</v>
+      </c>
+      <c r="I72" t="n">
+        <v>288.39765480323</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72"/>
       <c r="M72" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D73" t="n">
-        <v>85.4937866389166</v>
+        <v>49.1351344420367</v>
       </c>
       <c r="E73" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F73" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G73" t="n">
-        <v>27.2506749163124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G73"/>
       <c r="H73" t="n">
-        <v>91</v>
-      </c>
-      <c r="I73" t="n">
-        <v>317.077794888562</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73"/>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73"/>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>60</v>
+        <v>85.4937866389166</v>
       </c>
       <c r="E74" t="n">
-        <v>86.66667</v>
+        <v>82.5</v>
       </c>
       <c r="F74" t="n">
         <v>33.3333333333333</v>
       </c>
       <c r="G74" t="n">
-        <v>13.2823467493465</v>
+        <v>27.2506749163124</v>
       </c>
       <c r="H74" t="n">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I74" t="n">
-        <v>226.28235008268</v>
+        <v>319.577794888562</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74"/>
       <c r="M74" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
         <v>108</v>
       </c>
       <c r="D75" t="n">
-        <v>84.3515167253664</v>
+        <v>60</v>
       </c>
       <c r="E75" t="n">
-        <v>80</v>
+        <v>87.5</v>
       </c>
       <c r="F75" t="n">
         <v>33.3333333333333</v>
       </c>
       <c r="G75" t="n">
-        <v>25.2135032656789</v>
+        <v>13.2823467493465</v>
       </c>
       <c r="H75" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I75" t="n">
-        <v>254.898353324379</v>
+        <v>227.11568008268</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75"/>
       <c r="M75" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>108</v>
       </c>
       <c r="D76" t="n">
-        <v>81.6424583789295</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E76" t="n">
-        <v>60</v>
+        <v>82.5</v>
       </c>
       <c r="F76" t="n">
-        <v>41.6666666666667</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G76" t="n">
-        <v>38.3538178047948</v>
+        <v>25.2135032656789</v>
       </c>
       <c r="H76" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I76" t="n">
-        <v>290.662942850391</v>
+        <v>257.398353324379</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76"/>
       <c r="M76" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>108</v>
       </c>
       <c r="D77" t="n">
-        <v>70.5855572519734</v>
+        <v>81.6424583789295</v>
       </c>
       <c r="E77" t="n">
-        <v>53.33333</v>
+        <v>60</v>
       </c>
       <c r="F77" t="n">
         <v>41.6666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>30.0677733801373</v>
+        <v>38.3538178047948</v>
       </c>
       <c r="H77" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I77" t="n">
-        <v>265.653327298777</v>
+        <v>290.662942850391</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -3829,284 +3844,292 @@
       </c>
       <c r="L77"/>
       <c r="M77" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>108</v>
       </c>
       <c r="D78" t="n">
-        <v>41.4045292643402</v>
+        <v>70.5855572519734</v>
       </c>
       <c r="E78" t="n">
-        <v>55.55556</v>
+        <v>52.5</v>
       </c>
       <c r="F78" t="n">
         <v>41.6666666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>30.3870515295633</v>
+        <v>30.0677733801373</v>
       </c>
       <c r="H78" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I78" t="n">
-        <v>260.01380746057</v>
+        <v>264.819997298777</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78"/>
       <c r="M78" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>108</v>
       </c>
       <c r="D79" t="n">
-        <v>49.4803351128707</v>
+        <v>41.4045292643402</v>
       </c>
       <c r="E79" t="n">
-        <v>55.55556</v>
+        <v>55</v>
       </c>
       <c r="F79" t="n">
         <v>41.6666666666667</v>
       </c>
       <c r="G79" t="n">
-        <v>13.4636794250599</v>
+        <v>30.3870515295633</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I79" t="n">
-        <v>161.166241204597</v>
+        <v>259.45824746057</v>
       </c>
       <c r="J79" t="n">
         <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79"/>
       <c r="M79" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>108</v>
       </c>
       <c r="D80" t="n">
-        <v>47.1080799545594</v>
+        <v>49.4803351128707</v>
       </c>
       <c r="E80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F80" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G80"/>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="G80" t="n">
+        <v>13.4636794250599</v>
+      </c>
       <c r="H80" t="n">
-        <v>92</v>
-      </c>
-      <c r="I80"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>160.610681204597</v>
+      </c>
       <c r="J80" t="n">
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80"/>
       <c r="M80" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D81" t="n">
-        <v>66.1741633759659</v>
+        <v>100</v>
       </c>
       <c r="E81" t="n">
-        <v>69.78993</v>
+        <v>50</v>
       </c>
       <c r="F81" t="n">
-        <v>42.8571428571429</v>
-      </c>
-      <c r="G81"/>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="G81" t="n">
+        <v>62.2128103054147</v>
+      </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81"/>
+        <v>10</v>
+      </c>
+      <c r="I81" t="n">
+        <v>263.879476972081</v>
+      </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
-      <c r="L81" t="n">
-        <v>6</v>
-      </c>
+      <c r="L81"/>
       <c r="M81" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D82" t="n">
-        <v>29.0685016838052</v>
+        <v>47.1080799545594</v>
       </c>
       <c r="E82" t="n">
-        <v>67.338526</v>
+        <v>60</v>
       </c>
       <c r="F82" t="n">
-        <v>66.6666666666667</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L82"/>
       <c r="M82" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" t="n">
-        <v>60.045701093646</v>
+        <v>66.1741633759659</v>
       </c>
       <c r="E83" t="n">
-        <v>86.66667</v>
+        <v>69.78993</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83"/>
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6</v>
+      </c>
       <c r="M83" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D84" t="n">
-        <v>34.6727712734646</v>
+        <v>29.0685016838052</v>
       </c>
       <c r="E84" t="n">
-        <v>71.11111</v>
+        <v>67.338526</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G84"/>
       <c r="H84" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84"/>
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
       <c r="M84" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D85" t="n">
-        <v>12.4407088350896</v>
+        <v>60.045701093646</v>
       </c>
       <c r="E85" t="n">
-        <v>62.661792</v>
+        <v>87.5</v>
       </c>
       <c r="F85" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="n">
@@ -4119,146 +4142,146 @@
       <c r="K85" t="n">
         <v>1</v>
       </c>
-      <c r="L85" t="n">
-        <v>8</v>
-      </c>
+      <c r="L85"/>
       <c r="M85" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D86" t="n">
-        <v>39.1113943293231</v>
+        <v>4.80073138748967</v>
       </c>
       <c r="E86" t="n">
-        <v>87.230272</v>
+        <v>52.5</v>
       </c>
       <c r="F86" t="n">
-        <v>44.4444444444444</v>
-      </c>
-      <c r="G86"/>
+        <v>100</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
       <c r="H86" t="n">
-        <v>100</v>
-      </c>
-      <c r="I86"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>157.30073138749</v>
+      </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L86"/>
       <c r="M86" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D87" t="n">
-        <v>50.1958993306528</v>
+        <v>12.4407088350896</v>
       </c>
       <c r="E87" t="n">
-        <v>65.428038</v>
+        <v>62.661792</v>
       </c>
       <c r="F87" t="n">
-        <v>57.1428571428571</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G87"/>
       <c r="H87" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D88" t="n">
-        <v>61.21972936706</v>
+        <v>39.1113943293231</v>
       </c>
       <c r="E88" t="n">
-        <v>67.884084</v>
+        <v>87.230272</v>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="G88"/>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I88"/>
       <c r="J88" t="n">
         <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D89" t="n">
-        <v>38.5740394919732</v>
+        <v>50.1958993306528</v>
       </c>
       <c r="E89" t="n">
-        <v>68.100858</v>
+        <v>65.428038</v>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I89"/>
       <c r="J89" t="n">
@@ -4268,30 +4291,30 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M89" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>86.7140772219792</v>
+        <v>61.21972936706</v>
       </c>
       <c r="E90" t="n">
-        <v>78.301646</v>
+        <v>67.884084</v>
       </c>
       <c r="F90" t="n">
-        <v>30</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G90"/>
       <c r="H90" t="n">
@@ -4299,40 +4322,40 @@
       </c>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D91" t="n">
-        <v>9.40098230509123</v>
+        <v>38.5740394919732</v>
       </c>
       <c r="E91" t="n">
-        <v>52.803294</v>
+        <v>68.100858</v>
       </c>
       <c r="F91" t="n">
-        <v>40</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G91"/>
       <c r="H91" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I91"/>
       <c r="J91" t="n">
@@ -4342,108 +4365,108 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M91" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D92" t="n">
-        <v>17.9876343973801</v>
+        <v>86.7140772219792</v>
       </c>
       <c r="E92" t="n">
-        <v>69.882502</v>
+        <v>78.301646</v>
       </c>
       <c r="F92" t="n">
-        <v>25</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="G92"/>
       <c r="H92" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I92"/>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M92" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D93" t="n">
-        <v>68.7766246982534</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E93" t="n">
-        <v>78.929179</v>
+        <v>52.803294</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G93"/>
       <c r="H93" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I93"/>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M93" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D94" t="n">
-        <v>93.1298740813175</v>
+        <v>17.9876343973801</v>
       </c>
       <c r="E94" t="n">
-        <v>51.22912</v>
+        <v>69.882502</v>
       </c>
       <c r="F94" t="n">
-        <v>57.1428571428571</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I94"/>
       <c r="J94" t="n">
@@ -4453,108 +4476,108 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>68.7766246982534</v>
       </c>
       <c r="E95" t="n">
-        <v>50.335115</v>
+        <v>78.929179</v>
       </c>
       <c r="F95" t="n">
-        <v>66.6666666666667</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M95" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D96" t="n">
-        <v>35.0268037935056</v>
+        <v>93.1298740813175</v>
       </c>
       <c r="E96" t="n">
-        <v>62.927406</v>
+        <v>51.22912</v>
       </c>
       <c r="F96" t="n">
         <v>66.6666666666667</v>
       </c>
       <c r="G96"/>
       <c r="H96" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I96"/>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M96" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D97" t="n">
-        <v>21.8776868375151</v>
+        <v>100</v>
       </c>
       <c r="E97" t="n">
-        <v>100</v>
+        <v>50.335115</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I97"/>
       <c r="J97" t="n">
@@ -4564,69 +4587,71 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M97" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D98" t="n">
-        <v>36.0074020631048</v>
+        <v>35.0268037935056</v>
       </c>
       <c r="E98" t="n">
-        <v>95.555556</v>
+        <v>62.927406</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G98"/>
       <c r="H98" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98"/>
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4</v>
+      </c>
       <c r="M98" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="D99" t="n">
-        <v>55.3527869715281</v>
+        <v>35.6891273332541</v>
       </c>
       <c r="E99" t="n">
-        <v>53.33333</v>
+        <v>55</v>
       </c>
       <c r="F99" t="n">
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -4635,97 +4660,103 @@
       </c>
       <c r="L99"/>
       <c r="M99" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D100" t="n">
-        <v>39.8890392483469</v>
+        <v>21.8776868375151</v>
       </c>
       <c r="E100" t="n">
-        <v>51.11111</v>
+        <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G100"/>
       <c r="H100" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I100"/>
-      <c r="J100"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
-      <c r="L100"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
       <c r="M100" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D101" t="n">
-        <v>72.6593376346171</v>
+        <v>36.0074020631048</v>
       </c>
       <c r="E101" t="n">
-        <v>53.33333</v>
+        <v>95</v>
       </c>
       <c r="F101" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I101"/>
-      <c r="J101"/>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101"/>
       <c r="M101" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D102" t="n">
-        <v>88.3850078434078</v>
+        <v>55.3527869715281</v>
       </c>
       <c r="E102" t="n">
-        <v>51.11111</v>
+        <v>55</v>
       </c>
       <c r="F102" t="n">
         <v>25</v>
       </c>
       <c r="G102"/>
       <c r="H102" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I102"/>
       <c r="J102"/>
@@ -4734,31 +4765,31 @@
       </c>
       <c r="L102"/>
       <c r="M102" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D103" t="n">
-        <v>96.9990242386877</v>
+        <v>39.8890392483469</v>
       </c>
       <c r="E103" t="n">
-        <v>75.55556</v>
+        <v>50</v>
       </c>
       <c r="F103" t="n">
         <v>25</v>
       </c>
       <c r="G103"/>
       <c r="H103" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I103"/>
       <c r="J103"/>
@@ -4767,31 +4798,31 @@
       </c>
       <c r="L103"/>
       <c r="M103" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D104" t="n">
-        <v>94.1426394673889</v>
+        <v>72.6593376346171</v>
       </c>
       <c r="E104" t="n">
-        <v>75.55556</v>
+        <v>52.5</v>
       </c>
       <c r="F104" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G104"/>
       <c r="H104" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I104"/>
       <c r="J104"/>
@@ -4800,31 +4831,31 @@
       </c>
       <c r="L104"/>
       <c r="M104" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D105" t="n">
-        <v>49.0993179430452</v>
+        <v>88.3850078434078</v>
       </c>
       <c r="E105" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F105" t="n">
         <v>25</v>
       </c>
       <c r="G105"/>
       <c r="H105" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I105"/>
       <c r="J105"/>
@@ -4833,129 +4864,123 @@
       </c>
       <c r="L105"/>
       <c r="M105" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D106" t="n">
-        <v>91.8099974513869</v>
+        <v>96.9990242386877</v>
       </c>
       <c r="E106" t="n">
-        <v>62.222222</v>
+        <v>80</v>
       </c>
       <c r="F106" t="n">
         <v>25</v>
       </c>
       <c r="G106"/>
       <c r="H106" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I106"/>
-      <c r="J106" t="n">
-        <v>3</v>
-      </c>
+      <c r="J106"/>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106"/>
       <c r="M106" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>94.1426394673889</v>
       </c>
       <c r="E107" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F107" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="G107"/>
       <c r="H107" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I107"/>
-      <c r="J107" t="n">
-        <v>3</v>
-      </c>
+      <c r="J107"/>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107"/>
       <c r="M107" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D108" t="n">
-        <v>86.5338600255517</v>
+        <v>49.0993179430452</v>
       </c>
       <c r="E108" t="n">
-        <v>82.22222</v>
+        <v>57.5</v>
       </c>
       <c r="F108" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G108"/>
       <c r="H108" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I108"/>
-      <c r="J108" t="n">
-        <v>3</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108"/>
       <c r="M108" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D109" t="n">
-        <v>42.6890552310836</v>
+        <v>91.8099974513869</v>
       </c>
       <c r="E109" t="n">
-        <v>64.444444</v>
+        <v>60</v>
       </c>
       <c r="F109" t="n">
         <v>25</v>
@@ -4973,24 +4998,24 @@
       </c>
       <c r="L109"/>
       <c r="M109" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D110" t="n">
-        <v>37.4806806871606</v>
+        <v>100</v>
       </c>
       <c r="E110" t="n">
-        <v>64.444444</v>
+        <v>57.5</v>
       </c>
       <c r="F110" t="n">
         <v>25</v>
@@ -5008,27 +5033,27 @@
       </c>
       <c r="L110"/>
       <c r="M110" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D111" t="n">
-        <v>97.2953537279299</v>
+        <v>86.5338600255517</v>
       </c>
       <c r="E111" t="n">
-        <v>82.22222</v>
+        <v>80</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G111"/>
       <c r="H111" t="n">
@@ -5043,27 +5068,27 @@
       </c>
       <c r="L111"/>
       <c r="M111" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D112" t="n">
-        <v>71.6969623422411</v>
+        <v>42.6890552310836</v>
       </c>
       <c r="E112" t="n">
-        <v>82.22222</v>
+        <v>65</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G112"/>
       <c r="H112" t="n">
@@ -5078,27 +5103,27 @@
       </c>
       <c r="L112"/>
       <c r="M112" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D113" t="n">
-        <v>32.5149885056798</v>
+        <v>37.4806806871606</v>
       </c>
       <c r="E113" t="n">
-        <v>84.444444</v>
+        <v>65</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G113"/>
       <c r="H113" t="n">
@@ -5113,37 +5138,33 @@
       </c>
       <c r="L113"/>
       <c r="M113" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D114" t="n">
-        <v>77.986833542685</v>
+        <v>53.2313104822968</v>
       </c>
       <c r="E114" t="n">
-        <v>77.77778</v>
+        <v>67.5</v>
       </c>
       <c r="F114" t="n">
-        <v>36.3636363636364</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.23071272602277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G114"/>
       <c r="H114" t="n">
         <v>100</v>
       </c>
-      <c r="I114" t="n">
-        <v>293.358962632344</v>
-      </c>
+      <c r="I114"/>
       <c r="J114" t="n">
         <v>3</v>
       </c>
@@ -5152,37 +5173,33 @@
       </c>
       <c r="L114"/>
       <c r="M114" t="n">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D115" t="n">
-        <v>96.2017524769695</v>
+        <v>97.2953537279299</v>
       </c>
       <c r="E115" t="n">
-        <v>68.88889</v>
+        <v>80</v>
       </c>
       <c r="F115" t="n">
-        <v>36.3636363636364</v>
-      </c>
-      <c r="G115" t="n">
-        <v>7.9765793321376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G115"/>
       <c r="H115" t="n">
-        <v>99</v>
-      </c>
-      <c r="I115" t="n">
-        <v>308.430858172743</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I115"/>
       <c r="J115" t="n">
         <v>3</v>
       </c>
@@ -5191,270 +5208,262 @@
       </c>
       <c r="L115"/>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" t="n">
-        <v>97.0341353962278</v>
+        <v>71.6969623422411</v>
       </c>
       <c r="E116" t="n">
-        <v>53.33333</v>
+        <v>80</v>
       </c>
       <c r="F116" t="n">
-        <v>27.2727272727273</v>
-      </c>
-      <c r="G116" t="n">
-        <v>7.46028813594896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G116"/>
       <c r="H116" t="n">
-        <v>56</v>
-      </c>
-      <c r="I116" t="n">
-        <v>241.100480804904</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I116"/>
       <c r="J116" t="n">
         <v>3</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116"/>
       <c r="M116" t="n">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D117" t="n">
-        <v>98.9014640459717</v>
+        <v>32.5149885056798</v>
       </c>
       <c r="E117" t="n">
-        <v>53.33333</v>
+        <v>82.5</v>
       </c>
       <c r="F117" t="n">
-        <v>27.2727272727273</v>
-      </c>
-      <c r="G117" t="n">
-        <v>31.6469324807288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G117"/>
       <c r="H117" t="n">
-        <v>42</v>
-      </c>
-      <c r="I117" t="n">
-        <v>253.154453799428</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I117"/>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117"/>
       <c r="M117" t="n">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D118" t="n">
-        <v>76.3671057432737</v>
+        <v>77.986833542685</v>
       </c>
       <c r="E118" t="n">
-        <v>51.11111</v>
+        <v>80</v>
       </c>
       <c r="F118" t="n">
         <v>36.3636363636364</v>
       </c>
       <c r="G118" t="n">
-        <v>9.86420954806068</v>
+        <v>1.23071272602277</v>
       </c>
       <c r="H118" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I118" t="n">
-        <v>249.706061654971</v>
+        <v>295.581182632344</v>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118"/>
       <c r="M118" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D119" t="n">
-        <v>100</v>
+        <v>96.2017524769695</v>
       </c>
       <c r="E119" t="n">
-        <v>55.55556</v>
+        <v>67.5</v>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G119" t="n">
-        <v>41.6818339622474</v>
+        <v>7.9765793321376</v>
       </c>
       <c r="H119" t="n">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="I119" t="n">
-        <v>246.237393962247</v>
+        <v>307.041968172743</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119"/>
       <c r="M119" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D120" t="n">
-        <v>86.7430413008064</v>
+        <v>97.0341353962278</v>
       </c>
       <c r="E120" t="n">
-        <v>55.555556</v>
+        <v>57.5</v>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>27.2727272727273</v>
       </c>
       <c r="G120" t="n">
-        <v>86.1330435257328</v>
+        <v>7.46028813594896</v>
       </c>
       <c r="H120" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I120" t="n">
-        <v>299.431640826539</v>
+        <v>245.267150804904</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
       </c>
       <c r="L120"/>
       <c r="M120" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D121" t="n">
-        <v>100</v>
+        <v>98.9014640459717</v>
       </c>
       <c r="E121" t="n">
-        <v>53.333333</v>
+        <v>57.5</v>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>27.2727272727273</v>
       </c>
       <c r="G121" t="n">
-        <v>85.30220261826</v>
+        <v>31.6469324807288</v>
       </c>
       <c r="H121" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I121" t="n">
-        <v>265.63553561826</v>
+        <v>257.321123799428</v>
       </c>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
       </c>
       <c r="L121"/>
       <c r="M121" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D122" t="n">
-        <v>95.9150558706487</v>
+        <v>76.3671057432737</v>
       </c>
       <c r="E122" t="n">
-        <v>73.33333</v>
+        <v>50</v>
       </c>
       <c r="F122" t="n">
-        <v>25</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="G122" t="n">
-        <v>7.81416870185758</v>
+        <v>9.86420954806068</v>
       </c>
       <c r="H122" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I122" t="n">
-        <v>276.062554572506</v>
+        <v>248.594951654971</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -5464,198 +5473,432 @@
       </c>
       <c r="L122"/>
       <c r="M122" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D123" t="n">
-        <v>100</v>
+        <v>95.7905956698196</v>
       </c>
       <c r="E123" t="n">
-        <v>77.77778</v>
+        <v>50</v>
       </c>
       <c r="F123" t="n">
-        <v>25</v>
+        <v>45.4545454545455</v>
       </c>
       <c r="G123" t="n">
-        <v>2.38214423735175</v>
+        <v>14.3051323313078</v>
       </c>
       <c r="H123" t="n">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I123" t="n">
-        <v>304.159924237352</v>
+        <v>237.550273455673</v>
       </c>
       <c r="J123" t="n">
         <v>3</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123"/>
       <c r="M123" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D124" t="n">
         <v>100</v>
       </c>
       <c r="E124" t="n">
-        <v>73.33333</v>
+        <v>52.5</v>
       </c>
       <c r="F124" t="n">
         <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>8.12860989683308</v>
+        <v>41.6818339622474</v>
       </c>
       <c r="H124" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I124" t="n">
-        <v>297.461939896833</v>
+        <v>243.181833962247</v>
       </c>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124"/>
       <c r="M124" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D125" t="n">
-        <v>100</v>
+        <v>86.7430413008064</v>
       </c>
       <c r="E125" t="n">
-        <v>73.33333</v>
+        <v>52.5</v>
       </c>
       <c r="F125" t="n">
-        <v>25</v>
-      </c>
-      <c r="G125"/>
+        <v>40</v>
+      </c>
+      <c r="G125" t="n">
+        <v>86.1330435257328</v>
+      </c>
       <c r="H125" t="n">
-        <v>100</v>
-      </c>
-      <c r="I125"/>
+        <v>31</v>
+      </c>
+      <c r="I125" t="n">
+        <v>296.376084826539</v>
+      </c>
       <c r="J125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125"/>
       <c r="M125" t="n">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D126" t="n">
-        <v>3.08708129583914</v>
+        <v>100</v>
       </c>
       <c r="E126" t="n">
-        <v>71.11111</v>
+        <v>52.5</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>87.2192585744279</v>
       </c>
       <c r="H126" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>117.198191295839</v>
+        <v>264.719258574428</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
       </c>
       <c r="L126"/>
       <c r="M126" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D127" t="n">
-        <v>11.5531152313921</v>
+        <v>100</v>
       </c>
       <c r="E127" t="n">
-        <v>82.22222</v>
+        <v>57.5</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>85.30220261826</v>
       </c>
       <c r="H127" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I127" t="n">
-        <v>193.775335231392</v>
+        <v>269.80220261826</v>
       </c>
       <c r="J127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127"/>
       <c r="M127" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" t="n">
+        <v>78.9246452198911</v>
+      </c>
+      <c r="E128" t="n">
+        <v>50</v>
+      </c>
+      <c r="F128" t="n">
+        <v>40</v>
+      </c>
+      <c r="G128" t="n">
+        <v>94.1408881297739</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>265.065533349665</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" t="n">
+        <v>95.9150558706487</v>
+      </c>
+      <c r="E129" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25</v>
+      </c>
+      <c r="G129" t="n">
+        <v>7.81416870185758</v>
+      </c>
+      <c r="H129" t="n">
+        <v>74</v>
+      </c>
+      <c r="I129" t="n">
+        <v>275.229224572506</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129"/>
+      <c r="M129" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130" t="n">
+        <v>100</v>
+      </c>
+      <c r="E130" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.38214423735175</v>
+      </c>
+      <c r="H130" t="n">
+        <v>99</v>
+      </c>
+      <c r="I130" t="n">
+        <v>303.882144237352</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130"/>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" t="n">
+        <v>100</v>
+      </c>
+      <c r="E131" t="n">
+        <v>70</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20</v>
+      </c>
+      <c r="G131" t="n">
+        <v>8.12860989683308</v>
+      </c>
+      <c r="H131" t="n">
+        <v>96</v>
+      </c>
+      <c r="I131" t="n">
+        <v>294.128609896833</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131"/>
+      <c r="M131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132" t="n">
+        <v>100</v>
+      </c>
+      <c r="E132" t="n">
         <v>75</v>
+      </c>
+      <c r="F132" t="n">
+        <v>25</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132" t="n">
+        <v>100</v>
+      </c>
+      <c r="I132"/>
+      <c r="J132" t="n">
+        <v>3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132"/>
+      <c r="M132" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.5531152313921</v>
+      </c>
+      <c r="E133" t="n">
+        <v>80</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>100</v>
+      </c>
+      <c r="I133" t="n">
+        <v>191.553115231392</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
